--- a/manejo_reportes/SOL/SOLPEND.xlsx
+++ b/manejo_reportes/SOL/SOLPEND.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\report_download\manejo_reportes\SOL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nueva carpeta\dashboard_operaciones\manejo_reportes\SOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A1EA197-B18D-4B4D-87F0-4DACB6E07330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED8750BF-A174-4D9B-9AD1-3984FBE9F4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500"/>
+    <workbookView xWindow="15930" yWindow="7215" windowWidth="21600" windowHeight="11295" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="482">
   <si>
     <t>SUPERINTENDENCIA NACIONAL DE MIGRACIONES</t>
   </si>
@@ -34,7 +34,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>:</t>
     </r>
@@ -92,7 +92,7 @@
     <t>Loaiza Valdez, Raul</t>
   </si>
   <si>
-    <t>4/12/2024 11:15:53</t>
+    <t>04/12/2024 11:15:53</t>
   </si>
   <si>
     <t>FINALIZADO</t>
@@ -125,7 +125,7 @@
     <t>Paz Araujo, Paola Francesca</t>
   </si>
   <si>
-    <t>4/12/2024 11:13:13</t>
+    <t>04/12/2024 11:13:13</t>
   </si>
   <si>
     <t>6</t>
@@ -137,7 +137,7 @@
     <t>Hurtado Lago Briyan Deivi</t>
   </si>
   <si>
-    <t>4/12/2024 11:17:58</t>
+    <t>04/12/2024 11:17:58</t>
   </si>
   <si>
     <t>7</t>
@@ -221,7 +221,7 @@
     <t>Albarracin Liendo, Renata Emilia</t>
   </si>
   <si>
-    <t>4/12/2024 09:31:36</t>
+    <t>04/12/2024 09:31:36</t>
   </si>
   <si>
     <t>20</t>
@@ -233,7 +233,7 @@
     <t>Zumarán Calcín, Karen Pamela</t>
   </si>
   <si>
-    <t>4/12/2024 11:10:08</t>
+    <t>04/12/2024 11:10:08</t>
   </si>
   <si>
     <t>21</t>
@@ -335,7 +335,7 @@
     <t>Dolmos Huaman, Francis Roy</t>
   </si>
   <si>
-    <t>4/12/2024 10:30:06</t>
+    <t>04/12/2024 10:30:06</t>
   </si>
   <si>
     <t>37</t>
@@ -353,7 +353,7 @@
     <t>Mejia Mercado Nathaly Lourdes</t>
   </si>
   <si>
-    <t>2/12/2024 11:45:52</t>
+    <t>02/12/2024 11:45:52</t>
   </si>
   <si>
     <t>39</t>
@@ -410,7 +410,7 @@
     <t>LM240402124</t>
   </si>
   <si>
-    <t>2/12/2024 11:41:35</t>
+    <t>02/12/2024 11:41:35</t>
   </si>
   <si>
     <t>48</t>
@@ -464,7 +464,7 @@
     <t>Castillo Castillo Jose Marcello</t>
   </si>
   <si>
-    <t>2/12/2024 11:44:12</t>
+    <t>02/12/2024 11:44:12</t>
   </si>
   <si>
     <t>56</t>
@@ -536,1018 +536,940 @@
     <t>67</t>
   </si>
   <si>
-    <t>LM240401995</t>
+    <t>LM240401581</t>
   </si>
   <si>
     <t>68</t>
   </si>
   <si>
-    <t>LM240401795</t>
-  </si>
-  <si>
-    <t>2/12/2024 11:39:00</t>
+    <t>LM240400955</t>
   </si>
   <si>
     <t>69</t>
   </si>
   <si>
-    <t>LM240401581</t>
+    <t>LM240400943</t>
+  </si>
+  <si>
+    <t>02/12/2024 11:39:00</t>
   </si>
   <si>
     <t>70</t>
   </si>
   <si>
-    <t>LM240401171</t>
+    <t>LM240400882</t>
   </si>
   <si>
     <t>71</t>
   </si>
   <si>
-    <t>LM240401041</t>
+    <t>LM240400674</t>
   </si>
   <si>
     <t>72</t>
   </si>
   <si>
-    <t>LM240400955</t>
+    <t>LM240400636</t>
+  </si>
+  <si>
+    <t>02/12/2024 11:35:58</t>
   </si>
   <si>
     <t>73</t>
   </si>
   <si>
-    <t>LM240400943</t>
+    <t>LM240400619</t>
   </si>
   <si>
     <t>74</t>
   </si>
   <si>
-    <t>LM240400882</t>
+    <t>LM240400431</t>
   </si>
   <si>
     <t>75</t>
   </si>
   <si>
-    <t>LM240400674</t>
+    <t>LM240400314</t>
   </si>
   <si>
     <t>76</t>
   </si>
   <si>
-    <t>LM240400636</t>
-  </si>
-  <si>
-    <t>2/12/2024 11:35:58</t>
+    <t>LM240400152</t>
   </si>
   <si>
     <t>77</t>
   </si>
   <si>
-    <t>LM240400619</t>
+    <t>LM240399898</t>
   </si>
   <si>
     <t>78</t>
   </si>
   <si>
-    <t>LM240400431</t>
+    <t>LM240399055</t>
   </si>
   <si>
     <t>79</t>
   </si>
   <si>
-    <t>LM240400314</t>
+    <t>LM240398848</t>
   </si>
   <si>
     <t>80</t>
   </si>
   <si>
-    <t>LM240400152</t>
+    <t>LM240398030</t>
+  </si>
+  <si>
+    <t>28/11/2024 15:15:51</t>
   </si>
   <si>
     <t>81</t>
   </si>
   <si>
-    <t>LM240399898</t>
+    <t>LM240397792</t>
   </si>
   <si>
     <t>82</t>
   </si>
   <si>
-    <t>LM240399055</t>
+    <t>LM240397471</t>
   </si>
   <si>
     <t>83</t>
   </si>
   <si>
-    <t>LM240398848</t>
+    <t>CS240025824</t>
+  </si>
+  <si>
+    <t>Quispe Jimenez, Luis Miguel</t>
+  </si>
+  <si>
+    <t>28/11/2024 08:25:28</t>
   </si>
   <si>
     <t>84</t>
   </si>
   <si>
-    <t>LM240398030</t>
-  </si>
-  <si>
-    <t>28/11/2024 15:15:51</t>
+    <t>CS240025819</t>
+  </si>
+  <si>
+    <t>28/11/2024 08:24:37</t>
   </si>
   <si>
     <t>85</t>
   </si>
   <si>
-    <t>LM240397792</t>
+    <t>PA240006013</t>
+  </si>
+  <si>
+    <t>Lopez Alarcón, Jolmer</t>
+  </si>
+  <si>
+    <t>29/11/2024 18:19:01</t>
   </si>
   <si>
     <t>86</t>
   </si>
   <si>
-    <t>LM240397471</t>
+    <t>LM240396851</t>
+  </si>
+  <si>
+    <t>27/11/2024 14:24:20</t>
   </si>
   <si>
     <t>87</t>
   </si>
   <si>
-    <t>CS240025824</t>
-  </si>
-  <si>
-    <t>Quispe Jimenez, Luis Miguel</t>
-  </si>
-  <si>
-    <t>28/11/2024 08:25:28</t>
+    <t>LM240396474</t>
+  </si>
+  <si>
+    <t>27/11/2024 14:34:30</t>
   </si>
   <si>
     <t>88</t>
   </si>
   <si>
-    <t>CS240025819</t>
-  </si>
-  <si>
-    <t>28/11/2024 08:24:37</t>
+    <t>LM240396295</t>
+  </si>
+  <si>
+    <t>27/11/2024 14:22:18</t>
   </si>
   <si>
     <t>89</t>
   </si>
   <si>
-    <t>PA240006013</t>
-  </si>
-  <si>
-    <t>Lopez Alarcón, Jolmer</t>
-  </si>
-  <si>
-    <t>29/11/2024 18:19:01</t>
+    <t>LM240396281</t>
+  </si>
+  <si>
+    <t>27/11/2024 14:25:11</t>
   </si>
   <si>
     <t>90</t>
   </si>
   <si>
-    <t>LM240396851</t>
-  </si>
-  <si>
-    <t>27/11/2024 14:24:20</t>
+    <t>LM240396185</t>
   </si>
   <si>
     <t>91</t>
   </si>
   <si>
-    <t>LM240396483</t>
-  </si>
-  <si>
-    <t>27/11/2024 14:25:11</t>
+    <t>LM240395954</t>
+  </si>
+  <si>
+    <t>26/11/2024 18:53:04</t>
   </si>
   <si>
     <t>92</t>
   </si>
   <si>
-    <t>LM240396474</t>
-  </si>
-  <si>
-    <t>27/11/2024 14:34:30</t>
+    <t>LM240395886</t>
   </si>
   <si>
     <t>93</t>
   </si>
   <si>
-    <t>LM240396440</t>
+    <t>LM240395460</t>
+  </si>
+  <si>
+    <t>26/11/2024 16:11:26</t>
   </si>
   <si>
     <t>94</t>
   </si>
   <si>
-    <t>LM240396295</t>
-  </si>
-  <si>
-    <t>27/11/2024 14:22:18</t>
+    <t>LM240395365</t>
   </si>
   <si>
     <t>95</t>
   </si>
   <si>
-    <t>LM240396281</t>
+    <t>LM240395362</t>
   </si>
   <si>
     <t>96</t>
   </si>
   <si>
-    <t>LM240396244</t>
+    <t>LM240395293</t>
   </si>
   <si>
     <t>97</t>
   </si>
   <si>
-    <t>LM240396185</t>
+    <t>LM240395292</t>
+  </si>
+  <si>
+    <t>28/11/2024 14:55:03</t>
   </si>
   <si>
     <t>98</t>
   </si>
   <si>
-    <t>LM240395954</t>
-  </si>
-  <si>
-    <t>26/11/2024 18:53:04</t>
+    <t>LM240395239</t>
   </si>
   <si>
     <t>99</t>
   </si>
   <si>
-    <t>LM240395900</t>
+    <t>LM240394858</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>LM240395886</t>
+    <t>LM240394790</t>
+  </si>
+  <si>
+    <t>27/11/2024 14:30:02</t>
   </si>
   <si>
     <t>101</t>
   </si>
   <si>
-    <t>LM240395460</t>
-  </si>
-  <si>
-    <t>26/11/2024 16:11:26</t>
+    <t>LM240394737</t>
   </si>
   <si>
     <t>102</t>
   </si>
   <si>
-    <t>LM240395365</t>
+    <t>LM240394477</t>
   </si>
   <si>
     <t>103</t>
   </si>
   <si>
-    <t>LM240395362</t>
+    <t>IU240003225</t>
+  </si>
+  <si>
+    <t>Icomedes García Jorge Miguel Jossemair B</t>
+  </si>
+  <si>
+    <t>27/11/2024 09:37:05</t>
   </si>
   <si>
     <t>104</t>
   </si>
   <si>
-    <t>LM240395293</t>
+    <t>LM240393313</t>
+  </si>
+  <si>
+    <t>25/11/2024 11:25:07</t>
   </si>
   <si>
     <t>105</t>
   </si>
   <si>
-    <t>LM240395292</t>
-  </si>
-  <si>
-    <t>28/11/2024 14:55:03</t>
+    <t>LM240392425</t>
   </si>
   <si>
     <t>106</t>
   </si>
   <si>
-    <t>LM240395239</t>
+    <t>LM240391862</t>
   </si>
   <si>
     <t>107</t>
   </si>
   <si>
-    <t>LM240394858</t>
+    <t>LM240391845</t>
   </si>
   <si>
     <t>108</t>
   </si>
   <si>
-    <t>LM240394790</t>
-  </si>
-  <si>
-    <t>27/11/2024 14:30:02</t>
+    <t>LM240390664</t>
+  </si>
+  <si>
+    <t>25/11/2024 11:22:42</t>
   </si>
   <si>
     <t>109</t>
   </si>
   <si>
-    <t>LM240394737</t>
+    <t>LM240390472</t>
   </si>
   <si>
     <t>110</t>
   </si>
   <si>
-    <t>LM240394477</t>
+    <t>LM240389928</t>
   </si>
   <si>
     <t>111</t>
   </si>
   <si>
-    <t>IU240003225</t>
-  </si>
-  <si>
-    <t>Icomedes García Jorge Miguel Jossemair B</t>
-  </si>
-  <si>
-    <t>27/11/2024 09:37:05</t>
+    <t>LM240389698</t>
   </si>
   <si>
     <t>112</t>
   </si>
   <si>
-    <t>LM240393313</t>
-  </si>
-  <si>
-    <t>25/11/2024 11:25:07</t>
+    <t>LM240388981</t>
   </si>
   <si>
     <t>113</t>
   </si>
   <si>
-    <t>LM240392425</t>
+    <t>LM240388149</t>
+  </si>
+  <si>
+    <t>22/11/2024 16:47:51</t>
   </si>
   <si>
     <t>114</t>
   </si>
   <si>
-    <t>LM240391862</t>
+    <t>LM240387180</t>
+  </si>
+  <si>
+    <t>20/11/2024 15:37:50</t>
   </si>
   <si>
     <t>115</t>
   </si>
   <si>
-    <t>LM240391845</t>
+    <t>LM240386807</t>
   </si>
   <si>
     <t>116</t>
   </si>
   <si>
-    <t>LM240390664</t>
-  </si>
-  <si>
-    <t>25/11/2024 11:22:42</t>
+    <t>LM240386537</t>
+  </si>
+  <si>
+    <t>20/11/2024 10:12:58</t>
   </si>
   <si>
     <t>117</t>
   </si>
   <si>
-    <t>LM240390472</t>
+    <t>LM240386069</t>
   </si>
   <si>
     <t>118</t>
   </si>
   <si>
-    <t>LM240389928</t>
+    <t>LM240386050</t>
   </si>
   <si>
     <t>119</t>
   </si>
   <si>
-    <t>LM240389698</t>
+    <t>LM240386038</t>
   </si>
   <si>
     <t>120</t>
   </si>
   <si>
-    <t>LM240388981</t>
+    <t>LM240386022</t>
   </si>
   <si>
     <t>121</t>
   </si>
   <si>
-    <t>LM240388149</t>
-  </si>
-  <si>
-    <t>22/11/2024 16:47:51</t>
+    <t>LM240385984</t>
   </si>
   <si>
     <t>122</t>
   </si>
   <si>
-    <t>LM240387180</t>
-  </si>
-  <si>
-    <t>20/11/2024 15:37:50</t>
+    <t>LM240385869</t>
   </si>
   <si>
     <t>123</t>
   </si>
   <si>
-    <t>LM240386807</t>
+    <t>LM240385412</t>
   </si>
   <si>
     <t>124</t>
   </si>
   <si>
-    <t>LM240386537</t>
-  </si>
-  <si>
-    <t>20/11/2024 10:12:58</t>
+    <t>LM240383874</t>
   </si>
   <si>
     <t>125</t>
   </si>
   <si>
-    <t>LM240386069</t>
+    <t>TC240021408</t>
+  </si>
+  <si>
+    <t>Pretel Carrasco, Alexander Jesus</t>
+  </si>
+  <si>
+    <t>19/11/2024 12:08:10</t>
   </si>
   <si>
     <t>126</t>
   </si>
   <si>
-    <t>LM240386050</t>
+    <t>AQ240017548</t>
+  </si>
+  <si>
+    <t>18/11/2024 09:35:48</t>
   </si>
   <si>
     <t>127</t>
   </si>
   <si>
-    <t>LM240386038</t>
+    <t>LM240381505</t>
+  </si>
+  <si>
+    <t>19/11/2024 18:08:10</t>
   </si>
   <si>
     <t>128</t>
   </si>
   <si>
-    <t>LM240386022</t>
+    <t>TC240021272</t>
+  </si>
+  <si>
+    <t>15/11/2024 15:50:52</t>
   </si>
   <si>
     <t>129</t>
   </si>
   <si>
-    <t>LM240385984</t>
+    <t>LM240381205</t>
+  </si>
+  <si>
+    <t>18/11/2024 09:46:56</t>
   </si>
   <si>
     <t>130</t>
   </si>
   <si>
-    <t>LM240385869</t>
+    <t>IU240003105</t>
   </si>
   <si>
     <t>131</t>
   </si>
   <si>
-    <t>LM240385412</t>
+    <t>LM240379091</t>
+  </si>
+  <si>
+    <t>13/11/2024 08:38:31</t>
   </si>
   <si>
     <t>132</t>
   </si>
   <si>
-    <t>LM240383874</t>
+    <t>PC240004081</t>
+  </si>
+  <si>
+    <t>Martinez Romero, José Mauricio</t>
+  </si>
+  <si>
+    <t>13/11/2024 14:50:45</t>
   </si>
   <si>
     <t>133</t>
   </si>
   <si>
-    <t>TC240021408</t>
-  </si>
-  <si>
-    <t>Pretel Carrasco, Alexander Jesus</t>
-  </si>
-  <si>
-    <t>19/11/2024 12:08:10</t>
+    <t>CY240029838</t>
+  </si>
+  <si>
+    <t>Dulanto Coronado, Vanessa Lisset</t>
+  </si>
+  <si>
+    <t>14/11/2024 10:22:29</t>
   </si>
   <si>
     <t>134</t>
   </si>
   <si>
-    <t>AQ240017548</t>
-  </si>
-  <si>
-    <t>18/11/2024 09:35:48</t>
+    <t>LM240375919</t>
+  </si>
+  <si>
+    <t>11/11/2024 16:27:52</t>
   </si>
   <si>
     <t>135</t>
   </si>
   <si>
-    <t>LM240381505</t>
-  </si>
-  <si>
-    <t>19/11/2024 18:08:10</t>
+    <t>LM240374606</t>
+  </si>
+  <si>
+    <t>11/11/2024 15:27:36</t>
   </si>
   <si>
     <t>136</t>
   </si>
   <si>
-    <t>TC240021272</t>
-  </si>
-  <si>
-    <t>15/11/2024 15:50:52</t>
+    <t>LM240374599</t>
   </si>
   <si>
     <t>137</t>
   </si>
   <si>
-    <t>LM240381205</t>
-  </si>
-  <si>
-    <t>18/11/2024 09:46:56</t>
+    <t>CY240029637</t>
   </si>
   <si>
     <t>138</t>
   </si>
   <si>
-    <t>IU240003105</t>
+    <t>LM240368874</t>
+  </si>
+  <si>
+    <t>11/11/2024 12:43:41</t>
   </si>
   <si>
     <t>139</t>
   </si>
   <si>
-    <t>LM240379091</t>
-  </si>
-  <si>
-    <t>13/11/2024 08:38:31</t>
+    <t>IL240001539</t>
+  </si>
+  <si>
+    <t>Cortez Gutierrez, Bruno Leonel</t>
+  </si>
+  <si>
+    <t>21/11/2024 09:36:02</t>
   </si>
   <si>
     <t>140</t>
   </si>
   <si>
-    <t>PC240004081</t>
-  </si>
-  <si>
-    <t>Martinez Romero, José Mauricio</t>
-  </si>
-  <si>
-    <t>13/11/2024 14:50:45</t>
+    <t>CY240029030</t>
+  </si>
+  <si>
+    <t>Asenjo Valderrama, Leoncio</t>
+  </si>
+  <si>
+    <t>14/11/2024 10:28:55</t>
   </si>
   <si>
     <t>141</t>
   </si>
   <si>
-    <t>CY240029838</t>
-  </si>
-  <si>
-    <t>Dulanto Coronado, Vanessa Lisset</t>
-  </si>
-  <si>
-    <t>14/11/2024 10:22:29</t>
+    <t>PA240005530</t>
+  </si>
+  <si>
+    <t>21/11/2024 09:14:57</t>
   </si>
   <si>
     <t>142</t>
   </si>
   <si>
-    <t>LM240375919</t>
-  </si>
-  <si>
-    <t>11/11/2024 16:27:52</t>
+    <t>LM240359910</t>
+  </si>
+  <si>
+    <t>04/11/2024 12:21:36</t>
   </si>
   <si>
     <t>143</t>
   </si>
   <si>
-    <t>LM240374606</t>
-  </si>
-  <si>
-    <t>11/11/2024 15:27:36</t>
+    <t>LM240359780</t>
   </si>
   <si>
     <t>144</t>
   </si>
   <si>
-    <t>LM240374599</t>
+    <t>LM240359217</t>
   </si>
   <si>
     <t>145</t>
   </si>
   <si>
-    <t>CY240029637</t>
+    <t>LM240355606</t>
+  </si>
+  <si>
+    <t>30/10/2024 11:12:11</t>
   </si>
   <si>
     <t>146</t>
   </si>
   <si>
-    <t>LM240368874</t>
-  </si>
-  <si>
-    <t>11/11/2024 12:43:41</t>
+    <t>LM240350484</t>
+  </si>
+  <si>
+    <t>28/10/2024 12:02:24</t>
   </si>
   <si>
     <t>147</t>
   </si>
   <si>
-    <t>IL240001539</t>
-  </si>
-  <si>
-    <t>Cortez Gutierrez, Bruno Leonel</t>
-  </si>
-  <si>
-    <t>21/11/2024 09:36:02</t>
+    <t>CS240023339</t>
+  </si>
+  <si>
+    <t>24/10/2024 08:19:07</t>
   </si>
   <si>
     <t>148</t>
   </si>
   <si>
-    <t>CY240029030</t>
-  </si>
-  <si>
-    <t>Asenjo Valderrama, Leoncio</t>
-  </si>
-  <si>
-    <t>14/11/2024 10:28:55</t>
+    <t>LM240348853</t>
+  </si>
+  <si>
+    <t>23/10/2024 12:03:10</t>
   </si>
   <si>
     <t>149</t>
   </si>
   <si>
-    <t>PA240005530</t>
-  </si>
-  <si>
-    <t>21/11/2024 09:14:57</t>
+    <t>LM240347630</t>
   </si>
   <si>
     <t>150</t>
   </si>
   <si>
-    <t>LM240359910</t>
-  </si>
-  <si>
-    <t>4/11/2024 12:21:36</t>
+    <t>LM240346507</t>
   </si>
   <si>
     <t>151</t>
   </si>
   <si>
-    <t>LM240359780</t>
+    <t>LM240342718</t>
+  </si>
+  <si>
+    <t>24/10/2024 10:55:10</t>
   </si>
   <si>
     <t>152</t>
   </si>
   <si>
-    <t>LM240359217</t>
+    <t>LM240341397</t>
+  </si>
+  <si>
+    <t>17/10/2024 12:10:43</t>
   </si>
   <si>
     <t>153</t>
   </si>
   <si>
-    <t>LM240355606</t>
-  </si>
-  <si>
-    <t>30/10/2024 11:12:11</t>
+    <t>LM240339264</t>
   </si>
   <si>
     <t>154</t>
   </si>
   <si>
-    <t>LM240350484</t>
-  </si>
-  <si>
-    <t>28/10/2024 12:02:24</t>
+    <t>LM240334846</t>
+  </si>
+  <si>
+    <t>24/10/2024 11:04:52</t>
   </si>
   <si>
     <t>155</t>
   </si>
   <si>
-    <t>CS240023339</t>
-  </si>
-  <si>
-    <t>24/10/2024 08:19:07</t>
+    <t>LM240334427</t>
   </si>
   <si>
     <t>156</t>
   </si>
   <si>
-    <t>LM240348853</t>
-  </si>
-  <si>
-    <t>23/10/2024 12:03:10</t>
+    <t>AQ240014796</t>
+  </si>
+  <si>
+    <t>09/10/2024 11:44:01</t>
   </si>
   <si>
     <t>157</t>
   </si>
   <si>
-    <t>LM240347630</t>
+    <t>CS240022268</t>
+  </si>
+  <si>
+    <t>------------</t>
   </si>
   <si>
     <t>158</t>
   </si>
   <si>
-    <t>LM240346507</t>
+    <t>LM240331753</t>
   </si>
   <si>
     <t>159</t>
   </si>
   <si>
-    <t>LM240342718</t>
-  </si>
-  <si>
-    <t>24/10/2024 10:55:10</t>
+    <t>CM240020118</t>
+  </si>
+  <si>
+    <t>Robles Cantinett, Elayne Florinda</t>
+  </si>
+  <si>
+    <t>19/11/2024 09:09:26</t>
   </si>
   <si>
     <t>160</t>
   </si>
   <si>
-    <t>LM240341397</t>
-  </si>
-  <si>
-    <t>17/10/2024 12:10:43</t>
+    <t>LM240316588</t>
+  </si>
+  <si>
+    <t>20/09/2024 16:32:29</t>
   </si>
   <si>
     <t>161</t>
   </si>
   <si>
-    <t>LM240339264</t>
+    <t>LM240312815</t>
+  </si>
+  <si>
+    <t>18/09/2024 08:52:14</t>
   </si>
   <si>
     <t>162</t>
   </si>
   <si>
-    <t>LM240334846</t>
-  </si>
-  <si>
-    <t>24/10/2024 11:04:52</t>
+    <t>AQ240013391</t>
+  </si>
+  <si>
+    <t>Pumacayo Quispe, César Alfredo</t>
+  </si>
+  <si>
+    <t>25/09/2024 16:55:07</t>
   </si>
   <si>
     <t>163</t>
   </si>
   <si>
-    <t>LM240334427</t>
+    <t>LM240302177</t>
+  </si>
+  <si>
+    <t>10/09/2024 15:06:54</t>
   </si>
   <si>
     <t>164</t>
   </si>
   <si>
-    <t>AQ240014796</t>
-  </si>
-  <si>
-    <t>9/10/2024 11:44:01</t>
+    <t>LM240300939</t>
   </si>
   <si>
     <t>165</t>
   </si>
   <si>
-    <t>CS240022268</t>
-  </si>
-  <si>
-    <t>------------</t>
+    <t>TS240009969</t>
+  </si>
+  <si>
+    <t>Ramirez Rios, Alberto Segundo</t>
+  </si>
+  <si>
+    <t>21/10/2024 16:22:27</t>
   </si>
   <si>
     <t>166</t>
   </si>
   <si>
-    <t>LM240331753</t>
+    <t>LM240272989</t>
+  </si>
+  <si>
+    <t>27/08/2024 10:04:38</t>
   </si>
   <si>
     <t>167</t>
   </si>
   <si>
-    <t>CM240020118</t>
-  </si>
-  <si>
-    <t>Robles Cantinett, Elayne Florinda</t>
-  </si>
-  <si>
-    <t>19/11/2024 09:09:26</t>
+    <t>LM240272254</t>
+  </si>
+  <si>
+    <t>27/08/2024 10:26:02</t>
   </si>
   <si>
     <t>168</t>
   </si>
   <si>
-    <t>LM240316588</t>
-  </si>
-  <si>
-    <t>20/09/2024 16:32:29</t>
+    <t>CS240018732</t>
+  </si>
+  <si>
+    <t>24/09/2024 09:00:00</t>
   </si>
   <si>
     <t>169</t>
   </si>
   <si>
-    <t>LM240312815</t>
-  </si>
-  <si>
-    <t>18/09/2024 08:52:14</t>
+    <t>LM240264765</t>
+  </si>
+  <si>
+    <t>27/08/2024 10:57:57</t>
   </si>
   <si>
     <t>170</t>
   </si>
   <si>
-    <t>AQ240013391</t>
-  </si>
-  <si>
-    <t>Pumacayo Quispe, César Alfredo</t>
-  </si>
-  <si>
-    <t>25/09/2024 16:55:07</t>
+    <t>LM240253934</t>
+  </si>
+  <si>
+    <t>24/07/2024 16:41:26</t>
   </si>
   <si>
     <t>171</t>
   </si>
   <si>
-    <t>LM240302177</t>
-  </si>
-  <si>
-    <t>10/09/2024 15:06:54</t>
+    <t>LM240250971</t>
   </si>
   <si>
     <t>172</t>
   </si>
   <si>
-    <t>LM240302160</t>
+    <t>HA240011007</t>
+  </si>
+  <si>
+    <t>Guillen Riveros, Cledy</t>
+  </si>
+  <si>
+    <t>25/06/2024 09:30:16</t>
   </si>
   <si>
     <t>173</t>
   </si>
   <si>
-    <t>LM240302141</t>
+    <t>HA240011006</t>
   </si>
   <si>
     <t>174</t>
   </si>
   <si>
-    <t>LM240302125</t>
+    <t>CS240012075</t>
+  </si>
+  <si>
+    <t>Quispe Toccas, Zaida Janet</t>
+  </si>
+  <si>
+    <t>30/04/2024 08:55:27</t>
   </si>
   <si>
     <t>175</t>
   </si>
   <si>
-    <t>LM240302076</t>
+    <t>CS240012072</t>
   </si>
   <si>
     <t>176</t>
   </si>
   <si>
-    <t>LM240302064</t>
+    <t>AL230002606</t>
+  </si>
+  <si>
+    <t>Salazar Mendoza, Diana Karina</t>
+  </si>
+  <si>
+    <t>29/09/2023 14:30:20</t>
   </si>
   <si>
     <t>177</t>
   </si>
   <si>
-    <t>LM240300939</t>
+    <t>PC230001202</t>
+  </si>
+  <si>
+    <t>26/02/2024 15:21:22</t>
   </si>
   <si>
     <t>178</t>
   </si>
   <si>
-    <t>TS240009969</t>
-  </si>
-  <si>
-    <t>Ramirez Rios, Alberto Segundo</t>
-  </si>
-  <si>
-    <t>21/10/2024 16:22:27</t>
+    <t>TC230002629</t>
+  </si>
+  <si>
+    <t>Flores Valdez, Melissa Del Rosario</t>
+  </si>
+  <si>
+    <t>05/01/2024 16:14:50</t>
   </si>
   <si>
     <t>179</t>
   </si>
   <si>
-    <t>LM240272989</t>
-  </si>
-  <si>
-    <t>27/08/2024 10:04:38</t>
+    <t>MR200017499</t>
+  </si>
+  <si>
+    <t>Antón Paredes, María Teresa</t>
+  </si>
+  <si>
+    <t>29/01/2020 21:00:45</t>
   </si>
   <si>
     <t>180</t>
   </si>
   <si>
-    <t>LM240272254</t>
-  </si>
-  <si>
-    <t>27/08/2024 10:26:02</t>
+    <t>MR200017477</t>
   </si>
   <si>
     <t>181</t>
   </si>
   <si>
-    <t>CS240018732</t>
-  </si>
-  <si>
-    <t>24/09/2024 09:00:00</t>
+    <t>PU190022558</t>
+  </si>
+  <si>
+    <t>Gonzales Morales, Katherine Ivette</t>
+  </si>
+  <si>
+    <t>10/12/2019 08:45:20</t>
   </si>
   <si>
     <t>182</t>
   </si>
   <si>
-    <t>LM240264765</t>
-  </si>
-  <si>
-    <t>27/08/2024 10:57:57</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>LM240253934</t>
-  </si>
-  <si>
-    <t>24/07/2024 16:41:26</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>LM240250971</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>HA240011007</t>
-  </si>
-  <si>
-    <t>Guillen Riveros, Cledy</t>
-  </si>
-  <si>
-    <t>25/06/2024 09:30:16</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>HA240011006</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>CS240012075</t>
-  </si>
-  <si>
-    <t>Quispe Toccas, Zaida Janet</t>
-  </si>
-  <si>
-    <t>30/04/2024 08:55:27</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>CS240012072</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>AL230002606</t>
-  </si>
-  <si>
-    <t>Salazar Mendoza, Diana Karina</t>
-  </si>
-  <si>
-    <t>29/09/2023 14:30:20</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>PC230001202</t>
-  </si>
-  <si>
-    <t>26/02/2024 15:21:22</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>TC230002629</t>
-  </si>
-  <si>
-    <t>Flores Valdez, Melissa Del Rosario</t>
-  </si>
-  <si>
-    <t>5/01/2024 16:14:50</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>MR200017499</t>
-  </si>
-  <si>
-    <t>Antón Paredes, María Teresa</t>
-  </si>
-  <si>
-    <t>29/01/2020 21:00:45</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>MR200017477</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>PU190022558</t>
-  </si>
-  <si>
-    <t>Gonzales Morales, Katherine Ivette</t>
-  </si>
-  <si>
-    <t>10/12/2019 08:45:20</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
     <t>TC190020094</t>
   </si>
   <si>
     <t>Diaz Peña, James Iverty</t>
   </si>
   <si>
-    <t>9/11/2020 10:19:47</t>
+    <t>09/11/2020 10:19:47</t>
   </si>
   <si>
     <t>TOTALES :</t>
@@ -1562,7 +1484,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>:</t>
     </r>
@@ -1576,7 +1498,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="d/mm/yyyy&quot;  &quot;hh\:mm\:ss\ "/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy&quot;  &quot;hh\:mm\:ss\ "/>
     <numFmt numFmtId="165" formatCode="dd\/mm\/yyyy"/>
     <numFmt numFmtId="166" formatCode="h\:mm\:ss\ AM/PM"/>
   </numFmts>
@@ -1592,13 +1514,13 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -1606,27 +1528,27 @@
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="9.5"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="ARIAL"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1814,7 +1736,7 @@
         <xdr:cNvPr id="257" name="Picture -767">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26165FB1-C826-C6D1-CEE1-64D2BEA9EA8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD5E9C12-ED99-F195-C6A2-2A6BDA176E7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2242,10 +2164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AO218"/>
+  <dimension ref="B1:AO205"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showOutlineSymbols="0" workbookViewId="0">
-      <selection activeCell="AR22" sqref="AR22"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2395,7 +2317,7 @@
       </c>
       <c r="AA9" s="9"/>
       <c r="AC9" s="8">
-        <v>45630</v>
+        <v>45632</v>
       </c>
       <c r="AD9" s="8"/>
     </row>
@@ -5483,7 +5405,7 @@
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
       <c r="Q83" s="13">
-        <v>45627.837187500001</v>
+        <v>45627.382974537039</v>
       </c>
       <c r="R83" s="13"/>
       <c r="S83" s="13"/>
@@ -5528,14 +5450,14 @@
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
       <c r="Q84" s="13">
-        <v>45627.587881944448</v>
+        <v>45626.470196759263</v>
       </c>
       <c r="R84" s="13"/>
       <c r="S84" s="13"/>
       <c r="T84" s="13"/>
       <c r="U84" s="13"/>
       <c r="X84" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Y84" s="5"/>
       <c r="Z84" s="5"/>
@@ -5546,7 +5468,7 @@
       <c r="AE84" s="5"/>
       <c r="AF84" s="5"/>
       <c r="AI84" s="5" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="AJ84" s="5"/>
       <c r="AK84" s="5"/>
@@ -5557,11 +5479,11 @@
     </row>
     <row r="85" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C85" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D85" s="5"/>
       <c r="F85" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>17</v>
@@ -5573,14 +5495,14 @@
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
       <c r="Q85" s="13">
-        <v>45627.382974537039</v>
+        <v>45626.464212962965</v>
       </c>
       <c r="R85" s="13"/>
       <c r="S85" s="13"/>
       <c r="T85" s="13"/>
       <c r="U85" s="13"/>
       <c r="X85" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Y85" s="5"/>
       <c r="Z85" s="5"/>
@@ -5591,7 +5513,7 @@
       <c r="AE85" s="5"/>
       <c r="AF85" s="5"/>
       <c r="AI85" s="5" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="AJ85" s="5"/>
       <c r="AK85" s="5"/>
@@ -5618,7 +5540,7 @@
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
       <c r="Q86" s="13">
-        <v>45626.624942129631</v>
+        <v>45626.412824074076</v>
       </c>
       <c r="R86" s="13"/>
       <c r="S86" s="13"/>
@@ -5663,14 +5585,14 @@
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
       <c r="Q87" s="13">
-        <v>45626.527719907404</v>
+        <v>45625.900578703702</v>
       </c>
       <c r="R87" s="13"/>
       <c r="S87" s="13"/>
       <c r="T87" s="13"/>
       <c r="U87" s="13"/>
       <c r="X87" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Y87" s="5"/>
       <c r="Z87" s="5"/>
@@ -5681,7 +5603,7 @@
       <c r="AE87" s="5"/>
       <c r="AF87" s="5"/>
       <c r="AI87" s="5" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="AJ87" s="5"/>
       <c r="AK87" s="5"/>
@@ -5708,14 +5630,14 @@
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
       <c r="Q88" s="13">
-        <v>45626.470196759263</v>
+        <v>45625.867337962962</v>
       </c>
       <c r="R88" s="13"/>
       <c r="S88" s="13"/>
       <c r="T88" s="13"/>
       <c r="U88" s="13"/>
       <c r="X88" s="5" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="Y88" s="5"/>
       <c r="Z88" s="5"/>
@@ -5726,7 +5648,7 @@
       <c r="AE88" s="5"/>
       <c r="AF88" s="5"/>
       <c r="AI88" s="5" t="s">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="AJ88" s="5"/>
       <c r="AK88" s="5"/>
@@ -5737,11 +5659,11 @@
     </row>
     <row r="89" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C89" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D89" s="5"/>
       <c r="F89" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>17</v>
@@ -5753,14 +5675,14 @@
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
       <c r="Q89" s="13">
-        <v>45626.464212962965</v>
+        <v>45625.854027777779</v>
       </c>
       <c r="R89" s="13"/>
       <c r="S89" s="13"/>
       <c r="T89" s="13"/>
       <c r="U89" s="13"/>
       <c r="X89" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="Y89" s="5"/>
       <c r="Z89" s="5"/>
@@ -5771,7 +5693,7 @@
       <c r="AE89" s="5"/>
       <c r="AF89" s="5"/>
       <c r="AI89" s="5" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="AJ89" s="5"/>
       <c r="AK89" s="5"/>
@@ -5782,11 +5704,11 @@
     </row>
     <row r="90" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C90" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D90" s="5"/>
       <c r="F90" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H90" s="5" t="s">
         <v>17</v>
@@ -5798,14 +5720,14 @@
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
       <c r="Q90" s="13">
-        <v>45626.412824074076</v>
+        <v>45625.743530092594</v>
       </c>
       <c r="R90" s="13"/>
       <c r="S90" s="13"/>
       <c r="T90" s="13"/>
       <c r="U90" s="13"/>
       <c r="X90" s="5" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="Y90" s="5"/>
       <c r="Z90" s="5"/>
@@ -5816,7 +5738,7 @@
       <c r="AE90" s="5"/>
       <c r="AF90" s="5"/>
       <c r="AI90" s="5" t="s">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="AJ90" s="5"/>
       <c r="AK90" s="5"/>
@@ -5827,11 +5749,11 @@
     </row>
     <row r="91" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C91" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D91" s="5"/>
       <c r="F91" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H91" s="5" t="s">
         <v>17</v>
@@ -5843,14 +5765,14 @@
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
       <c r="Q91" s="13">
-        <v>45625.900578703702</v>
+        <v>45625.690810185188</v>
       </c>
       <c r="R91" s="13"/>
       <c r="S91" s="13"/>
       <c r="T91" s="13"/>
       <c r="U91" s="13"/>
       <c r="X91" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="Y91" s="5"/>
       <c r="Z91" s="5"/>
@@ -5861,7 +5783,7 @@
       <c r="AE91" s="5"/>
       <c r="AF91" s="5"/>
       <c r="AI91" s="5" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="AJ91" s="5"/>
       <c r="AK91" s="5"/>
@@ -5872,11 +5794,11 @@
     </row>
     <row r="92" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C92" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D92" s="5"/>
       <c r="F92" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H92" s="5" t="s">
         <v>17</v>
@@ -5888,14 +5810,14 @@
       <c r="M92" s="5"/>
       <c r="N92" s="5"/>
       <c r="Q92" s="13">
-        <v>45625.867337962962</v>
+        <v>45625.616377314815</v>
       </c>
       <c r="R92" s="13"/>
       <c r="S92" s="13"/>
       <c r="T92" s="13"/>
       <c r="U92" s="13"/>
       <c r="X92" s="5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Y92" s="5"/>
       <c r="Z92" s="5"/>
@@ -5906,7 +5828,7 @@
       <c r="AE92" s="5"/>
       <c r="AF92" s="5"/>
       <c r="AI92" s="5" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="AJ92" s="5"/>
       <c r="AK92" s="5"/>
@@ -5933,7 +5855,7 @@
       <c r="M93" s="5"/>
       <c r="N93" s="5"/>
       <c r="Q93" s="13">
-        <v>45625.854027777779</v>
+        <v>45625.506932870368</v>
       </c>
       <c r="R93" s="13"/>
       <c r="S93" s="13"/>
@@ -5951,7 +5873,7 @@
       <c r="AE93" s="5"/>
       <c r="AF93" s="5"/>
       <c r="AI93" s="5" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AJ93" s="5"/>
       <c r="AK93" s="5"/>
@@ -5978,7 +5900,7 @@
       <c r="M94" s="5"/>
       <c r="N94" s="5"/>
       <c r="Q94" s="13">
-        <v>45625.743530092594</v>
+        <v>45624.715960648151</v>
       </c>
       <c r="R94" s="13"/>
       <c r="S94" s="13"/>
@@ -5996,7 +5918,7 @@
       <c r="AE94" s="5"/>
       <c r="AF94" s="5"/>
       <c r="AI94" s="5" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AJ94" s="5"/>
       <c r="AK94" s="5"/>
@@ -6023,7 +5945,7 @@
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
       <c r="Q95" s="13">
-        <v>45625.690810185188</v>
+        <v>45624.636620370373</v>
       </c>
       <c r="R95" s="13"/>
       <c r="S95" s="13"/>
@@ -6041,7 +5963,7 @@
       <c r="AE95" s="5"/>
       <c r="AF95" s="5"/>
       <c r="AI95" s="5" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AJ95" s="5"/>
       <c r="AK95" s="5"/>
@@ -6068,14 +5990,14 @@
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
       <c r="Q96" s="13">
-        <v>45625.616377314815</v>
+        <v>45623.869120370371</v>
       </c>
       <c r="R96" s="13"/>
       <c r="S96" s="13"/>
       <c r="T96" s="13"/>
       <c r="U96" s="13"/>
       <c r="X96" s="5" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="Y96" s="5"/>
       <c r="Z96" s="5"/>
@@ -6086,7 +6008,7 @@
       <c r="AE96" s="5"/>
       <c r="AF96" s="5"/>
       <c r="AI96" s="5" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="AJ96" s="5"/>
       <c r="AK96" s="5"/>
@@ -6097,11 +6019,11 @@
     </row>
     <row r="97" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C97" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D97" s="5"/>
       <c r="F97" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>17</v>
@@ -6113,14 +6035,14 @@
       <c r="M97" s="5"/>
       <c r="N97" s="5"/>
       <c r="Q97" s="13">
-        <v>45625.506932870368</v>
+        <v>45623.744513888887</v>
       </c>
       <c r="R97" s="13"/>
       <c r="S97" s="13"/>
       <c r="T97" s="13"/>
       <c r="U97" s="13"/>
       <c r="X97" s="5" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="Y97" s="5"/>
       <c r="Z97" s="5"/>
@@ -6131,7 +6053,7 @@
       <c r="AE97" s="5"/>
       <c r="AF97" s="5"/>
       <c r="AI97" s="5" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="AJ97" s="5"/>
       <c r="AK97" s="5"/>
@@ -6142,11 +6064,11 @@
     </row>
     <row r="98" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C98" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D98" s="5"/>
       <c r="F98" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H98" s="5" t="s">
         <v>17</v>
@@ -6158,14 +6080,14 @@
       <c r="M98" s="5"/>
       <c r="N98" s="5"/>
       <c r="Q98" s="13">
-        <v>45624.715960648151</v>
+        <v>45623.607870370368</v>
       </c>
       <c r="R98" s="13"/>
       <c r="S98" s="13"/>
       <c r="T98" s="13"/>
       <c r="U98" s="13"/>
       <c r="X98" s="5" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="Y98" s="5"/>
       <c r="Z98" s="5"/>
@@ -6176,7 +6098,7 @@
       <c r="AE98" s="5"/>
       <c r="AF98" s="5"/>
       <c r="AI98" s="5" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="AJ98" s="5"/>
       <c r="AK98" s="5"/>
@@ -6187,11 +6109,11 @@
     </row>
     <row r="99" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C99" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D99" s="5"/>
       <c r="F99" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H99" s="5" t="s">
         <v>17</v>
@@ -6203,14 +6125,14 @@
       <c r="M99" s="5"/>
       <c r="N99" s="5"/>
       <c r="Q99" s="13">
-        <v>45624.636620370373</v>
+        <v>45623.591122685182</v>
       </c>
       <c r="R99" s="13"/>
       <c r="S99" s="13"/>
       <c r="T99" s="13"/>
       <c r="U99" s="13"/>
       <c r="X99" s="5" t="s">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="Y99" s="5"/>
       <c r="Z99" s="5"/>
@@ -6221,7 +6143,7 @@
       <c r="AE99" s="5"/>
       <c r="AF99" s="5"/>
       <c r="AI99" s="5" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="AJ99" s="5"/>
       <c r="AK99" s="5"/>
@@ -6232,11 +6154,11 @@
     </row>
     <row r="100" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C100" s="5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D100" s="5"/>
       <c r="F100" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H100" s="5" t="s">
         <v>17</v>
@@ -6248,14 +6170,14 @@
       <c r="M100" s="5"/>
       <c r="N100" s="5"/>
       <c r="Q100" s="13">
-        <v>45623.869120370371</v>
+        <v>45623.552916666667</v>
       </c>
       <c r="R100" s="13"/>
       <c r="S100" s="13"/>
       <c r="T100" s="13"/>
       <c r="U100" s="13"/>
       <c r="X100" s="5" t="s">
-        <v>105</v>
+        <v>203</v>
       </c>
       <c r="Y100" s="5"/>
       <c r="Z100" s="5"/>
@@ -6266,7 +6188,7 @@
       <c r="AE100" s="5"/>
       <c r="AF100" s="5"/>
       <c r="AI100" s="5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AJ100" s="5"/>
       <c r="AK100" s="5"/>
@@ -6277,11 +6199,11 @@
     </row>
     <row r="101" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C101" s="5" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D101" s="5"/>
       <c r="F101" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>17</v>
@@ -6293,14 +6215,14 @@
       <c r="M101" s="5"/>
       <c r="N101" s="5"/>
       <c r="Q101" s="13">
-        <v>45623.744513888887</v>
+        <v>45623.436053240737</v>
       </c>
       <c r="R101" s="13"/>
       <c r="S101" s="13"/>
       <c r="T101" s="13"/>
       <c r="U101" s="13"/>
       <c r="X101" s="5" t="s">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="Y101" s="5"/>
       <c r="Z101" s="5"/>
@@ -6311,7 +6233,7 @@
       <c r="AE101" s="5"/>
       <c r="AF101" s="5"/>
       <c r="AI101" s="5" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="AJ101" s="5"/>
       <c r="AK101" s="5"/>
@@ -6322,11 +6244,11 @@
     </row>
     <row r="102" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C102" s="5" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D102" s="5"/>
       <c r="F102" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="H102" s="5" t="s">
         <v>17</v>
@@ -6338,14 +6260,14 @@
       <c r="M102" s="5"/>
       <c r="N102" s="5"/>
       <c r="Q102" s="13">
-        <v>45623.607870370368</v>
+        <v>45623.030509259261</v>
       </c>
       <c r="R102" s="13"/>
       <c r="S102" s="13"/>
       <c r="T102" s="13"/>
       <c r="U102" s="13"/>
       <c r="X102" s="5" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="Y102" s="5"/>
       <c r="Z102" s="5"/>
@@ -6356,7 +6278,7 @@
       <c r="AE102" s="5"/>
       <c r="AF102" s="5"/>
       <c r="AI102" s="5" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="AJ102" s="5"/>
       <c r="AK102" s="5"/>
@@ -6367,11 +6289,11 @@
     </row>
     <row r="103" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C103" s="5" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D103" s="5"/>
       <c r="F103" s="1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="H103" s="5" t="s">
         <v>17</v>
@@ -6383,14 +6305,14 @@
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
       <c r="Q103" s="13">
-        <v>45623.591122685182</v>
+        <v>45622.775185185186</v>
       </c>
       <c r="R103" s="13"/>
       <c r="S103" s="13"/>
       <c r="T103" s="13"/>
       <c r="U103" s="13"/>
       <c r="X103" s="5" t="s">
-        <v>211</v>
+        <v>142</v>
       </c>
       <c r="Y103" s="5"/>
       <c r="Z103" s="5"/>
@@ -6401,7 +6323,7 @@
       <c r="AE103" s="5"/>
       <c r="AF103" s="5"/>
       <c r="AI103" s="5" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="AJ103" s="5"/>
       <c r="AK103" s="5"/>
@@ -6412,11 +6334,11 @@
     </row>
     <row r="104" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C104" s="5" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D104" s="5"/>
       <c r="F104" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="H104" s="5" t="s">
         <v>17</v>
@@ -6428,14 +6350,14 @@
       <c r="M104" s="5"/>
       <c r="N104" s="5"/>
       <c r="Q104" s="13">
-        <v>45623.552916666667</v>
+        <v>45622.7028587963</v>
       </c>
       <c r="R104" s="13"/>
       <c r="S104" s="13"/>
       <c r="T104" s="13"/>
       <c r="U104" s="13"/>
       <c r="X104" s="5" t="s">
-        <v>211</v>
+        <v>65</v>
       </c>
       <c r="Y104" s="5"/>
       <c r="Z104" s="5"/>
@@ -6446,7 +6368,7 @@
       <c r="AE104" s="5"/>
       <c r="AF104" s="5"/>
       <c r="AI104" s="5" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="AJ104" s="5"/>
       <c r="AK104" s="5"/>
@@ -6457,11 +6379,11 @@
     </row>
     <row r="105" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C105" s="5" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D105" s="5"/>
       <c r="F105" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="H105" s="5" t="s">
         <v>17</v>
@@ -6473,14 +6395,14 @@
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
       <c r="Q105" s="13">
-        <v>45623.436053240737</v>
+        <v>45622.699050925927</v>
       </c>
       <c r="R105" s="13"/>
       <c r="S105" s="13"/>
       <c r="T105" s="13"/>
       <c r="U105" s="13"/>
       <c r="X105" s="5" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
       <c r="Y105" s="5"/>
       <c r="Z105" s="5"/>
@@ -6491,7 +6413,7 @@
       <c r="AE105" s="5"/>
       <c r="AF105" s="5"/>
       <c r="AI105" s="5" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="AJ105" s="5"/>
       <c r="AK105" s="5"/>
@@ -6502,11 +6424,11 @@
     </row>
     <row r="106" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C106" s="5" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D106" s="5"/>
       <c r="F106" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H106" s="5" t="s">
         <v>17</v>
@@ -6518,7 +6440,7 @@
       <c r="M106" s="5"/>
       <c r="N106" s="5"/>
       <c r="Q106" s="13">
-        <v>45623.030509259261</v>
+        <v>45622.659502314818</v>
       </c>
       <c r="R106" s="13"/>
       <c r="S106" s="13"/>
@@ -6536,7 +6458,7 @@
       <c r="AE106" s="5"/>
       <c r="AF106" s="5"/>
       <c r="AI106" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AJ106" s="5"/>
       <c r="AK106" s="5"/>
@@ -6547,11 +6469,11 @@
     </row>
     <row r="107" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C107" s="5" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D107" s="5"/>
       <c r="F107" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H107" s="5" t="s">
         <v>17</v>
@@ -6563,14 +6485,14 @@
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
       <c r="Q107" s="13">
-        <v>45622.77921296296</v>
+        <v>45622.561226851853</v>
       </c>
       <c r="R107" s="13"/>
       <c r="S107" s="13"/>
       <c r="T107" s="13"/>
       <c r="U107" s="13"/>
       <c r="X107" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="Y107" s="5"/>
       <c r="Z107" s="5"/>
@@ -6581,7 +6503,7 @@
       <c r="AE107" s="5"/>
       <c r="AF107" s="5"/>
       <c r="AI107" s="5" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AJ107" s="5"/>
       <c r="AK107" s="5"/>
@@ -6592,11 +6514,11 @@
     </row>
     <row r="108" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C108" s="5" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D108" s="5"/>
       <c r="F108" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H108" s="5" t="s">
         <v>17</v>
@@ -6608,14 +6530,14 @@
       <c r="M108" s="5"/>
       <c r="N108" s="5"/>
       <c r="Q108" s="13">
-        <v>45622.775185185186</v>
+        <v>45622.532106481478</v>
       </c>
       <c r="R108" s="13"/>
       <c r="S108" s="13"/>
       <c r="T108" s="13"/>
       <c r="U108" s="13"/>
       <c r="X108" s="5" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="Y108" s="5"/>
       <c r="Z108" s="5"/>
@@ -6637,11 +6559,11 @@
     </row>
     <row r="109" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C109" s="5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D109" s="5"/>
       <c r="F109" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H109" s="5" t="s">
         <v>17</v>
@@ -6653,14 +6575,14 @@
       <c r="M109" s="5"/>
       <c r="N109" s="5"/>
       <c r="Q109" s="13">
-        <v>45622.760879629626</v>
+        <v>45622.375243055554</v>
       </c>
       <c r="R109" s="13"/>
       <c r="S109" s="13"/>
       <c r="T109" s="13"/>
       <c r="U109" s="13"/>
       <c r="X109" s="5" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="Y109" s="5"/>
       <c r="Z109" s="5"/>
@@ -6671,7 +6593,7 @@
       <c r="AE109" s="5"/>
       <c r="AF109" s="5"/>
       <c r="AI109" s="5" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="AJ109" s="5"/>
       <c r="AK109" s="5"/>
@@ -6682,11 +6604,11 @@
     </row>
     <row r="110" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C110" s="5" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D110" s="5"/>
       <c r="F110" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H110" s="5" t="s">
         <v>17</v>
@@ -6698,7 +6620,7 @@
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
       <c r="Q110" s="13">
-        <v>45622.7028587963</v>
+        <v>45622.047511574077</v>
       </c>
       <c r="R110" s="13"/>
       <c r="S110" s="13"/>
@@ -6727,11 +6649,11 @@
     </row>
     <row r="111" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C111" s="5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D111" s="5"/>
       <c r="F111" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H111" s="5" t="s">
         <v>17</v>
@@ -6743,14 +6665,14 @@
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
       <c r="Q111" s="13">
-        <v>45622.699050925927</v>
+        <v>45622.042141203703</v>
       </c>
       <c r="R111" s="13"/>
       <c r="S111" s="13"/>
       <c r="T111" s="13"/>
       <c r="U111" s="13"/>
       <c r="X111" s="5" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="Y111" s="5"/>
       <c r="Z111" s="5"/>
@@ -6761,7 +6683,7 @@
       <c r="AE111" s="5"/>
       <c r="AF111" s="5"/>
       <c r="AI111" s="5" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="AJ111" s="5"/>
       <c r="AK111" s="5"/>
@@ -6772,11 +6694,11 @@
     </row>
     <row r="112" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C112" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D112" s="5"/>
       <c r="F112" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H112" s="5" t="s">
         <v>17</v>
@@ -6788,14 +6710,14 @@
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
       <c r="Q112" s="13">
-        <v>45622.6796412037</v>
+        <v>45621.947280092594</v>
       </c>
       <c r="R112" s="13"/>
       <c r="S112" s="13"/>
       <c r="T112" s="13"/>
       <c r="U112" s="13"/>
       <c r="X112" s="5" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="Y112" s="5"/>
       <c r="Z112" s="5"/>
@@ -6806,7 +6728,7 @@
       <c r="AE112" s="5"/>
       <c r="AF112" s="5"/>
       <c r="AI112" s="5" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AJ112" s="5"/>
       <c r="AK112" s="5"/>
@@ -6817,11 +6739,11 @@
     </row>
     <row r="113" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C113" s="5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D113" s="5"/>
       <c r="F113" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H113" s="5" t="s">
         <v>17</v>
@@ -6833,14 +6755,14 @@
       <c r="M113" s="5"/>
       <c r="N113" s="5"/>
       <c r="Q113" s="13">
-        <v>45622.659502314818</v>
+        <v>45621.947083333333</v>
       </c>
       <c r="R113" s="13"/>
       <c r="S113" s="13"/>
       <c r="T113" s="13"/>
       <c r="U113" s="13"/>
       <c r="X113" s="5" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="Y113" s="5"/>
       <c r="Z113" s="5"/>
@@ -6851,7 +6773,7 @@
       <c r="AE113" s="5"/>
       <c r="AF113" s="5"/>
       <c r="AI113" s="5" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="AJ113" s="5"/>
       <c r="AK113" s="5"/>
@@ -6862,11 +6784,11 @@
     </row>
     <row r="114" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C114" s="5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D114" s="5"/>
       <c r="F114" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H114" s="5" t="s">
         <v>17</v>
@@ -6878,14 +6800,14 @@
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
       <c r="Q114" s="13">
-        <v>45622.561226851853</v>
+        <v>45621.899328703701</v>
       </c>
       <c r="R114" s="13"/>
       <c r="S114" s="13"/>
       <c r="T114" s="13"/>
       <c r="U114" s="13"/>
       <c r="X114" s="5" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="Y114" s="5"/>
       <c r="Z114" s="5"/>
@@ -6896,7 +6818,7 @@
       <c r="AE114" s="5"/>
       <c r="AF114" s="5"/>
       <c r="AI114" s="5" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="AJ114" s="5"/>
       <c r="AK114" s="5"/>
@@ -6907,11 +6829,11 @@
     </row>
     <row r="115" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C115" s="5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D115" s="5"/>
       <c r="F115" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H115" s="5" t="s">
         <v>17</v>
@@ -6923,14 +6845,14 @@
       <c r="M115" s="5"/>
       <c r="N115" s="5"/>
       <c r="Q115" s="13">
-        <v>45622.537546296298</v>
+        <v>45621.746365740742</v>
       </c>
       <c r="R115" s="13"/>
       <c r="S115" s="13"/>
       <c r="T115" s="13"/>
       <c r="U115" s="13"/>
       <c r="X115" s="5" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="Y115" s="5"/>
       <c r="Z115" s="5"/>
@@ -6952,11 +6874,11 @@
     </row>
     <row r="116" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C116" s="5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D116" s="5"/>
       <c r="F116" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H116" s="5" t="s">
         <v>17</v>
@@ -6968,14 +6890,14 @@
       <c r="M116" s="5"/>
       <c r="N116" s="5"/>
       <c r="Q116" s="13">
-        <v>45622.532106481478</v>
+        <v>45621.719386574077</v>
       </c>
       <c r="R116" s="13"/>
       <c r="S116" s="13"/>
       <c r="T116" s="13"/>
       <c r="U116" s="13"/>
       <c r="X116" s="5" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="Y116" s="5"/>
       <c r="Z116" s="5"/>
@@ -6986,7 +6908,7 @@
       <c r="AE116" s="5"/>
       <c r="AF116" s="5"/>
       <c r="AI116" s="5" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="AJ116" s="5"/>
       <c r="AK116" s="5"/>
@@ -6997,11 +6919,11 @@
     </row>
     <row r="117" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C117" s="5" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D117" s="5"/>
       <c r="F117" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H117" s="5" t="s">
         <v>17</v>
@@ -7013,14 +6935,14 @@
       <c r="M117" s="5"/>
       <c r="N117" s="5"/>
       <c r="Q117" s="13">
-        <v>45622.375243055554</v>
+        <v>45621.696527777778</v>
       </c>
       <c r="R117" s="13"/>
       <c r="S117" s="13"/>
       <c r="T117" s="13"/>
       <c r="U117" s="13"/>
       <c r="X117" s="5" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="Y117" s="5"/>
       <c r="Z117" s="5"/>
@@ -7042,11 +6964,11 @@
     </row>
     <row r="118" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C118" s="5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D118" s="5"/>
       <c r="F118" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H118" s="5" t="s">
         <v>17</v>
@@ -7058,14 +6980,14 @@
       <c r="M118" s="5"/>
       <c r="N118" s="5"/>
       <c r="Q118" s="13">
-        <v>45622.047511574077</v>
+        <v>45621.614259259259</v>
       </c>
       <c r="R118" s="13"/>
       <c r="S118" s="13"/>
       <c r="T118" s="13"/>
       <c r="U118" s="13"/>
       <c r="X118" s="5" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="Y118" s="5"/>
       <c r="Z118" s="5"/>
@@ -7076,7 +6998,7 @@
       <c r="AE118" s="5"/>
       <c r="AF118" s="5"/>
       <c r="AI118" s="5" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AJ118" s="5"/>
       <c r="AK118" s="5"/>
@@ -7087,11 +7009,11 @@
     </row>
     <row r="119" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C119" s="5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D119" s="5"/>
       <c r="F119" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H119" s="5" t="s">
         <v>17</v>
@@ -7103,14 +7025,14 @@
       <c r="M119" s="5"/>
       <c r="N119" s="5"/>
       <c r="Q119" s="13">
-        <v>45622.042141203703</v>
+        <v>45621.031307870369</v>
       </c>
       <c r="R119" s="13"/>
       <c r="S119" s="13"/>
       <c r="T119" s="13"/>
       <c r="U119" s="13"/>
       <c r="X119" s="5" t="s">
-        <v>65</v>
+        <v>256</v>
       </c>
       <c r="Y119" s="5"/>
       <c r="Z119" s="5"/>
@@ -7121,7 +7043,7 @@
       <c r="AE119" s="5"/>
       <c r="AF119" s="5"/>
       <c r="AI119" s="5" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="AJ119" s="5"/>
       <c r="AK119" s="5"/>
@@ -7132,11 +7054,11 @@
     </row>
     <row r="120" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C120" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D120" s="5"/>
       <c r="F120" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H120" s="5" t="s">
         <v>17</v>
@@ -7148,14 +7070,14 @@
       <c r="M120" s="5"/>
       <c r="N120" s="5"/>
       <c r="Q120" s="13">
-        <v>45621.947280092594</v>
+        <v>45620.037175925929</v>
       </c>
       <c r="R120" s="13"/>
       <c r="S120" s="13"/>
       <c r="T120" s="13"/>
       <c r="U120" s="13"/>
       <c r="X120" s="5" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="Y120" s="5"/>
       <c r="Z120" s="5"/>
@@ -7166,7 +7088,7 @@
       <c r="AE120" s="5"/>
       <c r="AF120" s="5"/>
       <c r="AI120" s="5" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="AJ120" s="5"/>
       <c r="AK120" s="5"/>
@@ -7177,11 +7099,11 @@
     </row>
     <row r="121" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C121" s="5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D121" s="5"/>
       <c r="F121" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="H121" s="5" t="s">
         <v>17</v>
@@ -7193,14 +7115,14 @@
       <c r="M121" s="5"/>
       <c r="N121" s="5"/>
       <c r="Q121" s="13">
-        <v>45621.947083333333</v>
+        <v>45619.025671296295</v>
       </c>
       <c r="R121" s="13"/>
       <c r="S121" s="13"/>
       <c r="T121" s="13"/>
       <c r="U121" s="13"/>
       <c r="X121" s="5" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="Y121" s="5"/>
       <c r="Z121" s="5"/>
@@ -7211,7 +7133,7 @@
       <c r="AE121" s="5"/>
       <c r="AF121" s="5"/>
       <c r="AI121" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AJ121" s="5"/>
       <c r="AK121" s="5"/>
@@ -7222,11 +7144,11 @@
     </row>
     <row r="122" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C122" s="5" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D122" s="5"/>
       <c r="F122" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="H122" s="5" t="s">
         <v>17</v>
@@ -7238,7 +7160,7 @@
       <c r="M122" s="5"/>
       <c r="N122" s="5"/>
       <c r="Q122" s="13">
-        <v>45621.899328703701</v>
+        <v>45618.688298611109</v>
       </c>
       <c r="R122" s="13"/>
       <c r="S122" s="13"/>
@@ -7256,7 +7178,7 @@
       <c r="AE122" s="5"/>
       <c r="AF122" s="5"/>
       <c r="AI122" s="5" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="AJ122" s="5"/>
       <c r="AK122" s="5"/>
@@ -7267,11 +7189,11 @@
     </row>
     <row r="123" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C123" s="5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D123" s="5"/>
       <c r="F123" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H123" s="5" t="s">
         <v>17</v>
@@ -7283,14 +7205,14 @@
       <c r="M123" s="5"/>
       <c r="N123" s="5"/>
       <c r="Q123" s="13">
-        <v>45621.746365740742</v>
+        <v>45618.684398148151</v>
       </c>
       <c r="R123" s="13"/>
       <c r="S123" s="13"/>
       <c r="T123" s="13"/>
       <c r="U123" s="13"/>
       <c r="X123" s="5" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="Y123" s="5"/>
       <c r="Z123" s="5"/>
@@ -7301,7 +7223,7 @@
       <c r="AE123" s="5"/>
       <c r="AF123" s="5"/>
       <c r="AI123" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AJ123" s="5"/>
       <c r="AK123" s="5"/>
@@ -7312,11 +7234,11 @@
     </row>
     <row r="124" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C124" s="5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D124" s="5"/>
       <c r="F124" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H124" s="5" t="s">
         <v>17</v>
@@ -7328,14 +7250,14 @@
       <c r="M124" s="5"/>
       <c r="N124" s="5"/>
       <c r="Q124" s="13">
-        <v>45621.719386574077</v>
+        <v>45617.85528935185</v>
       </c>
       <c r="R124" s="13"/>
       <c r="S124" s="13"/>
       <c r="T124" s="13"/>
       <c r="U124" s="13"/>
       <c r="X124" s="5" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="Y124" s="5"/>
       <c r="Z124" s="5"/>
@@ -7346,7 +7268,7 @@
       <c r="AE124" s="5"/>
       <c r="AF124" s="5"/>
       <c r="AI124" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AJ124" s="5"/>
       <c r="AK124" s="5"/>
@@ -7357,11 +7279,11 @@
     </row>
     <row r="125" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C125" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D125" s="5"/>
       <c r="F125" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H125" s="5" t="s">
         <v>17</v>
@@ -7373,14 +7295,14 @@
       <c r="M125" s="5"/>
       <c r="N125" s="5"/>
       <c r="Q125" s="13">
-        <v>45621.696527777778</v>
+        <v>45617.769571759258</v>
       </c>
       <c r="R125" s="13"/>
       <c r="S125" s="13"/>
       <c r="T125" s="13"/>
       <c r="U125" s="13"/>
       <c r="X125" s="5" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="Y125" s="5"/>
       <c r="Z125" s="5"/>
@@ -7391,7 +7313,7 @@
       <c r="AE125" s="5"/>
       <c r="AF125" s="5"/>
       <c r="AI125" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AJ125" s="5"/>
       <c r="AK125" s="5"/>
@@ -7402,11 +7324,11 @@
     </row>
     <row r="126" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C126" s="5" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D126" s="5"/>
       <c r="F126" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H126" s="5" t="s">
         <v>17</v>
@@ -7418,14 +7340,14 @@
       <c r="M126" s="5"/>
       <c r="N126" s="5"/>
       <c r="Q126" s="13">
-        <v>45621.614259259259</v>
+        <v>45617.548414351855</v>
       </c>
       <c r="R126" s="13"/>
       <c r="S126" s="13"/>
       <c r="T126" s="13"/>
       <c r="U126" s="13"/>
       <c r="X126" s="5" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="Y126" s="5"/>
       <c r="Z126" s="5"/>
@@ -7436,7 +7358,7 @@
       <c r="AE126" s="5"/>
       <c r="AF126" s="5"/>
       <c r="AI126" s="5" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="AJ126" s="5"/>
       <c r="AK126" s="5"/>
@@ -7447,11 +7369,11 @@
     </row>
     <row r="127" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C127" s="5" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D127" s="5"/>
       <c r="F127" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H127" s="5" t="s">
         <v>17</v>
@@ -7463,14 +7385,14 @@
       <c r="M127" s="5"/>
       <c r="N127" s="5"/>
       <c r="Q127" s="13">
-        <v>45621.031307870369</v>
+        <v>45617.472546296296</v>
       </c>
       <c r="R127" s="13"/>
       <c r="S127" s="13"/>
       <c r="T127" s="13"/>
       <c r="U127" s="13"/>
       <c r="X127" s="5" t="s">
-        <v>272</v>
+        <v>18</v>
       </c>
       <c r="Y127" s="5"/>
       <c r="Z127" s="5"/>
@@ -7481,7 +7403,7 @@
       <c r="AE127" s="5"/>
       <c r="AF127" s="5"/>
       <c r="AI127" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AJ127" s="5"/>
       <c r="AK127" s="5"/>
@@ -7492,11 +7414,11 @@
     </row>
     <row r="128" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C128" s="5" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D128" s="5"/>
       <c r="F128" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H128" s="5" t="s">
         <v>17</v>
@@ -7508,14 +7430,14 @@
       <c r="M128" s="5"/>
       <c r="N128" s="5"/>
       <c r="Q128" s="13">
-        <v>45620.037175925929</v>
+        <v>45616.821863425925</v>
       </c>
       <c r="R128" s="13"/>
       <c r="S128" s="13"/>
       <c r="T128" s="13"/>
       <c r="U128" s="13"/>
       <c r="X128" s="5" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="Y128" s="5"/>
       <c r="Z128" s="5"/>
@@ -7526,7 +7448,7 @@
       <c r="AE128" s="5"/>
       <c r="AF128" s="5"/>
       <c r="AI128" s="5" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="AJ128" s="5"/>
       <c r="AK128" s="5"/>
@@ -7537,11 +7459,11 @@
     </row>
     <row r="129" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C129" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D129" s="5"/>
       <c r="F129" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H129" s="5" t="s">
         <v>17</v>
@@ -7553,14 +7475,14 @@
       <c r="M129" s="5"/>
       <c r="N129" s="5"/>
       <c r="Q129" s="13">
-        <v>45619.025671296295</v>
+        <v>45616.538865740738</v>
       </c>
       <c r="R129" s="13"/>
       <c r="S129" s="13"/>
       <c r="T129" s="13"/>
       <c r="U129" s="13"/>
       <c r="X129" s="5" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="Y129" s="5"/>
       <c r="Z129" s="5"/>
@@ -7571,7 +7493,7 @@
       <c r="AE129" s="5"/>
       <c r="AF129" s="5"/>
       <c r="AI129" s="5" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AJ129" s="5"/>
       <c r="AK129" s="5"/>
@@ -7582,11 +7504,11 @@
     </row>
     <row r="130" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C130" s="5" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D130" s="5"/>
       <c r="F130" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H130" s="5" t="s">
         <v>17</v>
@@ -7598,14 +7520,14 @@
       <c r="M130" s="5"/>
       <c r="N130" s="5"/>
       <c r="Q130" s="13">
-        <v>45618.688298611109</v>
+        <v>45615.876504629632</v>
       </c>
       <c r="R130" s="13"/>
       <c r="S130" s="13"/>
       <c r="T130" s="13"/>
       <c r="U130" s="13"/>
       <c r="X130" s="5" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="Y130" s="5"/>
       <c r="Z130" s="5"/>
@@ -7616,7 +7538,7 @@
       <c r="AE130" s="5"/>
       <c r="AF130" s="5"/>
       <c r="AI130" s="5" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="AJ130" s="5"/>
       <c r="AK130" s="5"/>
@@ -7627,11 +7549,11 @@
     </row>
     <row r="131" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C131" s="5" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D131" s="5"/>
       <c r="F131" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H131" s="5" t="s">
         <v>17</v>
@@ -7643,14 +7565,14 @@
       <c r="M131" s="5"/>
       <c r="N131" s="5"/>
       <c r="Q131" s="13">
-        <v>45618.684398148151</v>
+        <v>45615.779189814813</v>
       </c>
       <c r="R131" s="13"/>
       <c r="S131" s="13"/>
       <c r="T131" s="13"/>
       <c r="U131" s="13"/>
       <c r="X131" s="5" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="Y131" s="5"/>
       <c r="Z131" s="5"/>
@@ -7661,7 +7583,7 @@
       <c r="AE131" s="5"/>
       <c r="AF131" s="5"/>
       <c r="AI131" s="5" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="AJ131" s="5"/>
       <c r="AK131" s="5"/>
@@ -7672,11 +7594,11 @@
     </row>
     <row r="132" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C132" s="5" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D132" s="5"/>
       <c r="F132" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H132" s="5" t="s">
         <v>17</v>
@@ -7688,14 +7610,14 @@
       <c r="M132" s="5"/>
       <c r="N132" s="5"/>
       <c r="Q132" s="13">
-        <v>45617.85528935185</v>
+        <v>45615.703819444447</v>
       </c>
       <c r="R132" s="13"/>
       <c r="S132" s="13"/>
       <c r="T132" s="13"/>
       <c r="U132" s="13"/>
       <c r="X132" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="Y132" s="5"/>
       <c r="Z132" s="5"/>
@@ -7706,7 +7628,7 @@
       <c r="AE132" s="5"/>
       <c r="AF132" s="5"/>
       <c r="AI132" s="5" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AJ132" s="5"/>
       <c r="AK132" s="5"/>
@@ -7717,11 +7639,11 @@
     </row>
     <row r="133" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C133" s="5" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D133" s="5"/>
       <c r="F133" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H133" s="5" t="s">
         <v>17</v>
@@ -7733,14 +7655,14 @@
       <c r="M133" s="5"/>
       <c r="N133" s="5"/>
       <c r="Q133" s="13">
-        <v>45617.769571759258</v>
+        <v>45615.595057870371</v>
       </c>
       <c r="R133" s="13"/>
       <c r="S133" s="13"/>
       <c r="T133" s="13"/>
       <c r="U133" s="13"/>
       <c r="X133" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="Y133" s="5"/>
       <c r="Z133" s="5"/>
@@ -7751,7 +7673,7 @@
       <c r="AE133" s="5"/>
       <c r="AF133" s="5"/>
       <c r="AI133" s="5" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AJ133" s="5"/>
       <c r="AK133" s="5"/>
@@ -7762,11 +7684,11 @@
     </row>
     <row r="134" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C134" s="5" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D134" s="5"/>
       <c r="F134" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H134" s="5" t="s">
         <v>17</v>
@@ -7778,14 +7700,14 @@
       <c r="M134" s="5"/>
       <c r="N134" s="5"/>
       <c r="Q134" s="13">
-        <v>45617.548414351855</v>
+        <v>45615.591817129629</v>
       </c>
       <c r="R134" s="13"/>
       <c r="S134" s="13"/>
       <c r="T134" s="13"/>
       <c r="U134" s="13"/>
       <c r="X134" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="Y134" s="5"/>
       <c r="Z134" s="5"/>
@@ -7796,7 +7718,7 @@
       <c r="AE134" s="5"/>
       <c r="AF134" s="5"/>
       <c r="AI134" s="5" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AJ134" s="5"/>
       <c r="AK134" s="5"/>
@@ -7807,11 +7729,11 @@
     </row>
     <row r="135" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C135" s="5" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D135" s="5"/>
       <c r="F135" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H135" s="5" t="s">
         <v>17</v>
@@ -7823,14 +7745,14 @@
       <c r="M135" s="5"/>
       <c r="N135" s="5"/>
       <c r="Q135" s="13">
-        <v>45617.472546296296</v>
+        <v>45615.588379629633</v>
       </c>
       <c r="R135" s="13"/>
       <c r="S135" s="13"/>
       <c r="T135" s="13"/>
       <c r="U135" s="13"/>
       <c r="X135" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="Y135" s="5"/>
       <c r="Z135" s="5"/>
@@ -7841,7 +7763,7 @@
       <c r="AE135" s="5"/>
       <c r="AF135" s="5"/>
       <c r="AI135" s="5" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AJ135" s="5"/>
       <c r="AK135" s="5"/>
@@ -7852,11 +7774,11 @@
     </row>
     <row r="136" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C136" s="5" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D136" s="5"/>
       <c r="F136" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H136" s="5" t="s">
         <v>17</v>
@@ -7868,14 +7790,14 @@
       <c r="M136" s="5"/>
       <c r="N136" s="5"/>
       <c r="Q136" s="13">
-        <v>45616.821863425925</v>
+        <v>45615.585162037038</v>
       </c>
       <c r="R136" s="13"/>
       <c r="S136" s="13"/>
       <c r="T136" s="13"/>
       <c r="U136" s="13"/>
       <c r="X136" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="Y136" s="5"/>
       <c r="Z136" s="5"/>
@@ -7886,7 +7808,7 @@
       <c r="AE136" s="5"/>
       <c r="AF136" s="5"/>
       <c r="AI136" s="5" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AJ136" s="5"/>
       <c r="AK136" s="5"/>
@@ -7897,11 +7819,11 @@
     </row>
     <row r="137" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C137" s="5" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D137" s="5"/>
       <c r="F137" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H137" s="5" t="s">
         <v>17</v>
@@ -7913,14 +7835,14 @@
       <c r="M137" s="5"/>
       <c r="N137" s="5"/>
       <c r="Q137" s="13">
-        <v>45616.538865740738</v>
+        <v>45615.575694444444</v>
       </c>
       <c r="R137" s="13"/>
       <c r="S137" s="13"/>
       <c r="T137" s="13"/>
       <c r="U137" s="13"/>
       <c r="X137" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Y137" s="5"/>
       <c r="Z137" s="5"/>
@@ -7931,7 +7853,7 @@
       <c r="AE137" s="5"/>
       <c r="AF137" s="5"/>
       <c r="AI137" s="5" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="AJ137" s="5"/>
       <c r="AK137" s="5"/>
@@ -7942,11 +7864,11 @@
     </row>
     <row r="138" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C138" s="5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D138" s="5"/>
       <c r="F138" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H138" s="5" t="s">
         <v>17</v>
@@ -7958,14 +7880,14 @@
       <c r="M138" s="5"/>
       <c r="N138" s="5"/>
       <c r="Q138" s="13">
-        <v>45615.876504629632</v>
+        <v>45615.544618055559</v>
       </c>
       <c r="R138" s="13"/>
       <c r="S138" s="13"/>
       <c r="T138" s="13"/>
       <c r="U138" s="13"/>
       <c r="X138" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="Y138" s="5"/>
       <c r="Z138" s="5"/>
@@ -7976,7 +7898,7 @@
       <c r="AE138" s="5"/>
       <c r="AF138" s="5"/>
       <c r="AI138" s="5" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="AJ138" s="5"/>
       <c r="AK138" s="5"/>
@@ -7987,11 +7909,11 @@
     </row>
     <row r="139" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C139" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D139" s="5"/>
       <c r="F139" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H139" s="5" t="s">
         <v>17</v>
@@ -8003,14 +7925,14 @@
       <c r="M139" s="5"/>
       <c r="N139" s="5"/>
       <c r="Q139" s="13">
-        <v>45615.779189814813</v>
+        <v>45615.453425925924</v>
       </c>
       <c r="R139" s="13"/>
       <c r="S139" s="13"/>
       <c r="T139" s="13"/>
       <c r="U139" s="13"/>
       <c r="X139" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="Y139" s="5"/>
       <c r="Z139" s="5"/>
@@ -8021,7 +7943,7 @@
       <c r="AE139" s="5"/>
       <c r="AF139" s="5"/>
       <c r="AI139" s="5" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="AJ139" s="5"/>
       <c r="AK139" s="5"/>
@@ -8032,11 +7954,11 @@
     </row>
     <row r="140" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C140" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D140" s="5"/>
       <c r="F140" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H140" s="5" t="s">
         <v>17</v>
@@ -8048,7 +7970,7 @@
       <c r="M140" s="5"/>
       <c r="N140" s="5"/>
       <c r="Q140" s="13">
-        <v>45615.703819444447</v>
+        <v>45614.488437499997</v>
       </c>
       <c r="R140" s="13"/>
       <c r="S140" s="13"/>
@@ -8066,7 +7988,7 @@
       <c r="AE140" s="5"/>
       <c r="AF140" s="5"/>
       <c r="AI140" s="5" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="AJ140" s="5"/>
       <c r="AK140" s="5"/>
@@ -8093,14 +8015,14 @@
       <c r="M141" s="5"/>
       <c r="N141" s="5"/>
       <c r="Q141" s="13">
-        <v>45615.595057870371</v>
+        <v>45614.454583333332</v>
       </c>
       <c r="R141" s="13"/>
       <c r="S141" s="13"/>
       <c r="T141" s="13"/>
       <c r="U141" s="13"/>
       <c r="X141" s="5" t="s">
-        <v>33</v>
+        <v>307</v>
       </c>
       <c r="Y141" s="5"/>
       <c r="Z141" s="5"/>
@@ -8111,7 +8033,7 @@
       <c r="AE141" s="5"/>
       <c r="AF141" s="5"/>
       <c r="AI141" s="5" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AJ141" s="5"/>
       <c r="AK141" s="5"/>
@@ -8122,11 +8044,11 @@
     </row>
     <row r="142" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C142" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D142" s="5"/>
       <c r="F142" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H142" s="5" t="s">
         <v>17</v>
@@ -8138,14 +8060,14 @@
       <c r="M142" s="5"/>
       <c r="N142" s="5"/>
       <c r="Q142" s="13">
-        <v>45615.591817129629</v>
+        <v>45611.466562499998</v>
       </c>
       <c r="R142" s="13"/>
       <c r="S142" s="13"/>
       <c r="T142" s="13"/>
       <c r="U142" s="13"/>
       <c r="X142" s="5" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="Y142" s="5"/>
       <c r="Z142" s="5"/>
@@ -8156,7 +8078,7 @@
       <c r="AE142" s="5"/>
       <c r="AF142" s="5"/>
       <c r="AI142" s="5" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="AJ142" s="5"/>
       <c r="AK142" s="5"/>
@@ -8167,11 +8089,11 @@
     </row>
     <row r="143" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C143" s="5" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D143" s="5"/>
       <c r="F143" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H143" s="5" t="s">
         <v>17</v>
@@ -8183,7 +8105,7 @@
       <c r="M143" s="5"/>
       <c r="N143" s="5"/>
       <c r="Q143" s="13">
-        <v>45615.588379629633</v>
+        <v>45610.791724537034</v>
       </c>
       <c r="R143" s="13"/>
       <c r="S143" s="13"/>
@@ -8201,7 +8123,7 @@
       <c r="AE143" s="5"/>
       <c r="AF143" s="5"/>
       <c r="AI143" s="5" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="AJ143" s="5"/>
       <c r="AK143" s="5"/>
@@ -8212,11 +8134,11 @@
     </row>
     <row r="144" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C144" s="5" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D144" s="5"/>
       <c r="F144" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H144" s="5" t="s">
         <v>17</v>
@@ -8228,14 +8150,14 @@
       <c r="M144" s="5"/>
       <c r="N144" s="5"/>
       <c r="Q144" s="13">
-        <v>45615.585162037038</v>
+        <v>45610.631874999999</v>
       </c>
       <c r="R144" s="13"/>
       <c r="S144" s="13"/>
       <c r="T144" s="13"/>
       <c r="U144" s="13"/>
       <c r="X144" s="5" t="s">
-        <v>33</v>
+        <v>307</v>
       </c>
       <c r="Y144" s="5"/>
       <c r="Z144" s="5"/>
@@ -8246,7 +8168,7 @@
       <c r="AE144" s="5"/>
       <c r="AF144" s="5"/>
       <c r="AI144" s="5" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="AJ144" s="5"/>
       <c r="AK144" s="5"/>
@@ -8257,11 +8179,11 @@
     </row>
     <row r="145" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C145" s="5" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D145" s="5"/>
       <c r="F145" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="H145" s="5" t="s">
         <v>17</v>
@@ -8273,14 +8195,14 @@
       <c r="M145" s="5"/>
       <c r="N145" s="5"/>
       <c r="Q145" s="13">
-        <v>45615.575694444444</v>
+        <v>45610.62222222222</v>
       </c>
       <c r="R145" s="13"/>
       <c r="S145" s="13"/>
       <c r="T145" s="13"/>
       <c r="U145" s="13"/>
       <c r="X145" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Y145" s="5"/>
       <c r="Z145" s="5"/>
@@ -8291,7 +8213,7 @@
       <c r="AE145" s="5"/>
       <c r="AF145" s="5"/>
       <c r="AI145" s="5" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="AJ145" s="5"/>
       <c r="AK145" s="5"/>
@@ -8302,11 +8224,11 @@
     </row>
     <row r="146" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C146" s="5" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="D146" s="5"/>
       <c r="F146" s="1" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="H146" s="5" t="s">
         <v>17</v>
@@ -8318,14 +8240,14 @@
       <c r="M146" s="5"/>
       <c r="N146" s="5"/>
       <c r="Q146" s="13">
-        <v>45615.544618055559</v>
+        <v>45609.747534722221</v>
       </c>
       <c r="R146" s="13"/>
       <c r="S146" s="13"/>
       <c r="T146" s="13"/>
       <c r="U146" s="13"/>
       <c r="X146" s="5" t="s">
-        <v>33</v>
+        <v>256</v>
       </c>
       <c r="Y146" s="5"/>
       <c r="Z146" s="5"/>
@@ -8336,7 +8258,7 @@
       <c r="AE146" s="5"/>
       <c r="AF146" s="5"/>
       <c r="AI146" s="5" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="AJ146" s="5"/>
       <c r="AK146" s="5"/>
@@ -8347,11 +8269,11 @@
     </row>
     <row r="147" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C147" s="5" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D147" s="5"/>
       <c r="F147" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="H147" s="5" t="s">
         <v>17</v>
@@ -8363,14 +8285,14 @@
       <c r="M147" s="5"/>
       <c r="N147" s="5"/>
       <c r="Q147" s="13">
-        <v>45615.453425925924</v>
+        <v>45609.315729166665</v>
       </c>
       <c r="R147" s="13"/>
       <c r="S147" s="13"/>
       <c r="T147" s="13"/>
       <c r="U147" s="13"/>
       <c r="X147" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Y147" s="5"/>
       <c r="Z147" s="5"/>
@@ -8381,7 +8303,7 @@
       <c r="AE147" s="5"/>
       <c r="AF147" s="5"/>
       <c r="AI147" s="5" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="AJ147" s="5"/>
       <c r="AK147" s="5"/>
@@ -8392,11 +8314,11 @@
     </row>
     <row r="148" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C148" s="5" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="D148" s="5"/>
       <c r="F148" s="1" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="H148" s="5" t="s">
         <v>17</v>
@@ -8408,14 +8330,14 @@
       <c r="M148" s="5"/>
       <c r="N148" s="5"/>
       <c r="Q148" s="13">
-        <v>45614.488437499997</v>
+        <v>45608.756388888891</v>
       </c>
       <c r="R148" s="13"/>
       <c r="S148" s="13"/>
       <c r="T148" s="13"/>
       <c r="U148" s="13"/>
       <c r="X148" s="5" t="s">
-        <v>33</v>
+        <v>328</v>
       </c>
       <c r="Y148" s="5"/>
       <c r="Z148" s="5"/>
@@ -8426,7 +8348,7 @@
       <c r="AE148" s="5"/>
       <c r="AF148" s="5"/>
       <c r="AI148" s="5" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="AJ148" s="5"/>
       <c r="AK148" s="5"/>
@@ -8437,11 +8359,11 @@
     </row>
     <row r="149" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C149" s="5" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="D149" s="5"/>
       <c r="F149" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="H149" s="5" t="s">
         <v>17</v>
@@ -8453,14 +8375,14 @@
       <c r="M149" s="5"/>
       <c r="N149" s="5"/>
       <c r="Q149" s="13">
-        <v>45614.454583333332</v>
+        <v>45608.376828703702</v>
       </c>
       <c r="R149" s="13"/>
       <c r="S149" s="13"/>
       <c r="T149" s="13"/>
       <c r="U149" s="13"/>
       <c r="X149" s="5" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="Y149" s="5"/>
       <c r="Z149" s="5"/>
@@ -8471,7 +8393,7 @@
       <c r="AE149" s="5"/>
       <c r="AF149" s="5"/>
       <c r="AI149" s="5" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="AJ149" s="5"/>
       <c r="AK149" s="5"/>
@@ -8482,11 +8404,11 @@
     </row>
     <row r="150" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C150" s="5" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="D150" s="5"/>
       <c r="F150" s="1" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="H150" s="5" t="s">
         <v>17</v>
@@ -8498,14 +8420,14 @@
       <c r="M150" s="5"/>
       <c r="N150" s="5"/>
       <c r="Q150" s="13">
-        <v>45611.466562499998</v>
+        <v>45607.520740740743</v>
       </c>
       <c r="R150" s="13"/>
       <c r="S150" s="13"/>
       <c r="T150" s="13"/>
       <c r="U150" s="13"/>
       <c r="X150" s="5" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="Y150" s="5"/>
       <c r="Z150" s="5"/>
@@ -8516,7 +8438,7 @@
       <c r="AE150" s="5"/>
       <c r="AF150" s="5"/>
       <c r="AI150" s="5" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="AJ150" s="5"/>
       <c r="AK150" s="5"/>
@@ -8527,11 +8449,11 @@
     </row>
     <row r="151" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C151" s="5" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="D151" s="5"/>
       <c r="F151" s="1" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="H151" s="5" t="s">
         <v>17</v>
@@ -8543,14 +8465,14 @@
       <c r="M151" s="5"/>
       <c r="N151" s="5"/>
       <c r="Q151" s="13">
-        <v>45610.791724537034</v>
+        <v>45605.860312500001</v>
       </c>
       <c r="R151" s="13"/>
       <c r="S151" s="13"/>
       <c r="T151" s="13"/>
       <c r="U151" s="13"/>
       <c r="X151" s="5" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="Y151" s="5"/>
       <c r="Z151" s="5"/>
@@ -8561,7 +8483,7 @@
       <c r="AE151" s="5"/>
       <c r="AF151" s="5"/>
       <c r="AI151" s="5" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="AJ151" s="5"/>
       <c r="AK151" s="5"/>
@@ -8572,11 +8494,11 @@
     </row>
     <row r="152" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C152" s="5" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="D152" s="5"/>
       <c r="F152" s="1" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="H152" s="5" t="s">
         <v>17</v>
@@ -8588,14 +8510,14 @@
       <c r="M152" s="5"/>
       <c r="N152" s="5"/>
       <c r="Q152" s="13">
-        <v>45610.631874999999</v>
+        <v>45605.855879629627</v>
       </c>
       <c r="R152" s="13"/>
       <c r="S152" s="13"/>
       <c r="T152" s="13"/>
       <c r="U152" s="13"/>
       <c r="X152" s="5" t="s">
-        <v>323</v>
+        <v>18</v>
       </c>
       <c r="Y152" s="5"/>
       <c r="Z152" s="5"/>
@@ -8606,7 +8528,7 @@
       <c r="AE152" s="5"/>
       <c r="AF152" s="5"/>
       <c r="AI152" s="5" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="AJ152" s="5"/>
       <c r="AK152" s="5"/>
@@ -8617,11 +8539,11 @@
     </row>
     <row r="153" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C153" s="5" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="D153" s="5"/>
       <c r="F153" s="1" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="H153" s="5" t="s">
         <v>17</v>
@@ -8633,14 +8555,14 @@
       <c r="M153" s="5"/>
       <c r="N153" s="5"/>
       <c r="Q153" s="13">
-        <v>45610.62222222222</v>
+        <v>45604.952557870369</v>
       </c>
       <c r="R153" s="13"/>
       <c r="S153" s="13"/>
       <c r="T153" s="13"/>
       <c r="U153" s="13"/>
       <c r="X153" s="5" t="s">
-        <v>29</v>
+        <v>332</v>
       </c>
       <c r="Y153" s="5"/>
       <c r="Z153" s="5"/>
@@ -8651,7 +8573,7 @@
       <c r="AE153" s="5"/>
       <c r="AF153" s="5"/>
       <c r="AI153" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AJ153" s="5"/>
       <c r="AK153" s="5"/>
@@ -8662,11 +8584,11 @@
     </row>
     <row r="154" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C154" s="5" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="D154" s="5"/>
       <c r="F154" s="1" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="H154" s="5" t="s">
         <v>17</v>
@@ -8678,14 +8600,14 @@
       <c r="M154" s="5"/>
       <c r="N154" s="5"/>
       <c r="Q154" s="13">
-        <v>45609.747534722221</v>
+        <v>45602.50576388889</v>
       </c>
       <c r="R154" s="13"/>
       <c r="S154" s="13"/>
       <c r="T154" s="13"/>
       <c r="U154" s="13"/>
       <c r="X154" s="5" t="s">
-        <v>272</v>
+        <v>142</v>
       </c>
       <c r="Y154" s="5"/>
       <c r="Z154" s="5"/>
@@ -8696,7 +8618,7 @@
       <c r="AE154" s="5"/>
       <c r="AF154" s="5"/>
       <c r="AI154" s="5" t="s">
-        <v>273</v>
+        <v>346</v>
       </c>
       <c r="AJ154" s="5"/>
       <c r="AK154" s="5"/>
@@ -8707,11 +8629,11 @@
     </row>
     <row r="155" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C155" s="5" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="D155" s="5"/>
       <c r="F155" s="1" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="H155" s="5" t="s">
         <v>17</v>
@@ -8723,14 +8645,14 @@
       <c r="M155" s="5"/>
       <c r="N155" s="5"/>
       <c r="Q155" s="13">
-        <v>45609.315729166665</v>
+        <v>45599.537291666667</v>
       </c>
       <c r="R155" s="13"/>
       <c r="S155" s="13"/>
       <c r="T155" s="13"/>
       <c r="U155" s="13"/>
       <c r="X155" s="5" t="s">
-        <v>29</v>
+        <v>349</v>
       </c>
       <c r="Y155" s="5"/>
       <c r="Z155" s="5"/>
@@ -8741,7 +8663,7 @@
       <c r="AE155" s="5"/>
       <c r="AF155" s="5"/>
       <c r="AI155" s="5" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="AJ155" s="5"/>
       <c r="AK155" s="5"/>
@@ -8752,11 +8674,11 @@
     </row>
     <row r="156" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C156" s="5" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="D156" s="5"/>
       <c r="F156" s="1" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="H156" s="5" t="s">
         <v>17</v>
@@ -8768,14 +8690,14 @@
       <c r="M156" s="5"/>
       <c r="N156" s="5"/>
       <c r="Q156" s="13">
-        <v>45608.756388888891</v>
+        <v>45598.901377314818</v>
       </c>
       <c r="R156" s="13"/>
       <c r="S156" s="13"/>
       <c r="T156" s="13"/>
       <c r="U156" s="13"/>
       <c r="X156" s="5" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="Y156" s="5"/>
       <c r="Z156" s="5"/>
@@ -8786,7 +8708,7 @@
       <c r="AE156" s="5"/>
       <c r="AF156" s="5"/>
       <c r="AI156" s="5" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="AJ156" s="5"/>
       <c r="AK156" s="5"/>
@@ -8797,11 +8719,11 @@
     </row>
     <row r="157" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C157" s="5" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="D157" s="5"/>
       <c r="F157" s="1" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="H157" s="5" t="s">
         <v>17</v>
@@ -8813,14 +8735,14 @@
       <c r="M157" s="5"/>
       <c r="N157" s="5"/>
       <c r="Q157" s="13">
-        <v>45608.376828703702</v>
+        <v>45597.454756944448</v>
       </c>
       <c r="R157" s="13"/>
       <c r="S157" s="13"/>
       <c r="T157" s="13"/>
       <c r="U157" s="13"/>
       <c r="X157" s="5" t="s">
-        <v>348</v>
+        <v>210</v>
       </c>
       <c r="Y157" s="5"/>
       <c r="Z157" s="5"/>
@@ -8831,7 +8753,7 @@
       <c r="AE157" s="5"/>
       <c r="AF157" s="5"/>
       <c r="AI157" s="5" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="AJ157" s="5"/>
       <c r="AK157" s="5"/>
@@ -8842,11 +8764,11 @@
     </row>
     <row r="158" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C158" s="5" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="D158" s="5"/>
       <c r="F158" s="1" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="H158" s="5" t="s">
         <v>17</v>
@@ -8858,14 +8780,14 @@
       <c r="M158" s="5"/>
       <c r="N158" s="5"/>
       <c r="Q158" s="13">
-        <v>45607.520740740743</v>
+        <v>45595.769618055558</v>
       </c>
       <c r="R158" s="13"/>
       <c r="S158" s="13"/>
       <c r="T158" s="13"/>
       <c r="U158" s="13"/>
       <c r="X158" s="5" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="Y158" s="5"/>
       <c r="Z158" s="5"/>
@@ -8876,7 +8798,7 @@
       <c r="AE158" s="5"/>
       <c r="AF158" s="5"/>
       <c r="AI158" s="5" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="AJ158" s="5"/>
       <c r="AK158" s="5"/>
@@ -8887,11 +8809,11 @@
     </row>
     <row r="159" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C159" s="5" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="D159" s="5"/>
       <c r="F159" s="1" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="H159" s="5" t="s">
         <v>17</v>
@@ -8903,14 +8825,14 @@
       <c r="M159" s="5"/>
       <c r="N159" s="5"/>
       <c r="Q159" s="13">
-        <v>45605.860312500001</v>
+        <v>45595.721030092594</v>
       </c>
       <c r="R159" s="13"/>
       <c r="S159" s="13"/>
       <c r="T159" s="13"/>
       <c r="U159" s="13"/>
       <c r="X159" s="5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Y159" s="5"/>
       <c r="Z159" s="5"/>
@@ -8921,7 +8843,7 @@
       <c r="AE159" s="5"/>
       <c r="AF159" s="5"/>
       <c r="AI159" s="5" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="AJ159" s="5"/>
       <c r="AK159" s="5"/>
@@ -8932,11 +8854,11 @@
     </row>
     <row r="160" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C160" s="5" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="D160" s="5"/>
       <c r="F160" s="1" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="H160" s="5" t="s">
         <v>17</v>
@@ -8948,14 +8870,14 @@
       <c r="M160" s="5"/>
       <c r="N160" s="5"/>
       <c r="Q160" s="13">
-        <v>45605.855879629627</v>
+        <v>45595.525393518517</v>
       </c>
       <c r="R160" s="13"/>
       <c r="S160" s="13"/>
       <c r="T160" s="13"/>
       <c r="U160" s="13"/>
       <c r="X160" s="5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Y160" s="5"/>
       <c r="Z160" s="5"/>
@@ -8966,7 +8888,7 @@
       <c r="AE160" s="5"/>
       <c r="AF160" s="5"/>
       <c r="AI160" s="5" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="AJ160" s="5"/>
       <c r="AK160" s="5"/>
@@ -8977,11 +8899,11 @@
     </row>
     <row r="161" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C161" s="5" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="D161" s="5"/>
       <c r="F161" s="1" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="H161" s="5" t="s">
         <v>17</v>
@@ -8993,14 +8915,14 @@
       <c r="M161" s="5"/>
       <c r="N161" s="5"/>
       <c r="Q161" s="13">
-        <v>45604.952557870369</v>
+        <v>45593.598402777781</v>
       </c>
       <c r="R161" s="13"/>
       <c r="S161" s="13"/>
       <c r="T161" s="13"/>
       <c r="U161" s="13"/>
       <c r="X161" s="5" t="s">
-        <v>348</v>
+        <v>29</v>
       </c>
       <c r="Y161" s="5"/>
       <c r="Z161" s="5"/>
@@ -9011,7 +8933,7 @@
       <c r="AE161" s="5"/>
       <c r="AF161" s="5"/>
       <c r="AI161" s="5" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="AJ161" s="5"/>
       <c r="AK161" s="5"/>
@@ -9022,11 +8944,11 @@
     </row>
     <row r="162" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C162" s="5" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="D162" s="5"/>
       <c r="F162" s="1" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="H162" s="5" t="s">
         <v>17</v>
@@ -9038,14 +8960,14 @@
       <c r="M162" s="5"/>
       <c r="N162" s="5"/>
       <c r="Q162" s="13">
-        <v>45602.50576388889</v>
+        <v>45588.858819444446</v>
       </c>
       <c r="R162" s="13"/>
       <c r="S162" s="13"/>
       <c r="T162" s="13"/>
       <c r="U162" s="13"/>
       <c r="X162" s="5" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="Y162" s="5"/>
       <c r="Z162" s="5"/>
@@ -9056,7 +8978,7 @@
       <c r="AE162" s="5"/>
       <c r="AF162" s="5"/>
       <c r="AI162" s="5" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="AJ162" s="5"/>
       <c r="AK162" s="5"/>
@@ -9067,11 +8989,11 @@
     </row>
     <row r="163" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C163" s="5" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="D163" s="5"/>
       <c r="F163" s="1" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="H163" s="5" t="s">
         <v>17</v>
@@ -9083,14 +9005,14 @@
       <c r="M163" s="5"/>
       <c r="N163" s="5"/>
       <c r="Q163" s="13">
-        <v>45599.537291666667</v>
+        <v>45588.637592592589</v>
       </c>
       <c r="R163" s="13"/>
       <c r="S163" s="13"/>
       <c r="T163" s="13"/>
       <c r="U163" s="13"/>
       <c r="X163" s="5" t="s">
-        <v>365</v>
+        <v>203</v>
       </c>
       <c r="Y163" s="5"/>
       <c r="Z163" s="5"/>
@@ -9101,7 +9023,7 @@
       <c r="AE163" s="5"/>
       <c r="AF163" s="5"/>
       <c r="AI163" s="5" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="AJ163" s="5"/>
       <c r="AK163" s="5"/>
@@ -9112,11 +9034,11 @@
     </row>
     <row r="164" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C164" s="5" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="D164" s="5"/>
       <c r="F164" s="1" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="H164" s="5" t="s">
         <v>17</v>
@@ -9128,14 +9050,14 @@
       <c r="M164" s="5"/>
       <c r="N164" s="5"/>
       <c r="Q164" s="13">
-        <v>45598.901377314818</v>
+        <v>45587.712835648148</v>
       </c>
       <c r="R164" s="13"/>
       <c r="S164" s="13"/>
       <c r="T164" s="13"/>
       <c r="U164" s="13"/>
       <c r="X164" s="5" t="s">
-        <v>369</v>
+        <v>18</v>
       </c>
       <c r="Y164" s="5"/>
       <c r="Z164" s="5"/>
@@ -9146,7 +9068,7 @@
       <c r="AE164" s="5"/>
       <c r="AF164" s="5"/>
       <c r="AI164" s="5" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="AJ164" s="5"/>
       <c r="AK164" s="5"/>
@@ -9157,11 +9079,11 @@
     </row>
     <row r="165" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C165" s="5" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="D165" s="5"/>
       <c r="F165" s="1" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="H165" s="5" t="s">
         <v>17</v>
@@ -9173,14 +9095,14 @@
       <c r="M165" s="5"/>
       <c r="N165" s="5"/>
       <c r="Q165" s="13">
-        <v>45597.454756944448</v>
+        <v>45586.788402777776</v>
       </c>
       <c r="R165" s="13"/>
       <c r="S165" s="13"/>
       <c r="T165" s="13"/>
       <c r="U165" s="13"/>
       <c r="X165" s="5" t="s">
-        <v>218</v>
+        <v>18</v>
       </c>
       <c r="Y165" s="5"/>
       <c r="Z165" s="5"/>
@@ -9191,7 +9113,7 @@
       <c r="AE165" s="5"/>
       <c r="AF165" s="5"/>
       <c r="AI165" s="5" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AJ165" s="5"/>
       <c r="AK165" s="5"/>
@@ -9202,11 +9124,11 @@
     </row>
     <row r="166" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C166" s="5" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="D166" s="5"/>
       <c r="F166" s="1" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="H166" s="5" t="s">
         <v>17</v>
@@ -9218,14 +9140,14 @@
       <c r="M166" s="5"/>
       <c r="N166" s="5"/>
       <c r="Q166" s="13">
-        <v>45595.769618055558</v>
+        <v>45585.872881944444</v>
       </c>
       <c r="R166" s="13"/>
       <c r="S166" s="13"/>
       <c r="T166" s="13"/>
       <c r="U166" s="13"/>
       <c r="X166" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="Y166" s="5"/>
       <c r="Z166" s="5"/>
@@ -9247,11 +9169,11 @@
     </row>
     <row r="167" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C167" s="5" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D167" s="5"/>
       <c r="F167" s="1" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H167" s="5" t="s">
         <v>17</v>
@@ -9263,7 +9185,7 @@
       <c r="M167" s="5"/>
       <c r="N167" s="5"/>
       <c r="Q167" s="13">
-        <v>45595.721030092594</v>
+        <v>45581.889247685183</v>
       </c>
       <c r="R167" s="13"/>
       <c r="S167" s="13"/>
@@ -9281,7 +9203,7 @@
       <c r="AE167" s="5"/>
       <c r="AF167" s="5"/>
       <c r="AI167" s="5" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="AJ167" s="5"/>
       <c r="AK167" s="5"/>
@@ -9292,11 +9214,11 @@
     </row>
     <row r="168" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C168" s="5" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D168" s="5"/>
       <c r="F168" s="1" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="H168" s="5" t="s">
         <v>17</v>
@@ -9308,14 +9230,14 @@
       <c r="M168" s="5"/>
       <c r="N168" s="5"/>
       <c r="Q168" s="13">
-        <v>45595.525393518517</v>
+        <v>45581.092395833337</v>
       </c>
       <c r="R168" s="13"/>
       <c r="S168" s="13"/>
       <c r="T168" s="13"/>
       <c r="U168" s="13"/>
       <c r="X168" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="Y168" s="5"/>
       <c r="Z168" s="5"/>
@@ -9326,7 +9248,7 @@
       <c r="AE168" s="5"/>
       <c r="AF168" s="5"/>
       <c r="AI168" s="5" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="AJ168" s="5"/>
       <c r="AK168" s="5"/>
@@ -9337,11 +9259,11 @@
     </row>
     <row r="169" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C169" s="5" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D169" s="5"/>
       <c r="F169" s="1" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="H169" s="5" t="s">
         <v>17</v>
@@ -9353,7 +9275,7 @@
       <c r="M169" s="5"/>
       <c r="N169" s="5"/>
       <c r="Q169" s="13">
-        <v>45593.598402777781</v>
+        <v>45579.611192129632</v>
       </c>
       <c r="R169" s="13"/>
       <c r="S169" s="13"/>
@@ -9382,11 +9304,11 @@
     </row>
     <row r="170" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C170" s="5" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="D170" s="5"/>
       <c r="F170" s="1" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="H170" s="5" t="s">
         <v>17</v>
@@ -9398,14 +9320,14 @@
       <c r="M170" s="5"/>
       <c r="N170" s="5"/>
       <c r="Q170" s="13">
-        <v>45588.858819444446</v>
+        <v>45574.693819444445</v>
       </c>
       <c r="R170" s="13"/>
       <c r="S170" s="13"/>
       <c r="T170" s="13"/>
       <c r="U170" s="13"/>
       <c r="X170" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="Y170" s="5"/>
       <c r="Z170" s="5"/>
@@ -9416,7 +9338,7 @@
       <c r="AE170" s="5"/>
       <c r="AF170" s="5"/>
       <c r="AI170" s="5" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="AJ170" s="5"/>
       <c r="AK170" s="5"/>
@@ -9427,11 +9349,11 @@
     </row>
     <row r="171" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C171" s="5" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D171" s="5"/>
       <c r="F171" s="1" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="H171" s="5" t="s">
         <v>17</v>
@@ -9443,14 +9365,14 @@
       <c r="M171" s="5"/>
       <c r="N171" s="5"/>
       <c r="Q171" s="13">
-        <v>45588.637592592589</v>
+        <v>45574.526875000003</v>
       </c>
       <c r="R171" s="13"/>
       <c r="S171" s="13"/>
       <c r="T171" s="13"/>
       <c r="U171" s="13"/>
       <c r="X171" s="5" t="s">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="Y171" s="5"/>
       <c r="Z171" s="5"/>
@@ -9461,7 +9383,7 @@
       <c r="AE171" s="5"/>
       <c r="AF171" s="5"/>
       <c r="AI171" s="5" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AJ171" s="5"/>
       <c r="AK171" s="5"/>
@@ -9472,11 +9394,11 @@
     </row>
     <row r="172" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C172" s="5" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D172" s="5"/>
       <c r="F172" s="1" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="H172" s="5" t="s">
         <v>17</v>
@@ -9488,14 +9410,14 @@
       <c r="M172" s="5"/>
       <c r="N172" s="5"/>
       <c r="Q172" s="13">
-        <v>45587.712835648148</v>
+        <v>45572.609502314815</v>
       </c>
       <c r="R172" s="13"/>
       <c r="S172" s="13"/>
       <c r="T172" s="13"/>
       <c r="U172" s="13"/>
       <c r="X172" s="5" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="Y172" s="5"/>
       <c r="Z172" s="5"/>
@@ -9506,7 +9428,7 @@
       <c r="AE172" s="5"/>
       <c r="AF172" s="5"/>
       <c r="AI172" s="5" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="AJ172" s="5"/>
       <c r="AK172" s="5"/>
@@ -9517,11 +9439,11 @@
     </row>
     <row r="173" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C173" s="5" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D173" s="5"/>
       <c r="F173" s="1" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="H173" s="5" t="s">
         <v>17</v>
@@ -9533,14 +9455,14 @@
       <c r="M173" s="5"/>
       <c r="N173" s="5"/>
       <c r="Q173" s="13">
-        <v>45586.788402777776</v>
+        <v>45570.921979166669</v>
       </c>
       <c r="R173" s="13"/>
       <c r="S173" s="13"/>
       <c r="T173" s="13"/>
       <c r="U173" s="13"/>
       <c r="X173" s="5" t="s">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="Y173" s="5"/>
       <c r="Z173" s="5"/>
@@ -9551,7 +9473,7 @@
       <c r="AE173" s="5"/>
       <c r="AF173" s="5"/>
       <c r="AI173" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="AJ173" s="5"/>
       <c r="AK173" s="5"/>
@@ -9562,11 +9484,11 @@
     </row>
     <row r="174" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C174" s="5" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="D174" s="5"/>
       <c r="F174" s="1" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="H174" s="5" t="s">
         <v>17</v>
@@ -9578,14 +9500,14 @@
       <c r="M174" s="5"/>
       <c r="N174" s="5"/>
       <c r="Q174" s="13">
-        <v>45585.872881944444</v>
+        <v>45570.555509259262</v>
       </c>
       <c r="R174" s="13"/>
       <c r="S174" s="13"/>
       <c r="T174" s="13"/>
       <c r="U174" s="13"/>
       <c r="X174" s="5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Y174" s="5"/>
       <c r="Z174" s="5"/>
@@ -9596,7 +9518,7 @@
       <c r="AE174" s="5"/>
       <c r="AF174" s="5"/>
       <c r="AI174" s="5" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="AJ174" s="5"/>
       <c r="AK174" s="5"/>
@@ -9607,11 +9529,11 @@
     </row>
     <row r="175" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C175" s="5" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D175" s="5"/>
       <c r="F175" s="1" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="H175" s="5" t="s">
         <v>17</v>
@@ -9623,14 +9545,14 @@
       <c r="M175" s="5"/>
       <c r="N175" s="5"/>
       <c r="Q175" s="13">
-        <v>45581.889247685183</v>
+        <v>45563.553587962961</v>
       </c>
       <c r="R175" s="13"/>
       <c r="S175" s="13"/>
       <c r="T175" s="13"/>
       <c r="U175" s="13"/>
       <c r="X175" s="5" t="s">
-        <v>29</v>
+        <v>404</v>
       </c>
       <c r="Y175" s="5"/>
       <c r="Z175" s="5"/>
@@ -9641,7 +9563,7 @@
       <c r="AE175" s="5"/>
       <c r="AF175" s="5"/>
       <c r="AI175" s="5" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="AJ175" s="5"/>
       <c r="AK175" s="5"/>
@@ -9652,11 +9574,11 @@
     </row>
     <row r="176" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C176" s="5" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="D176" s="5"/>
       <c r="F176" s="1" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="H176" s="5" t="s">
         <v>17</v>
@@ -9668,7 +9590,7 @@
       <c r="M176" s="5"/>
       <c r="N176" s="5"/>
       <c r="Q176" s="13">
-        <v>45581.092395833337</v>
+        <v>45555.588726851849</v>
       </c>
       <c r="R176" s="13"/>
       <c r="S176" s="13"/>
@@ -9686,7 +9608,7 @@
       <c r="AE176" s="5"/>
       <c r="AF176" s="5"/>
       <c r="AI176" s="5" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="AJ176" s="5"/>
       <c r="AK176" s="5"/>
@@ -9697,11 +9619,11 @@
     </row>
     <row r="177" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C177" s="5" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="D177" s="5"/>
       <c r="F177" s="1" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H177" s="5" t="s">
         <v>17</v>
@@ -9713,14 +9635,14 @@
       <c r="M177" s="5"/>
       <c r="N177" s="5"/>
       <c r="Q177" s="13">
-        <v>45579.611192129632</v>
+        <v>45552.60628472222</v>
       </c>
       <c r="R177" s="13"/>
       <c r="S177" s="13"/>
       <c r="T177" s="13"/>
       <c r="U177" s="13"/>
       <c r="X177" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="Y177" s="5"/>
       <c r="Z177" s="5"/>
@@ -9731,7 +9653,7 @@
       <c r="AE177" s="5"/>
       <c r="AF177" s="5"/>
       <c r="AI177" s="5" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="AJ177" s="5"/>
       <c r="AK177" s="5"/>
@@ -9742,11 +9664,11 @@
     </row>
     <row r="178" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C178" s="5" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="D178" s="5"/>
       <c r="F178" s="1" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="H178" s="5" t="s">
         <v>17</v>
@@ -9758,14 +9680,14 @@
       <c r="M178" s="5"/>
       <c r="N178" s="5"/>
       <c r="Q178" s="13">
-        <v>45574.693819444445</v>
+        <v>45546.87363425926</v>
       </c>
       <c r="R178" s="13"/>
       <c r="S178" s="13"/>
       <c r="T178" s="13"/>
       <c r="U178" s="13"/>
       <c r="X178" s="5" t="s">
-        <v>18</v>
+        <v>414</v>
       </c>
       <c r="Y178" s="5"/>
       <c r="Z178" s="5"/>
@@ -9776,7 +9698,7 @@
       <c r="AE178" s="5"/>
       <c r="AF178" s="5"/>
       <c r="AI178" s="5" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="AJ178" s="5"/>
       <c r="AK178" s="5"/>
@@ -9787,11 +9709,11 @@
     </row>
     <row r="179" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C179" s="5" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="D179" s="5"/>
       <c r="F179" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="H179" s="5" t="s">
         <v>17</v>
@@ -9803,7 +9725,7 @@
       <c r="M179" s="5"/>
       <c r="N179" s="5"/>
       <c r="Q179" s="13">
-        <v>45574.526875000003</v>
+        <v>45541.764745370368</v>
       </c>
       <c r="R179" s="13"/>
       <c r="S179" s="13"/>
@@ -9821,7 +9743,7 @@
       <c r="AE179" s="5"/>
       <c r="AF179" s="5"/>
       <c r="AI179" s="5" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="AJ179" s="5"/>
       <c r="AK179" s="5"/>
@@ -9832,11 +9754,11 @@
     </row>
     <row r="180" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C180" s="5" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="D180" s="5"/>
       <c r="F180" s="1" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="H180" s="5" t="s">
         <v>17</v>
@@ -9848,14 +9770,14 @@
       <c r="M180" s="5"/>
       <c r="N180" s="5"/>
       <c r="Q180" s="13">
-        <v>45572.609502314815</v>
+        <v>45540.713310185187</v>
       </c>
       <c r="R180" s="13"/>
       <c r="S180" s="13"/>
       <c r="T180" s="13"/>
       <c r="U180" s="13"/>
       <c r="X180" s="5" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="Y180" s="5"/>
       <c r="Z180" s="5"/>
@@ -9866,7 +9788,7 @@
       <c r="AE180" s="5"/>
       <c r="AF180" s="5"/>
       <c r="AI180" s="5" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="AJ180" s="5"/>
       <c r="AK180" s="5"/>
@@ -9877,11 +9799,11 @@
     </row>
     <row r="181" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C181" s="5" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="D181" s="5"/>
       <c r="F181" s="1" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="H181" s="5" t="s">
         <v>17</v>
@@ -9893,14 +9815,14 @@
       <c r="M181" s="5"/>
       <c r="N181" s="5"/>
       <c r="Q181" s="13">
-        <v>45570.921979166669</v>
+        <v>45519.60292824074</v>
       </c>
       <c r="R181" s="13"/>
       <c r="S181" s="13"/>
       <c r="T181" s="13"/>
       <c r="U181" s="13"/>
       <c r="X181" s="5" t="s">
-        <v>211</v>
+        <v>423</v>
       </c>
       <c r="Y181" s="5"/>
       <c r="Z181" s="5"/>
@@ -9911,7 +9833,7 @@
       <c r="AE181" s="5"/>
       <c r="AF181" s="5"/>
       <c r="AI181" s="5" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="AJ181" s="5"/>
       <c r="AK181" s="5"/>
@@ -9922,11 +9844,11 @@
     </row>
     <row r="182" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C182" s="5" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="D182" s="5"/>
       <c r="F182" s="1" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="H182" s="5" t="s">
         <v>17</v>
@@ -9938,14 +9860,14 @@
       <c r="M182" s="5"/>
       <c r="N182" s="5"/>
       <c r="Q182" s="13">
-        <v>45570.555509259262</v>
+        <v>45513.682962962965</v>
       </c>
       <c r="R182" s="13"/>
       <c r="S182" s="13"/>
       <c r="T182" s="13"/>
       <c r="U182" s="13"/>
       <c r="X182" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="Y182" s="5"/>
       <c r="Z182" s="5"/>
@@ -9956,7 +9878,7 @@
       <c r="AE182" s="5"/>
       <c r="AF182" s="5"/>
       <c r="AI182" s="5" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
       <c r="AJ182" s="5"/>
       <c r="AK182" s="5"/>
@@ -9967,11 +9889,11 @@
     </row>
     <row r="183" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C183" s="5" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="D183" s="5"/>
       <c r="F183" s="1" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="H183" s="5" t="s">
         <v>17</v>
@@ -9983,14 +9905,14 @@
       <c r="M183" s="5"/>
       <c r="N183" s="5"/>
       <c r="Q183" s="13">
-        <v>45563.553587962961</v>
+        <v>45513.06931712963</v>
       </c>
       <c r="R183" s="13"/>
       <c r="S183" s="13"/>
       <c r="T183" s="13"/>
       <c r="U183" s="13"/>
       <c r="X183" s="5" t="s">
-        <v>420</v>
+        <v>18</v>
       </c>
       <c r="Y183" s="5"/>
       <c r="Z183" s="5"/>
@@ -10001,7 +9923,7 @@
       <c r="AE183" s="5"/>
       <c r="AF183" s="5"/>
       <c r="AI183" s="5" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="AJ183" s="5"/>
       <c r="AK183" s="5"/>
@@ -10012,11 +9934,11 @@
     </row>
     <row r="184" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C184" s="5" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="D184" s="5"/>
       <c r="F184" s="1" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="H184" s="5" t="s">
         <v>17</v>
@@ -10028,14 +9950,14 @@
       <c r="M184" s="5"/>
       <c r="N184" s="5"/>
       <c r="Q184" s="13">
-        <v>45555.588726851849</v>
+        <v>45512.818796296298</v>
       </c>
       <c r="R184" s="13"/>
       <c r="S184" s="13"/>
       <c r="T184" s="13"/>
       <c r="U184" s="13"/>
       <c r="X184" s="5" t="s">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="Y184" s="5"/>
       <c r="Z184" s="5"/>
@@ -10046,7 +9968,7 @@
       <c r="AE184" s="5"/>
       <c r="AF184" s="5"/>
       <c r="AI184" s="5" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="AJ184" s="5"/>
       <c r="AK184" s="5"/>
@@ -10057,11 +9979,11 @@
     </row>
     <row r="185" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C185" s="5" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="D185" s="5"/>
       <c r="F185" s="1" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="H185" s="5" t="s">
         <v>17</v>
@@ -10073,14 +9995,14 @@
       <c r="M185" s="5"/>
       <c r="N185" s="5"/>
       <c r="Q185" s="13">
-        <v>45552.60628472222</v>
+        <v>45506.044224537036</v>
       </c>
       <c r="R185" s="13"/>
       <c r="S185" s="13"/>
       <c r="T185" s="13"/>
       <c r="U185" s="13"/>
       <c r="X185" s="5" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="Y185" s="5"/>
       <c r="Z185" s="5"/>
@@ -10091,7 +10013,7 @@
       <c r="AE185" s="5"/>
       <c r="AF185" s="5"/>
       <c r="AI185" s="5" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="AJ185" s="5"/>
       <c r="AK185" s="5"/>
@@ -10102,11 +10024,11 @@
     </row>
     <row r="186" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C186" s="5" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="D186" s="5"/>
       <c r="F186" s="1" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="H186" s="5" t="s">
         <v>17</v>
@@ -10118,14 +10040,14 @@
       <c r="M186" s="5"/>
       <c r="N186" s="5"/>
       <c r="Q186" s="13">
-        <v>45546.87363425926</v>
+        <v>45495.490486111114</v>
       </c>
       <c r="R186" s="13"/>
       <c r="S186" s="13"/>
       <c r="T186" s="13"/>
       <c r="U186" s="13"/>
       <c r="X186" s="5" t="s">
-        <v>430</v>
+        <v>18</v>
       </c>
       <c r="Y186" s="5"/>
       <c r="Z186" s="5"/>
@@ -10136,7 +10058,7 @@
       <c r="AE186" s="5"/>
       <c r="AF186" s="5"/>
       <c r="AI186" s="5" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="AJ186" s="5"/>
       <c r="AK186" s="5"/>
@@ -10147,11 +10069,11 @@
     </row>
     <row r="187" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C187" s="5" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="D187" s="5"/>
       <c r="F187" s="1" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="H187" s="5" t="s">
         <v>17</v>
@@ -10163,7 +10085,7 @@
       <c r="M187" s="5"/>
       <c r="N187" s="5"/>
       <c r="Q187" s="13">
-        <v>45541.764745370368</v>
+        <v>45491.943981481483</v>
       </c>
       <c r="R187" s="13"/>
       <c r="S187" s="13"/>
@@ -10181,7 +10103,7 @@
       <c r="AE187" s="5"/>
       <c r="AF187" s="5"/>
       <c r="AI187" s="5" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="AJ187" s="5"/>
       <c r="AK187" s="5"/>
@@ -10192,11 +10114,11 @@
     </row>
     <row r="188" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C188" s="5" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="D188" s="5"/>
       <c r="F188" s="1" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="H188" s="5" t="s">
         <v>17</v>
@@ -10208,14 +10130,14 @@
       <c r="M188" s="5"/>
       <c r="N188" s="5"/>
       <c r="Q188" s="13">
-        <v>45541.75440972222</v>
+        <v>45427.549143518518</v>
       </c>
       <c r="R188" s="13"/>
       <c r="S188" s="13"/>
       <c r="T188" s="13"/>
       <c r="U188" s="13"/>
       <c r="X188" s="5" t="s">
-        <v>18</v>
+        <v>444</v>
       </c>
       <c r="Y188" s="5"/>
       <c r="Z188" s="5"/>
@@ -10226,7 +10148,7 @@
       <c r="AE188" s="5"/>
       <c r="AF188" s="5"/>
       <c r="AI188" s="5" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="AJ188" s="5"/>
       <c r="AK188" s="5"/>
@@ -10237,11 +10159,11 @@
     </row>
     <row r="189" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C189" s="5" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="D189" s="5"/>
       <c r="F189" s="1" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="H189" s="5" t="s">
         <v>17</v>
@@ -10253,14 +10175,14 @@
       <c r="M189" s="5"/>
       <c r="N189" s="5"/>
       <c r="Q189" s="13">
-        <v>45541.740694444445</v>
+        <v>45427.540208333332</v>
       </c>
       <c r="R189" s="13"/>
       <c r="S189" s="13"/>
       <c r="T189" s="13"/>
       <c r="U189" s="13"/>
       <c r="X189" s="5" t="s">
-        <v>18</v>
+        <v>444</v>
       </c>
       <c r="Y189" s="5"/>
       <c r="Z189" s="5"/>
@@ -10271,7 +10193,7 @@
       <c r="AE189" s="5"/>
       <c r="AF189" s="5"/>
       <c r="AI189" s="5" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="AJ189" s="5"/>
       <c r="AK189" s="5"/>
@@ -10282,11 +10204,11 @@
     </row>
     <row r="190" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C190" s="5" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="D190" s="5"/>
       <c r="F190" s="1" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="H190" s="5" t="s">
         <v>17</v>
@@ -10298,14 +10220,14 @@
       <c r="M190" s="5"/>
       <c r="N190" s="5"/>
       <c r="Q190" s="13">
-        <v>45541.727372685185</v>
+        <v>45408.758298611108</v>
       </c>
       <c r="R190" s="13"/>
       <c r="S190" s="13"/>
       <c r="T190" s="13"/>
       <c r="U190" s="13"/>
       <c r="X190" s="5" t="s">
-        <v>18</v>
+        <v>450</v>
       </c>
       <c r="Y190" s="5"/>
       <c r="Z190" s="5"/>
@@ -10316,7 +10238,7 @@
       <c r="AE190" s="5"/>
       <c r="AF190" s="5"/>
       <c r="AI190" s="5" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="AJ190" s="5"/>
       <c r="AK190" s="5"/>
@@ -10327,11 +10249,11 @@
     </row>
     <row r="191" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C191" s="5" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="D191" s="5"/>
       <c r="F191" s="1" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="H191" s="5" t="s">
         <v>17</v>
@@ -10343,14 +10265,14 @@
       <c r="M191" s="5"/>
       <c r="N191" s="5"/>
       <c r="Q191" s="13">
-        <v>45541.699942129628</v>
+        <v>45408.739212962966</v>
       </c>
       <c r="R191" s="13"/>
       <c r="S191" s="13"/>
       <c r="T191" s="13"/>
       <c r="U191" s="13"/>
       <c r="X191" s="5" t="s">
-        <v>18</v>
+        <v>450</v>
       </c>
       <c r="Y191" s="5"/>
       <c r="Z191" s="5"/>
@@ -10361,7 +10283,7 @@
       <c r="AE191" s="5"/>
       <c r="AF191" s="5"/>
       <c r="AI191" s="5" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="AJ191" s="5"/>
       <c r="AK191" s="5"/>
@@ -10372,11 +10294,11 @@
     </row>
     <row r="192" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C192" s="5" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="D192" s="5"/>
       <c r="F192" s="1" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="H192" s="5" t="s">
         <v>17</v>
@@ -10388,14 +10310,14 @@
       <c r="M192" s="5"/>
       <c r="N192" s="5"/>
       <c r="Q192" s="13">
-        <v>45541.692210648151</v>
+        <v>45187.64508101852</v>
       </c>
       <c r="R192" s="13"/>
       <c r="S192" s="13"/>
       <c r="T192" s="13"/>
       <c r="U192" s="13"/>
       <c r="X192" s="5" t="s">
-        <v>18</v>
+        <v>456</v>
       </c>
       <c r="Y192" s="5"/>
       <c r="Z192" s="5"/>
@@ -10406,7 +10328,7 @@
       <c r="AE192" s="5"/>
       <c r="AF192" s="5"/>
       <c r="AI192" s="5" t="s">
-        <v>434</v>
+        <v>457</v>
       </c>
       <c r="AJ192" s="5"/>
       <c r="AK192" s="5"/>
@@ -10415,13 +10337,13 @@
       </c>
       <c r="AO192" s="5"/>
     </row>
-    <row r="193" spans="3:41" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:41" x14ac:dyDescent="0.2">
       <c r="C193" s="5" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="D193" s="5"/>
       <c r="F193" s="1" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="H193" s="5" t="s">
         <v>17</v>
@@ -10433,14 +10355,14 @@
       <c r="M193" s="5"/>
       <c r="N193" s="5"/>
       <c r="Q193" s="13">
-        <v>45540.713310185187</v>
+        <v>45016.436064814814</v>
       </c>
       <c r="R193" s="13"/>
       <c r="S193" s="13"/>
       <c r="T193" s="13"/>
       <c r="U193" s="13"/>
       <c r="X193" s="5" t="s">
-        <v>18</v>
+        <v>328</v>
       </c>
       <c r="Y193" s="5"/>
       <c r="Z193" s="5"/>
@@ -10451,7 +10373,7 @@
       <c r="AE193" s="5"/>
       <c r="AF193" s="5"/>
       <c r="AI193" s="5" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="AJ193" s="5"/>
       <c r="AK193" s="5"/>
@@ -10460,13 +10382,13 @@
       </c>
       <c r="AO193" s="5"/>
     </row>
-    <row r="194" spans="3:41" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:41" x14ac:dyDescent="0.2">
       <c r="C194" s="5" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="D194" s="5"/>
       <c r="F194" s="1" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="H194" s="5" t="s">
         <v>17</v>
@@ -10478,14 +10400,14 @@
       <c r="M194" s="5"/>
       <c r="N194" s="5"/>
       <c r="Q194" s="13">
-        <v>45519.60292824074</v>
+        <v>44978.472650462965</v>
       </c>
       <c r="R194" s="13"/>
       <c r="S194" s="13"/>
       <c r="T194" s="13"/>
       <c r="U194" s="13"/>
       <c r="X194" s="5" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="Y194" s="5"/>
       <c r="Z194" s="5"/>
@@ -10496,7 +10418,7 @@
       <c r="AE194" s="5"/>
       <c r="AF194" s="5"/>
       <c r="AI194" s="5" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="AJ194" s="5"/>
       <c r="AK194" s="5"/>
@@ -10505,13 +10427,13 @@
       </c>
       <c r="AO194" s="5"/>
     </row>
-    <row r="195" spans="3:41" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:41" x14ac:dyDescent="0.2">
       <c r="C195" s="5" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="D195" s="5"/>
       <c r="F195" s="1" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="H195" s="5" t="s">
         <v>17</v>
@@ -10523,14 +10445,14 @@
       <c r="M195" s="5"/>
       <c r="N195" s="5"/>
       <c r="Q195" s="13">
-        <v>45513.682962962965</v>
+        <v>43852.416597222225</v>
       </c>
       <c r="R195" s="13"/>
       <c r="S195" s="13"/>
       <c r="T195" s="13"/>
       <c r="U195" s="13"/>
       <c r="X195" s="5" t="s">
-        <v>18</v>
+        <v>467</v>
       </c>
       <c r="Y195" s="5"/>
       <c r="Z195" s="5"/>
@@ -10541,7 +10463,7 @@
       <c r="AE195" s="5"/>
       <c r="AF195" s="5"/>
       <c r="AI195" s="5" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="AJ195" s="5"/>
       <c r="AK195" s="5"/>
@@ -10550,13 +10472,13 @@
       </c>
       <c r="AO195" s="5"/>
     </row>
-    <row r="196" spans="3:41" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:41" x14ac:dyDescent="0.2">
       <c r="C196" s="5" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="D196" s="5"/>
       <c r="F196" s="1" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="H196" s="5" t="s">
         <v>17</v>
@@ -10568,14 +10490,14 @@
       <c r="M196" s="5"/>
       <c r="N196" s="5"/>
       <c r="Q196" s="13">
-        <v>45513.06931712963</v>
+        <v>43852.408703703702</v>
       </c>
       <c r="R196" s="13"/>
       <c r="S196" s="13"/>
       <c r="T196" s="13"/>
       <c r="U196" s="13"/>
       <c r="X196" s="5" t="s">
-        <v>18</v>
+        <v>467</v>
       </c>
       <c r="Y196" s="5"/>
       <c r="Z196" s="5"/>
@@ -10586,7 +10508,7 @@
       <c r="AE196" s="5"/>
       <c r="AF196" s="5"/>
       <c r="AI196" s="5" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="AJ196" s="5"/>
       <c r="AK196" s="5"/>
@@ -10595,13 +10517,13 @@
       </c>
       <c r="AO196" s="5"/>
     </row>
-    <row r="197" spans="3:41" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:41" x14ac:dyDescent="0.2">
       <c r="C197" s="5" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="D197" s="5"/>
       <c r="F197" s="1" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="H197" s="5" t="s">
         <v>17</v>
@@ -10613,14 +10535,14 @@
       <c r="M197" s="5"/>
       <c r="N197" s="5"/>
       <c r="Q197" s="13">
-        <v>45512.818796296298</v>
+        <v>43808.406458333331</v>
       </c>
       <c r="R197" s="13"/>
       <c r="S197" s="13"/>
       <c r="T197" s="13"/>
       <c r="U197" s="13"/>
       <c r="X197" s="5" t="s">
-        <v>211</v>
+        <v>473</v>
       </c>
       <c r="Y197" s="5"/>
       <c r="Z197" s="5"/>
@@ -10631,7 +10553,7 @@
       <c r="AE197" s="5"/>
       <c r="AF197" s="5"/>
       <c r="AI197" s="5" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="AJ197" s="5"/>
       <c r="AK197" s="5"/>
@@ -10640,13 +10562,13 @@
       </c>
       <c r="AO197" s="5"/>
     </row>
-    <row r="198" spans="3:41" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:41" x14ac:dyDescent="0.2">
       <c r="C198" s="5" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="D198" s="5"/>
       <c r="F198" s="1" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="H198" s="5" t="s">
         <v>17</v>
@@ -10658,14 +10580,14 @@
       <c r="M198" s="5"/>
       <c r="N198" s="5"/>
       <c r="Q198" s="13">
-        <v>45506.044224537036</v>
+        <v>43804.498483796298</v>
       </c>
       <c r="R198" s="13"/>
       <c r="S198" s="13"/>
       <c r="T198" s="13"/>
       <c r="U198" s="13"/>
       <c r="X198" s="5" t="s">
-        <v>142</v>
+        <v>477</v>
       </c>
       <c r="Y198" s="5"/>
       <c r="Z198" s="5"/>
@@ -10676,7 +10598,7 @@
       <c r="AE198" s="5"/>
       <c r="AF198" s="5"/>
       <c r="AI198" s="5" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="AJ198" s="5"/>
       <c r="AK198" s="5"/>
@@ -10685,751 +10607,88 @@
       </c>
       <c r="AO198" s="5"/>
     </row>
-    <row r="199" spans="3:41" x14ac:dyDescent="0.2">
-      <c r="C199" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="D199" s="5"/>
-      <c r="F199" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="H199" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I199" s="5"/>
-      <c r="J199" s="5"/>
-      <c r="K199" s="5"/>
-      <c r="L199" s="5"/>
-      <c r="M199" s="5"/>
-      <c r="N199" s="5"/>
-      <c r="Q199" s="13">
-        <v>45495.490486111114</v>
-      </c>
-      <c r="R199" s="13"/>
-      <c r="S199" s="13"/>
-      <c r="T199" s="13"/>
-      <c r="U199" s="13"/>
-      <c r="X199" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y199" s="5"/>
-      <c r="Z199" s="5"/>
-      <c r="AA199" s="5"/>
-      <c r="AB199" s="5"/>
-      <c r="AC199" s="5"/>
-      <c r="AD199" s="5"/>
-      <c r="AE199" s="5"/>
-      <c r="AF199" s="5"/>
-      <c r="AI199" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="AJ199" s="5"/>
-      <c r="AK199" s="5"/>
-      <c r="AN199" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO199" s="5"/>
-    </row>
-    <row r="200" spans="3:41" x14ac:dyDescent="0.2">
-      <c r="C200" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="D200" s="5"/>
-      <c r="F200" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="H200" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I200" s="5"/>
+    <row r="199" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="D200" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="E200" s="7"/>
+      <c r="F200" s="7"/>
+      <c r="I200" s="5" t="s">
+        <v>475</v>
+      </c>
       <c r="J200" s="5"/>
       <c r="K200" s="5"/>
       <c r="L200" s="5"/>
       <c r="M200" s="5"/>
       <c r="N200" s="5"/>
-      <c r="Q200" s="13">
-        <v>45491.943981481483</v>
-      </c>
-      <c r="R200" s="13"/>
-      <c r="S200" s="13"/>
-      <c r="T200" s="13"/>
-      <c r="U200" s="13"/>
-      <c r="X200" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y200" s="5"/>
-      <c r="Z200" s="5"/>
-      <c r="AA200" s="5"/>
-      <c r="AB200" s="5"/>
-      <c r="AC200" s="5"/>
-      <c r="AD200" s="5"/>
-      <c r="AE200" s="5"/>
-      <c r="AF200" s="5"/>
-      <c r="AI200" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="AJ200" s="5"/>
-      <c r="AK200" s="5"/>
-      <c r="AN200" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO200" s="5"/>
-    </row>
-    <row r="201" spans="3:41" x14ac:dyDescent="0.2">
-      <c r="C201" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="D201" s="5"/>
-      <c r="F201" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="H201" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I201" s="5"/>
-      <c r="J201" s="5"/>
-      <c r="K201" s="5"/>
-      <c r="L201" s="5"/>
-      <c r="M201" s="5"/>
-      <c r="N201" s="5"/>
-      <c r="Q201" s="13">
-        <v>45427.549143518518</v>
-      </c>
-      <c r="R201" s="13"/>
-      <c r="S201" s="13"/>
-      <c r="T201" s="13"/>
-      <c r="U201" s="13"/>
-      <c r="X201" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="Y201" s="5"/>
-      <c r="Z201" s="5"/>
-      <c r="AA201" s="5"/>
-      <c r="AB201" s="5"/>
-      <c r="AC201" s="5"/>
-      <c r="AD201" s="5"/>
-      <c r="AE201" s="5"/>
-      <c r="AF201" s="5"/>
-      <c r="AI201" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="AJ201" s="5"/>
-      <c r="AK201" s="5"/>
-      <c r="AN201" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO201" s="5"/>
-    </row>
-    <row r="202" spans="3:41" x14ac:dyDescent="0.2">
-      <c r="C202" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="D202" s="5"/>
-      <c r="F202" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="H202" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I202" s="5"/>
-      <c r="J202" s="5"/>
-      <c r="K202" s="5"/>
-      <c r="L202" s="5"/>
-      <c r="M202" s="5"/>
-      <c r="N202" s="5"/>
-      <c r="Q202" s="13">
-        <v>45427.540208333332</v>
-      </c>
-      <c r="R202" s="13"/>
-      <c r="S202" s="13"/>
-      <c r="T202" s="13"/>
-      <c r="U202" s="13"/>
-      <c r="X202" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="Y202" s="5"/>
-      <c r="Z202" s="5"/>
-      <c r="AA202" s="5"/>
-      <c r="AB202" s="5"/>
-      <c r="AC202" s="5"/>
-      <c r="AD202" s="5"/>
-      <c r="AE202" s="5"/>
-      <c r="AF202" s="5"/>
-      <c r="AI202" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="AJ202" s="5"/>
-      <c r="AK202" s="5"/>
-      <c r="AN202" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO202" s="5"/>
-    </row>
-    <row r="203" spans="3:41" x14ac:dyDescent="0.2">
-      <c r="C203" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="D203" s="5"/>
-      <c r="F203" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="H203" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I203" s="5"/>
-      <c r="J203" s="5"/>
-      <c r="K203" s="5"/>
-      <c r="L203" s="5"/>
-      <c r="M203" s="5"/>
-      <c r="N203" s="5"/>
-      <c r="Q203" s="13">
-        <v>45408.758298611108</v>
-      </c>
-      <c r="R203" s="13"/>
-      <c r="S203" s="13"/>
-      <c r="T203" s="13"/>
-      <c r="U203" s="13"/>
-      <c r="X203" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="Y203" s="5"/>
-      <c r="Z203" s="5"/>
-      <c r="AA203" s="5"/>
-      <c r="AB203" s="5"/>
-      <c r="AC203" s="5"/>
-      <c r="AD203" s="5"/>
-      <c r="AE203" s="5"/>
-      <c r="AF203" s="5"/>
-      <c r="AI203" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="AJ203" s="5"/>
-      <c r="AK203" s="5"/>
-      <c r="AN203" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO203" s="5"/>
-    </row>
-    <row r="204" spans="3:41" x14ac:dyDescent="0.2">
-      <c r="C204" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="D204" s="5"/>
-      <c r="F204" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="H204" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I204" s="5"/>
-      <c r="J204" s="5"/>
-      <c r="K204" s="5"/>
-      <c r="L204" s="5"/>
-      <c r="M204" s="5"/>
-      <c r="N204" s="5"/>
-      <c r="Q204" s="13">
-        <v>45408.739212962966</v>
-      </c>
-      <c r="R204" s="13"/>
-      <c r="S204" s="13"/>
-      <c r="T204" s="13"/>
-      <c r="U204" s="13"/>
-      <c r="X204" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="Y204" s="5"/>
-      <c r="Z204" s="5"/>
-      <c r="AA204" s="5"/>
-      <c r="AB204" s="5"/>
-      <c r="AC204" s="5"/>
-      <c r="AD204" s="5"/>
-      <c r="AE204" s="5"/>
-      <c r="AF204" s="5"/>
-      <c r="AI204" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="AJ204" s="5"/>
-      <c r="AK204" s="5"/>
-      <c r="AN204" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO204" s="5"/>
-    </row>
-    <row r="205" spans="3:41" x14ac:dyDescent="0.2">
-      <c r="C205" s="5" t="s">
+      <c r="O200" s="5"/>
+      <c r="P200" s="5"/>
+      <c r="Q200" s="5"/>
+      <c r="R200" s="5"/>
+    </row>
+    <row r="201" spans="2:41" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" spans="2:41" ht="409.6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" spans="2:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B204" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204" s="14"/>
+      <c r="D204" s="14"/>
+      <c r="E204" s="14"/>
+      <c r="F204" s="14"/>
+      <c r="G204" s="14"/>
+      <c r="H204" s="14"/>
+      <c r="I204" s="14"/>
+      <c r="J204" s="14"/>
+      <c r="K204" s="14"/>
+      <c r="L204" s="14"/>
+      <c r="N204" s="15" t="s">
         <v>480</v>
       </c>
-      <c r="D205" s="5"/>
-      <c r="F205" s="1" t="s">
+      <c r="O204" s="15"/>
+      <c r="P204" s="15"/>
+      <c r="Q204" s="15"/>
+      <c r="R204" s="15"/>
+      <c r="S204" s="15"/>
+      <c r="T204" s="15"/>
+      <c r="U204" s="15"/>
+      <c r="V204" s="15"/>
+      <c r="W204" s="15"/>
+      <c r="X204" s="15"/>
+      <c r="Y204" s="16">
+        <v>45632</v>
+      </c>
+      <c r="Z204" s="16"/>
+      <c r="AA204" s="16"/>
+      <c r="AB204" s="16"/>
+      <c r="AC204" s="16"/>
+      <c r="AD204" s="17">
+        <v>0.55060185185185184</v>
+      </c>
+      <c r="AE204" s="17"/>
+      <c r="AF204" s="17"/>
+      <c r="AH204" s="18" t="s">
         <v>481</v>
       </c>
-      <c r="H205" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I205" s="5"/>
-      <c r="J205" s="5"/>
-      <c r="K205" s="5"/>
-      <c r="L205" s="5"/>
-      <c r="M205" s="5"/>
-      <c r="N205" s="5"/>
-      <c r="Q205" s="13">
-        <v>45187.64508101852</v>
-      </c>
-      <c r="R205" s="13"/>
-      <c r="S205" s="13"/>
-      <c r="T205" s="13"/>
-      <c r="U205" s="13"/>
-      <c r="X205" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="Y205" s="5"/>
-      <c r="Z205" s="5"/>
-      <c r="AA205" s="5"/>
-      <c r="AB205" s="5"/>
-      <c r="AC205" s="5"/>
-      <c r="AD205" s="5"/>
-      <c r="AE205" s="5"/>
-      <c r="AF205" s="5"/>
-      <c r="AI205" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="AJ205" s="5"/>
-      <c r="AK205" s="5"/>
-      <c r="AN205" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO205" s="5"/>
-    </row>
-    <row r="206" spans="3:41" x14ac:dyDescent="0.2">
-      <c r="C206" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="D206" s="5"/>
-      <c r="F206" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="H206" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I206" s="5"/>
-      <c r="J206" s="5"/>
-      <c r="K206" s="5"/>
-      <c r="L206" s="5"/>
-      <c r="M206" s="5"/>
-      <c r="N206" s="5"/>
-      <c r="Q206" s="13">
-        <v>45016.436064814814</v>
-      </c>
-      <c r="R206" s="13"/>
-      <c r="S206" s="13"/>
-      <c r="T206" s="13"/>
-      <c r="U206" s="13"/>
-      <c r="X206" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="Y206" s="5"/>
-      <c r="Z206" s="5"/>
-      <c r="AA206" s="5"/>
-      <c r="AB206" s="5"/>
-      <c r="AC206" s="5"/>
-      <c r="AD206" s="5"/>
-      <c r="AE206" s="5"/>
-      <c r="AF206" s="5"/>
-      <c r="AI206" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="AJ206" s="5"/>
-      <c r="AK206" s="5"/>
-      <c r="AN206" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO206" s="5"/>
-    </row>
-    <row r="207" spans="3:41" x14ac:dyDescent="0.2">
-      <c r="C207" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="D207" s="5"/>
-      <c r="F207" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="H207" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I207" s="5"/>
-      <c r="J207" s="5"/>
-      <c r="K207" s="5"/>
-      <c r="L207" s="5"/>
-      <c r="M207" s="5"/>
-      <c r="N207" s="5"/>
-      <c r="Q207" s="13">
-        <v>44978.472650462965</v>
-      </c>
-      <c r="R207" s="13"/>
-      <c r="S207" s="13"/>
-      <c r="T207" s="13"/>
-      <c r="U207" s="13"/>
-      <c r="X207" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="Y207" s="5"/>
-      <c r="Z207" s="5"/>
-      <c r="AA207" s="5"/>
-      <c r="AB207" s="5"/>
-      <c r="AC207" s="5"/>
-      <c r="AD207" s="5"/>
-      <c r="AE207" s="5"/>
-      <c r="AF207" s="5"/>
-      <c r="AI207" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="AJ207" s="5"/>
-      <c r="AK207" s="5"/>
-      <c r="AN207" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO207" s="5"/>
-    </row>
-    <row r="208" spans="3:41" x14ac:dyDescent="0.2">
-      <c r="C208" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="D208" s="5"/>
-      <c r="F208" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="H208" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I208" s="5"/>
-      <c r="J208" s="5"/>
-      <c r="K208" s="5"/>
-      <c r="L208" s="5"/>
-      <c r="M208" s="5"/>
-      <c r="N208" s="5"/>
-      <c r="Q208" s="13">
-        <v>43852.416597222225</v>
-      </c>
-      <c r="R208" s="13"/>
-      <c r="S208" s="13"/>
-      <c r="T208" s="13"/>
-      <c r="U208" s="13"/>
-      <c r="X208" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="Y208" s="5"/>
-      <c r="Z208" s="5"/>
-      <c r="AA208" s="5"/>
-      <c r="AB208" s="5"/>
-      <c r="AC208" s="5"/>
-      <c r="AD208" s="5"/>
-      <c r="AE208" s="5"/>
-      <c r="AF208" s="5"/>
-      <c r="AI208" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="AJ208" s="5"/>
-      <c r="AK208" s="5"/>
-      <c r="AN208" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO208" s="5"/>
-    </row>
-    <row r="209" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="C209" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="D209" s="5"/>
-      <c r="F209" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="H209" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I209" s="5"/>
-      <c r="J209" s="5"/>
-      <c r="K209" s="5"/>
-      <c r="L209" s="5"/>
-      <c r="M209" s="5"/>
-      <c r="N209" s="5"/>
-      <c r="Q209" s="13">
-        <v>43852.408703703702</v>
-      </c>
-      <c r="R209" s="13"/>
-      <c r="S209" s="13"/>
-      <c r="T209" s="13"/>
-      <c r="U209" s="13"/>
-      <c r="X209" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="Y209" s="5"/>
-      <c r="Z209" s="5"/>
-      <c r="AA209" s="5"/>
-      <c r="AB209" s="5"/>
-      <c r="AC209" s="5"/>
-      <c r="AD209" s="5"/>
-      <c r="AE209" s="5"/>
-      <c r="AF209" s="5"/>
-      <c r="AI209" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="AJ209" s="5"/>
-      <c r="AK209" s="5"/>
-      <c r="AN209" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO209" s="5"/>
-    </row>
-    <row r="210" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="C210" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="D210" s="5"/>
-      <c r="F210" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="H210" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I210" s="5"/>
-      <c r="J210" s="5"/>
-      <c r="K210" s="5"/>
-      <c r="L210" s="5"/>
-      <c r="M210" s="5"/>
-      <c r="N210" s="5"/>
-      <c r="Q210" s="13">
-        <v>43808.406458333331</v>
-      </c>
-      <c r="R210" s="13"/>
-      <c r="S210" s="13"/>
-      <c r="T210" s="13"/>
-      <c r="U210" s="13"/>
-      <c r="X210" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="Y210" s="5"/>
-      <c r="Z210" s="5"/>
-      <c r="AA210" s="5"/>
-      <c r="AB210" s="5"/>
-      <c r="AC210" s="5"/>
-      <c r="AD210" s="5"/>
-      <c r="AE210" s="5"/>
-      <c r="AF210" s="5"/>
-      <c r="AI210" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="AJ210" s="5"/>
-      <c r="AK210" s="5"/>
-      <c r="AN210" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO210" s="5"/>
-    </row>
-    <row r="211" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="C211" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="D211" s="5"/>
-      <c r="F211" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="H211" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I211" s="5"/>
-      <c r="J211" s="5"/>
-      <c r="K211" s="5"/>
-      <c r="L211" s="5"/>
-      <c r="M211" s="5"/>
-      <c r="N211" s="5"/>
-      <c r="Q211" s="13">
-        <v>43804.498483796298</v>
-      </c>
-      <c r="R211" s="13"/>
-      <c r="S211" s="13"/>
-      <c r="T211" s="13"/>
-      <c r="U211" s="13"/>
-      <c r="X211" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="Y211" s="5"/>
-      <c r="Z211" s="5"/>
-      <c r="AA211" s="5"/>
-      <c r="AB211" s="5"/>
-      <c r="AC211" s="5"/>
-      <c r="AD211" s="5"/>
-      <c r="AE211" s="5"/>
-      <c r="AF211" s="5"/>
-      <c r="AI211" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="AJ211" s="5"/>
-      <c r="AK211" s="5"/>
-      <c r="AN211" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO211" s="5"/>
-    </row>
-    <row r="212" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="D213" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="E213" s="7"/>
-      <c r="F213" s="7"/>
-      <c r="I213" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="J213" s="5"/>
-      <c r="K213" s="5"/>
-      <c r="L213" s="5"/>
-      <c r="M213" s="5"/>
-      <c r="N213" s="5"/>
-      <c r="O213" s="5"/>
-      <c r="P213" s="5"/>
-      <c r="Q213" s="5"/>
-      <c r="R213" s="5"/>
-    </row>
-    <row r="214" spans="2:41" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" spans="2:41" ht="367.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" spans="2:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B217" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C217" s="14"/>
-      <c r="D217" s="14"/>
-      <c r="E217" s="14"/>
-      <c r="F217" s="14"/>
-      <c r="G217" s="14"/>
-      <c r="H217" s="14"/>
-      <c r="I217" s="14"/>
-      <c r="J217" s="14"/>
-      <c r="K217" s="14"/>
-      <c r="L217" s="14"/>
-      <c r="N217" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="O217" s="15"/>
-      <c r="P217" s="15"/>
-      <c r="Q217" s="15"/>
-      <c r="R217" s="15"/>
-      <c r="S217" s="15"/>
-      <c r="T217" s="15"/>
-      <c r="U217" s="15"/>
-      <c r="V217" s="15"/>
-      <c r="W217" s="15"/>
-      <c r="X217" s="15"/>
-      <c r="Y217" s="16">
-        <v>45630</v>
-      </c>
-      <c r="Z217" s="16"/>
-      <c r="AA217" s="16"/>
-      <c r="AB217" s="16"/>
-      <c r="AC217" s="16"/>
-      <c r="AD217" s="17">
-        <v>0.72310185185185183</v>
-      </c>
-      <c r="AE217" s="17"/>
-      <c r="AF217" s="17"/>
-      <c r="AH217" s="18" t="s">
-        <v>507</v>
-      </c>
-      <c r="AI217" s="18"/>
-      <c r="AJ217" s="18"/>
-      <c r="AK217" s="18"/>
-      <c r="AL217" s="18"/>
-      <c r="AM217" s="18"/>
-      <c r="AN217" s="18"/>
-    </row>
-    <row r="218" spans="2:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="AI204" s="18"/>
+      <c r="AJ204" s="18"/>
+      <c r="AK204" s="18"/>
+      <c r="AL204" s="18"/>
+      <c r="AM204" s="18"/>
+      <c r="AN204" s="18"/>
+    </row>
+    <row r="205" spans="2:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="1193">
-    <mergeCell ref="AH217:AN217"/>
-    <mergeCell ref="D213:F213"/>
-    <mergeCell ref="I213:R213"/>
-    <mergeCell ref="B217:L217"/>
-    <mergeCell ref="N217:X217"/>
-    <mergeCell ref="Y217:AC217"/>
-    <mergeCell ref="AD217:AF217"/>
-    <mergeCell ref="C211:D211"/>
-    <mergeCell ref="H211:N211"/>
-    <mergeCell ref="Q211:U211"/>
-    <mergeCell ref="X211:AF211"/>
-    <mergeCell ref="AI211:AK211"/>
-    <mergeCell ref="AN211:AO211"/>
-    <mergeCell ref="C210:D210"/>
-    <mergeCell ref="H210:N210"/>
-    <mergeCell ref="Q210:U210"/>
-    <mergeCell ref="X210:AF210"/>
-    <mergeCell ref="AI210:AK210"/>
-    <mergeCell ref="AN210:AO210"/>
-    <mergeCell ref="C209:D209"/>
-    <mergeCell ref="H209:N209"/>
-    <mergeCell ref="Q209:U209"/>
-    <mergeCell ref="X209:AF209"/>
-    <mergeCell ref="AI209:AK209"/>
-    <mergeCell ref="AN209:AO209"/>
-    <mergeCell ref="C208:D208"/>
-    <mergeCell ref="H208:N208"/>
-    <mergeCell ref="Q208:U208"/>
-    <mergeCell ref="X208:AF208"/>
-    <mergeCell ref="AI208:AK208"/>
-    <mergeCell ref="AN208:AO208"/>
-    <mergeCell ref="C207:D207"/>
-    <mergeCell ref="H207:N207"/>
-    <mergeCell ref="Q207:U207"/>
-    <mergeCell ref="X207:AF207"/>
-    <mergeCell ref="AI207:AK207"/>
-    <mergeCell ref="AN207:AO207"/>
-    <mergeCell ref="C206:D206"/>
-    <mergeCell ref="H206:N206"/>
-    <mergeCell ref="Q206:U206"/>
-    <mergeCell ref="X206:AF206"/>
-    <mergeCell ref="AI206:AK206"/>
-    <mergeCell ref="AN206:AO206"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="H205:N205"/>
-    <mergeCell ref="Q205:U205"/>
-    <mergeCell ref="X205:AF205"/>
-    <mergeCell ref="AI205:AK205"/>
-    <mergeCell ref="AN205:AO205"/>
-    <mergeCell ref="C204:D204"/>
-    <mergeCell ref="H204:N204"/>
-    <mergeCell ref="Q204:U204"/>
-    <mergeCell ref="X204:AF204"/>
-    <mergeCell ref="AI204:AK204"/>
-    <mergeCell ref="AN204:AO204"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="H203:N203"/>
-    <mergeCell ref="Q203:U203"/>
-    <mergeCell ref="X203:AF203"/>
-    <mergeCell ref="AI203:AK203"/>
-    <mergeCell ref="AN203:AO203"/>
-    <mergeCell ref="C202:D202"/>
-    <mergeCell ref="H202:N202"/>
-    <mergeCell ref="Q202:U202"/>
-    <mergeCell ref="X202:AF202"/>
-    <mergeCell ref="AI202:AK202"/>
-    <mergeCell ref="AN202:AO202"/>
-    <mergeCell ref="C201:D201"/>
-    <mergeCell ref="H201:N201"/>
-    <mergeCell ref="Q201:U201"/>
-    <mergeCell ref="X201:AF201"/>
-    <mergeCell ref="AI201:AK201"/>
-    <mergeCell ref="AN201:AO201"/>
-    <mergeCell ref="C200:D200"/>
-    <mergeCell ref="H200:N200"/>
-    <mergeCell ref="Q200:U200"/>
-    <mergeCell ref="X200:AF200"/>
-    <mergeCell ref="AI200:AK200"/>
-    <mergeCell ref="AN200:AO200"/>
-    <mergeCell ref="C199:D199"/>
-    <mergeCell ref="H199:N199"/>
-    <mergeCell ref="Q199:U199"/>
-    <mergeCell ref="X199:AF199"/>
-    <mergeCell ref="AI199:AK199"/>
-    <mergeCell ref="AN199:AO199"/>
+  <mergeCells count="1115">
+    <mergeCell ref="AH204:AN204"/>
+    <mergeCell ref="D200:F200"/>
+    <mergeCell ref="I200:R200"/>
+    <mergeCell ref="B204:L204"/>
+    <mergeCell ref="N204:X204"/>
+    <mergeCell ref="Y204:AC204"/>
+    <mergeCell ref="AD204:AF204"/>
     <mergeCell ref="C198:D198"/>
     <mergeCell ref="H198:N198"/>
     <mergeCell ref="Q198:U198"/>
@@ -12539,7 +11798,7 @@
     <mergeCell ref="Z9:AA9"/>
     <mergeCell ref="AC9:AD9"/>
   </mergeCells>
-  <pageMargins left="0.15694444444444444" right="0.15833333333333333" top="0.15694444444444444" bottom="0.15833333333333333" header="0" footer="0"/>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="0" scale="0" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>

--- a/manejo_reportes/SOL/SOLPEND.xlsx
+++ b/manejo_reportes/SOL/SOLPEND.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nueva carpeta\dashboard_operaciones\manejo_reportes\SOL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nueva carpeta\dashboard_operaciones\manejo_reportes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED8750BF-A174-4D9B-9AD1-3984FBE9F4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2C896AB-B782-4F26-A983-5D02D579AB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15930" yWindow="7215" windowWidth="21600" windowHeight="11295" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="478">
   <si>
     <t>SUPERINTENDENCIA NACIONAL DE MIGRACIONES</t>
   </si>
@@ -740,727 +740,715 @@
     <t>94</t>
   </si>
   <si>
-    <t>LM240395365</t>
+    <t>LM240395293</t>
   </si>
   <si>
     <t>95</t>
   </si>
   <si>
-    <t>LM240395362</t>
+    <t>LM240395292</t>
+  </si>
+  <si>
+    <t>28/11/2024 14:55:03</t>
   </si>
   <si>
     <t>96</t>
   </si>
   <si>
-    <t>LM240395293</t>
+    <t>LM240395239</t>
   </si>
   <si>
     <t>97</t>
   </si>
   <si>
-    <t>LM240395292</t>
-  </si>
-  <si>
-    <t>28/11/2024 14:55:03</t>
+    <t>LM240394858</t>
   </si>
   <si>
     <t>98</t>
   </si>
   <si>
-    <t>LM240395239</t>
+    <t>LM240394790</t>
+  </si>
+  <si>
+    <t>27/11/2024 14:30:02</t>
   </si>
   <si>
     <t>99</t>
   </si>
   <si>
-    <t>LM240394858</t>
+    <t>LM240394737</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>LM240394790</t>
-  </si>
-  <si>
-    <t>27/11/2024 14:30:02</t>
+    <t>LM240394477</t>
   </si>
   <si>
     <t>101</t>
   </si>
   <si>
-    <t>LM240394737</t>
+    <t>IU240003225</t>
+  </si>
+  <si>
+    <t>Icomedes García Jorge Miguel Jossemair B</t>
+  </si>
+  <si>
+    <t>27/11/2024 09:37:05</t>
   </si>
   <si>
     <t>102</t>
   </si>
   <si>
-    <t>LM240394477</t>
+    <t>LM240393313</t>
+  </si>
+  <si>
+    <t>25/11/2024 11:25:07</t>
   </si>
   <si>
     <t>103</t>
   </si>
   <si>
-    <t>IU240003225</t>
-  </si>
-  <si>
-    <t>Icomedes García Jorge Miguel Jossemair B</t>
-  </si>
-  <si>
-    <t>27/11/2024 09:37:05</t>
+    <t>LM240392425</t>
   </si>
   <si>
     <t>104</t>
   </si>
   <si>
-    <t>LM240393313</t>
-  </si>
-  <si>
-    <t>25/11/2024 11:25:07</t>
+    <t>LM240391862</t>
   </si>
   <si>
     <t>105</t>
   </si>
   <si>
-    <t>LM240392425</t>
+    <t>LM240391845</t>
   </si>
   <si>
     <t>106</t>
   </si>
   <si>
-    <t>LM240391862</t>
+    <t>LM240390664</t>
+  </si>
+  <si>
+    <t>25/11/2024 11:22:42</t>
   </si>
   <si>
     <t>107</t>
   </si>
   <si>
-    <t>LM240391845</t>
+    <t>LM240390472</t>
   </si>
   <si>
     <t>108</t>
   </si>
   <si>
-    <t>LM240390664</t>
-  </si>
-  <si>
-    <t>25/11/2024 11:22:42</t>
+    <t>LM240389928</t>
   </si>
   <si>
     <t>109</t>
   </si>
   <si>
-    <t>LM240390472</t>
+    <t>LM240389698</t>
   </si>
   <si>
     <t>110</t>
   </si>
   <si>
-    <t>LM240389928</t>
+    <t>LM240388981</t>
   </si>
   <si>
     <t>111</t>
   </si>
   <si>
-    <t>LM240389698</t>
+    <t>LM240388149</t>
+  </si>
+  <si>
+    <t>22/11/2024 16:47:51</t>
   </si>
   <si>
     <t>112</t>
   </si>
   <si>
-    <t>LM240388981</t>
+    <t>LM240387180</t>
+  </si>
+  <si>
+    <t>20/11/2024 15:37:50</t>
   </si>
   <si>
     <t>113</t>
   </si>
   <si>
-    <t>LM240388149</t>
-  </si>
-  <si>
-    <t>22/11/2024 16:47:51</t>
+    <t>LM240386807</t>
   </si>
   <si>
     <t>114</t>
   </si>
   <si>
-    <t>LM240387180</t>
-  </si>
-  <si>
-    <t>20/11/2024 15:37:50</t>
+    <t>LM240386537</t>
+  </si>
+  <si>
+    <t>20/11/2024 10:12:58</t>
   </si>
   <si>
     <t>115</t>
   </si>
   <si>
-    <t>LM240386807</t>
+    <t>LM240386069</t>
   </si>
   <si>
     <t>116</t>
   </si>
   <si>
-    <t>LM240386537</t>
-  </si>
-  <si>
-    <t>20/11/2024 10:12:58</t>
+    <t>LM240386050</t>
   </si>
   <si>
     <t>117</t>
   </si>
   <si>
-    <t>LM240386069</t>
+    <t>LM240386038</t>
   </si>
   <si>
     <t>118</t>
   </si>
   <si>
-    <t>LM240386050</t>
+    <t>LM240386022</t>
   </si>
   <si>
     <t>119</t>
   </si>
   <si>
-    <t>LM240386038</t>
+    <t>LM240385984</t>
   </si>
   <si>
     <t>120</t>
   </si>
   <si>
-    <t>LM240386022</t>
+    <t>LM240385869</t>
   </si>
   <si>
     <t>121</t>
   </si>
   <si>
-    <t>LM240385984</t>
+    <t>LM240385412</t>
   </si>
   <si>
     <t>122</t>
   </si>
   <si>
-    <t>LM240385869</t>
+    <t>LM240383874</t>
   </si>
   <si>
     <t>123</t>
   </si>
   <si>
-    <t>LM240385412</t>
+    <t>TC240021408</t>
+  </si>
+  <si>
+    <t>Pretel Carrasco, Alexander Jesus</t>
+  </si>
+  <si>
+    <t>19/11/2024 12:08:10</t>
   </si>
   <si>
     <t>124</t>
   </si>
   <si>
-    <t>LM240383874</t>
+    <t>AQ240017548</t>
+  </si>
+  <si>
+    <t>18/11/2024 09:35:48</t>
   </si>
   <si>
     <t>125</t>
   </si>
   <si>
-    <t>TC240021408</t>
-  </si>
-  <si>
-    <t>Pretel Carrasco, Alexander Jesus</t>
-  </si>
-  <si>
-    <t>19/11/2024 12:08:10</t>
+    <t>LM240381505</t>
+  </si>
+  <si>
+    <t>19/11/2024 18:08:10</t>
   </si>
   <si>
     <t>126</t>
   </si>
   <si>
-    <t>AQ240017548</t>
-  </si>
-  <si>
-    <t>18/11/2024 09:35:48</t>
+    <t>TC240021272</t>
+  </si>
+  <si>
+    <t>15/11/2024 15:50:52</t>
   </si>
   <si>
     <t>127</t>
   </si>
   <si>
-    <t>LM240381505</t>
-  </si>
-  <si>
-    <t>19/11/2024 18:08:10</t>
+    <t>LM240381205</t>
+  </si>
+  <si>
+    <t>18/11/2024 09:46:56</t>
   </si>
   <si>
     <t>128</t>
   </si>
   <si>
-    <t>TC240021272</t>
-  </si>
-  <si>
-    <t>15/11/2024 15:50:52</t>
+    <t>IU240003105</t>
   </si>
   <si>
     <t>129</t>
   </si>
   <si>
-    <t>LM240381205</t>
-  </si>
-  <si>
-    <t>18/11/2024 09:46:56</t>
+    <t>LM240379091</t>
+  </si>
+  <si>
+    <t>13/11/2024 08:38:31</t>
   </si>
   <si>
     <t>130</t>
   </si>
   <si>
-    <t>IU240003105</t>
+    <t>PC240004081</t>
+  </si>
+  <si>
+    <t>Martinez Romero, José Mauricio</t>
+  </si>
+  <si>
+    <t>13/11/2024 14:50:45</t>
   </si>
   <si>
     <t>131</t>
   </si>
   <si>
-    <t>LM240379091</t>
-  </si>
-  <si>
-    <t>13/11/2024 08:38:31</t>
+    <t>CY240029838</t>
+  </si>
+  <si>
+    <t>Dulanto Coronado, Vanessa Lisset</t>
+  </si>
+  <si>
+    <t>14/11/2024 10:22:29</t>
   </si>
   <si>
     <t>132</t>
   </si>
   <si>
-    <t>PC240004081</t>
-  </si>
-  <si>
-    <t>Martinez Romero, José Mauricio</t>
-  </si>
-  <si>
-    <t>13/11/2024 14:50:45</t>
+    <t>LM240375919</t>
+  </si>
+  <si>
+    <t>11/11/2024 16:27:52</t>
   </si>
   <si>
     <t>133</t>
   </si>
   <si>
-    <t>CY240029838</t>
-  </si>
-  <si>
-    <t>Dulanto Coronado, Vanessa Lisset</t>
-  </si>
-  <si>
-    <t>14/11/2024 10:22:29</t>
+    <t>LM240374606</t>
+  </si>
+  <si>
+    <t>11/11/2024 15:27:36</t>
   </si>
   <si>
     <t>134</t>
   </si>
   <si>
-    <t>LM240375919</t>
-  </si>
-  <si>
-    <t>11/11/2024 16:27:52</t>
+    <t>LM240374599</t>
   </si>
   <si>
     <t>135</t>
   </si>
   <si>
-    <t>LM240374606</t>
-  </si>
-  <si>
-    <t>11/11/2024 15:27:36</t>
+    <t>CY240029637</t>
   </si>
   <si>
     <t>136</t>
   </si>
   <si>
-    <t>LM240374599</t>
+    <t>LM240368874</t>
+  </si>
+  <si>
+    <t>11/11/2024 12:43:41</t>
   </si>
   <si>
     <t>137</t>
   </si>
   <si>
-    <t>CY240029637</t>
+    <t>IL240001539</t>
+  </si>
+  <si>
+    <t>Cortez Gutierrez, Bruno Leonel</t>
+  </si>
+  <si>
+    <t>21/11/2024 09:36:02</t>
   </si>
   <si>
     <t>138</t>
   </si>
   <si>
-    <t>LM240368874</t>
-  </si>
-  <si>
-    <t>11/11/2024 12:43:41</t>
+    <t>CY240029030</t>
+  </si>
+  <si>
+    <t>Asenjo Valderrama, Leoncio</t>
+  </si>
+  <si>
+    <t>14/11/2024 10:28:55</t>
   </si>
   <si>
     <t>139</t>
   </si>
   <si>
-    <t>IL240001539</t>
-  </si>
-  <si>
-    <t>Cortez Gutierrez, Bruno Leonel</t>
-  </si>
-  <si>
-    <t>21/11/2024 09:36:02</t>
+    <t>PA240005530</t>
+  </si>
+  <si>
+    <t>21/11/2024 09:14:57</t>
   </si>
   <si>
     <t>140</t>
   </si>
   <si>
-    <t>CY240029030</t>
-  </si>
-  <si>
-    <t>Asenjo Valderrama, Leoncio</t>
-  </si>
-  <si>
-    <t>14/11/2024 10:28:55</t>
+    <t>LM240359910</t>
+  </si>
+  <si>
+    <t>04/11/2024 12:21:36</t>
   </si>
   <si>
     <t>141</t>
   </si>
   <si>
-    <t>PA240005530</t>
-  </si>
-  <si>
-    <t>21/11/2024 09:14:57</t>
+    <t>LM240359780</t>
   </si>
   <si>
     <t>142</t>
   </si>
   <si>
-    <t>LM240359910</t>
-  </si>
-  <si>
-    <t>04/11/2024 12:21:36</t>
+    <t>LM240359217</t>
   </si>
   <si>
     <t>143</t>
   </si>
   <si>
-    <t>LM240359780</t>
+    <t>LM240355606</t>
+  </si>
+  <si>
+    <t>30/10/2024 11:12:11</t>
   </si>
   <si>
     <t>144</t>
   </si>
   <si>
-    <t>LM240359217</t>
+    <t>LM240350484</t>
+  </si>
+  <si>
+    <t>28/10/2024 12:02:24</t>
   </si>
   <si>
     <t>145</t>
   </si>
   <si>
-    <t>LM240355606</t>
-  </si>
-  <si>
-    <t>30/10/2024 11:12:11</t>
+    <t>CS240023339</t>
+  </si>
+  <si>
+    <t>24/10/2024 08:19:07</t>
   </si>
   <si>
     <t>146</t>
   </si>
   <si>
-    <t>LM240350484</t>
-  </si>
-  <si>
-    <t>28/10/2024 12:02:24</t>
+    <t>LM240348853</t>
+  </si>
+  <si>
+    <t>23/10/2024 12:03:10</t>
   </si>
   <si>
     <t>147</t>
   </si>
   <si>
-    <t>CS240023339</t>
-  </si>
-  <si>
-    <t>24/10/2024 08:19:07</t>
+    <t>LM240347630</t>
   </si>
   <si>
     <t>148</t>
   </si>
   <si>
-    <t>LM240348853</t>
-  </si>
-  <si>
-    <t>23/10/2024 12:03:10</t>
+    <t>LM240346507</t>
   </si>
   <si>
     <t>149</t>
   </si>
   <si>
-    <t>LM240347630</t>
+    <t>LM240342718</t>
+  </si>
+  <si>
+    <t>24/10/2024 10:55:10</t>
   </si>
   <si>
     <t>150</t>
   </si>
   <si>
-    <t>LM240346507</t>
+    <t>LM240341397</t>
+  </si>
+  <si>
+    <t>17/10/2024 12:10:43</t>
   </si>
   <si>
     <t>151</t>
   </si>
   <si>
-    <t>LM240342718</t>
-  </si>
-  <si>
-    <t>24/10/2024 10:55:10</t>
+    <t>LM240339264</t>
   </si>
   <si>
     <t>152</t>
   </si>
   <si>
-    <t>LM240341397</t>
-  </si>
-  <si>
-    <t>17/10/2024 12:10:43</t>
+    <t>LM240334846</t>
+  </si>
+  <si>
+    <t>24/10/2024 11:04:52</t>
   </si>
   <si>
     <t>153</t>
   </si>
   <si>
-    <t>LM240339264</t>
+    <t>LM240334427</t>
   </si>
   <si>
     <t>154</t>
   </si>
   <si>
-    <t>LM240334846</t>
-  </si>
-  <si>
-    <t>24/10/2024 11:04:52</t>
+    <t>AQ240014796</t>
+  </si>
+  <si>
+    <t>09/10/2024 11:44:01</t>
   </si>
   <si>
     <t>155</t>
   </si>
   <si>
-    <t>LM240334427</t>
+    <t>CS240022268</t>
+  </si>
+  <si>
+    <t>------------</t>
   </si>
   <si>
     <t>156</t>
   </si>
   <si>
-    <t>AQ240014796</t>
-  </si>
-  <si>
-    <t>09/10/2024 11:44:01</t>
+    <t>LM240331753</t>
   </si>
   <si>
     <t>157</t>
   </si>
   <si>
-    <t>CS240022268</t>
-  </si>
-  <si>
-    <t>------------</t>
+    <t>CM240020118</t>
+  </si>
+  <si>
+    <t>Robles Cantinett, Elayne Florinda</t>
+  </si>
+  <si>
+    <t>19/11/2024 09:09:26</t>
   </si>
   <si>
     <t>158</t>
   </si>
   <si>
-    <t>LM240331753</t>
+    <t>LM240316588</t>
+  </si>
+  <si>
+    <t>20/09/2024 16:32:29</t>
   </si>
   <si>
     <t>159</t>
   </si>
   <si>
-    <t>CM240020118</t>
-  </si>
-  <si>
-    <t>Robles Cantinett, Elayne Florinda</t>
-  </si>
-  <si>
-    <t>19/11/2024 09:09:26</t>
+    <t>LM240312815</t>
+  </si>
+  <si>
+    <t>18/09/2024 08:52:14</t>
   </si>
   <si>
     <t>160</t>
   </si>
   <si>
-    <t>LM240316588</t>
-  </si>
-  <si>
-    <t>20/09/2024 16:32:29</t>
+    <t>AQ240013391</t>
+  </si>
+  <si>
+    <t>Pumacayo Quispe, César Alfredo</t>
+  </si>
+  <si>
+    <t>25/09/2024 16:55:07</t>
   </si>
   <si>
     <t>161</t>
   </si>
   <si>
-    <t>LM240312815</t>
-  </si>
-  <si>
-    <t>18/09/2024 08:52:14</t>
+    <t>LM240302177</t>
+  </si>
+  <si>
+    <t>10/09/2024 15:06:54</t>
   </si>
   <si>
     <t>162</t>
   </si>
   <si>
-    <t>AQ240013391</t>
-  </si>
-  <si>
-    <t>Pumacayo Quispe, César Alfredo</t>
-  </si>
-  <si>
-    <t>25/09/2024 16:55:07</t>
+    <t>LM240300939</t>
   </si>
   <si>
     <t>163</t>
   </si>
   <si>
-    <t>LM240302177</t>
-  </si>
-  <si>
-    <t>10/09/2024 15:06:54</t>
+    <t>TS240009969</t>
+  </si>
+  <si>
+    <t>Ramirez Rios, Alberto Segundo</t>
+  </si>
+  <si>
+    <t>21/10/2024 16:22:27</t>
   </si>
   <si>
     <t>164</t>
   </si>
   <si>
-    <t>LM240300939</t>
+    <t>LM240272989</t>
+  </si>
+  <si>
+    <t>27/08/2024 10:04:38</t>
   </si>
   <si>
     <t>165</t>
   </si>
   <si>
-    <t>TS240009969</t>
-  </si>
-  <si>
-    <t>Ramirez Rios, Alberto Segundo</t>
-  </si>
-  <si>
-    <t>21/10/2024 16:22:27</t>
+    <t>LM240272254</t>
+  </si>
+  <si>
+    <t>27/08/2024 10:26:02</t>
   </si>
   <si>
     <t>166</t>
   </si>
   <si>
-    <t>LM240272989</t>
-  </si>
-  <si>
-    <t>27/08/2024 10:04:38</t>
+    <t>CS240018732</t>
+  </si>
+  <si>
+    <t>24/09/2024 09:00:00</t>
   </si>
   <si>
     <t>167</t>
   </si>
   <si>
-    <t>LM240272254</t>
-  </si>
-  <si>
-    <t>27/08/2024 10:26:02</t>
+    <t>LM240264765</t>
+  </si>
+  <si>
+    <t>27/08/2024 10:57:57</t>
   </si>
   <si>
     <t>168</t>
   </si>
   <si>
-    <t>CS240018732</t>
-  </si>
-  <si>
-    <t>24/09/2024 09:00:00</t>
+    <t>LM240253934</t>
+  </si>
+  <si>
+    <t>24/07/2024 16:41:26</t>
   </si>
   <si>
     <t>169</t>
   </si>
   <si>
-    <t>LM240264765</t>
-  </si>
-  <si>
-    <t>27/08/2024 10:57:57</t>
+    <t>LM240250971</t>
   </si>
   <si>
     <t>170</t>
   </si>
   <si>
-    <t>LM240253934</t>
-  </si>
-  <si>
-    <t>24/07/2024 16:41:26</t>
+    <t>HA240011007</t>
+  </si>
+  <si>
+    <t>Guillen Riveros, Cledy</t>
+  </si>
+  <si>
+    <t>25/06/2024 09:30:16</t>
   </si>
   <si>
     <t>171</t>
   </si>
   <si>
-    <t>LM240250971</t>
+    <t>HA240011006</t>
   </si>
   <si>
     <t>172</t>
   </si>
   <si>
-    <t>HA240011007</t>
-  </si>
-  <si>
-    <t>Guillen Riveros, Cledy</t>
-  </si>
-  <si>
-    <t>25/06/2024 09:30:16</t>
+    <t>CS240012075</t>
+  </si>
+  <si>
+    <t>Quispe Toccas, Zaida Janet</t>
+  </si>
+  <si>
+    <t>30/04/2024 08:55:27</t>
   </si>
   <si>
     <t>173</t>
   </si>
   <si>
-    <t>HA240011006</t>
+    <t>CS240012072</t>
   </si>
   <si>
     <t>174</t>
   </si>
   <si>
-    <t>CS240012075</t>
-  </si>
-  <si>
-    <t>Quispe Toccas, Zaida Janet</t>
-  </si>
-  <si>
-    <t>30/04/2024 08:55:27</t>
+    <t>AL230002606</t>
+  </si>
+  <si>
+    <t>Salazar Mendoza, Diana Karina</t>
+  </si>
+  <si>
+    <t>29/09/2023 14:30:20</t>
   </si>
   <si>
     <t>175</t>
   </si>
   <si>
-    <t>CS240012072</t>
+    <t>PC230001202</t>
+  </si>
+  <si>
+    <t>26/02/2024 15:21:22</t>
   </si>
   <si>
     <t>176</t>
   </si>
   <si>
-    <t>AL230002606</t>
-  </si>
-  <si>
-    <t>Salazar Mendoza, Diana Karina</t>
-  </si>
-  <si>
-    <t>29/09/2023 14:30:20</t>
+    <t>TC230002629</t>
+  </si>
+  <si>
+    <t>Flores Valdez, Melissa Del Rosario</t>
+  </si>
+  <si>
+    <t>05/01/2024 16:14:50</t>
   </si>
   <si>
     <t>177</t>
   </si>
   <si>
-    <t>PC230001202</t>
-  </si>
-  <si>
-    <t>26/02/2024 15:21:22</t>
+    <t>MR200017499</t>
+  </si>
+  <si>
+    <t>Antón Paredes, María Teresa</t>
+  </si>
+  <si>
+    <t>29/01/2020 21:00:45</t>
   </si>
   <si>
     <t>178</t>
   </si>
   <si>
-    <t>TC230002629</t>
-  </si>
-  <si>
-    <t>Flores Valdez, Melissa Del Rosario</t>
-  </si>
-  <si>
-    <t>05/01/2024 16:14:50</t>
+    <t>MR200017477</t>
   </si>
   <si>
     <t>179</t>
   </si>
   <si>
-    <t>MR200017499</t>
-  </si>
-  <si>
-    <t>Antón Paredes, María Teresa</t>
-  </si>
-  <si>
-    <t>29/01/2020 21:00:45</t>
+    <t>PU190022558</t>
+  </si>
+  <si>
+    <t>Gonzales Morales, Katherine Ivette</t>
+  </si>
+  <si>
+    <t>10/12/2019 08:45:20</t>
   </si>
   <si>
     <t>180</t>
-  </si>
-  <si>
-    <t>MR200017477</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>PU190022558</t>
-  </si>
-  <si>
-    <t>Gonzales Morales, Katherine Ivette</t>
-  </si>
-  <si>
-    <t>10/12/2019 08:45:20</t>
-  </si>
-  <si>
-    <t>182</t>
   </si>
   <si>
     <t>TC190020094</t>
@@ -1736,7 +1724,7 @@
         <xdr:cNvPr id="257" name="Picture -767">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD5E9C12-ED99-F195-C6A2-2A6BDA176E7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8301E372-D6F6-2237-A7A9-D9CA5FD12A33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2164,10 +2152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AO205"/>
+  <dimension ref="B1:AO203"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showOutlineSymbols="0" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="AH24" sqref="AG24:AH24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2317,7 +2305,7 @@
       </c>
       <c r="AA9" s="9"/>
       <c r="AC9" s="8">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="AD9" s="8"/>
     </row>
@@ -6620,14 +6608,14 @@
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
       <c r="Q110" s="13">
-        <v>45622.047511574077</v>
+        <v>45621.947280092594</v>
       </c>
       <c r="R110" s="13"/>
       <c r="S110" s="13"/>
       <c r="T110" s="13"/>
       <c r="U110" s="13"/>
       <c r="X110" s="5" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="Y110" s="5"/>
       <c r="Z110" s="5"/>
@@ -6638,7 +6626,7 @@
       <c r="AE110" s="5"/>
       <c r="AF110" s="5"/>
       <c r="AI110" s="5" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="AJ110" s="5"/>
       <c r="AK110" s="5"/>
@@ -6665,14 +6653,14 @@
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
       <c r="Q111" s="13">
-        <v>45622.042141203703</v>
+        <v>45621.947083333333</v>
       </c>
       <c r="R111" s="13"/>
       <c r="S111" s="13"/>
       <c r="T111" s="13"/>
       <c r="U111" s="13"/>
       <c r="X111" s="5" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="Y111" s="5"/>
       <c r="Z111" s="5"/>
@@ -6683,7 +6671,7 @@
       <c r="AE111" s="5"/>
       <c r="AF111" s="5"/>
       <c r="AI111" s="5" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AJ111" s="5"/>
       <c r="AK111" s="5"/>
@@ -6694,11 +6682,11 @@
     </row>
     <row r="112" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C112" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D112" s="5"/>
       <c r="F112" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H112" s="5" t="s">
         <v>17</v>
@@ -6710,14 +6698,14 @@
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
       <c r="Q112" s="13">
-        <v>45621.947280092594</v>
+        <v>45621.899328703701</v>
       </c>
       <c r="R112" s="13"/>
       <c r="S112" s="13"/>
       <c r="T112" s="13"/>
       <c r="U112" s="13"/>
       <c r="X112" s="5" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="Y112" s="5"/>
       <c r="Z112" s="5"/>
@@ -6728,7 +6716,7 @@
       <c r="AE112" s="5"/>
       <c r="AF112" s="5"/>
       <c r="AI112" s="5" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AJ112" s="5"/>
       <c r="AK112" s="5"/>
@@ -6739,11 +6727,11 @@
     </row>
     <row r="113" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C113" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D113" s="5"/>
       <c r="F113" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H113" s="5" t="s">
         <v>17</v>
@@ -6755,7 +6743,7 @@
       <c r="M113" s="5"/>
       <c r="N113" s="5"/>
       <c r="Q113" s="13">
-        <v>45621.947083333333</v>
+        <v>45621.746365740742</v>
       </c>
       <c r="R113" s="13"/>
       <c r="S113" s="13"/>
@@ -6773,7 +6761,7 @@
       <c r="AE113" s="5"/>
       <c r="AF113" s="5"/>
       <c r="AI113" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AJ113" s="5"/>
       <c r="AK113" s="5"/>
@@ -6800,14 +6788,14 @@
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
       <c r="Q114" s="13">
-        <v>45621.899328703701</v>
+        <v>45621.719386574077</v>
       </c>
       <c r="R114" s="13"/>
       <c r="S114" s="13"/>
       <c r="T114" s="13"/>
       <c r="U114" s="13"/>
       <c r="X114" s="5" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="Y114" s="5"/>
       <c r="Z114" s="5"/>
@@ -6818,7 +6806,7 @@
       <c r="AE114" s="5"/>
       <c r="AF114" s="5"/>
       <c r="AI114" s="5" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="AJ114" s="5"/>
       <c r="AK114" s="5"/>
@@ -6829,11 +6817,11 @@
     </row>
     <row r="115" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C115" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D115" s="5"/>
       <c r="F115" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H115" s="5" t="s">
         <v>17</v>
@@ -6845,7 +6833,7 @@
       <c r="M115" s="5"/>
       <c r="N115" s="5"/>
       <c r="Q115" s="13">
-        <v>45621.746365740742</v>
+        <v>45621.696527777778</v>
       </c>
       <c r="R115" s="13"/>
       <c r="S115" s="13"/>
@@ -6863,7 +6851,7 @@
       <c r="AE115" s="5"/>
       <c r="AF115" s="5"/>
       <c r="AI115" s="5" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AJ115" s="5"/>
       <c r="AK115" s="5"/>
@@ -6874,11 +6862,11 @@
     </row>
     <row r="116" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C116" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D116" s="5"/>
       <c r="F116" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H116" s="5" t="s">
         <v>17</v>
@@ -6890,7 +6878,7 @@
       <c r="M116" s="5"/>
       <c r="N116" s="5"/>
       <c r="Q116" s="13">
-        <v>45621.719386574077</v>
+        <v>45621.614259259259</v>
       </c>
       <c r="R116" s="13"/>
       <c r="S116" s="13"/>
@@ -6908,7 +6896,7 @@
       <c r="AE116" s="5"/>
       <c r="AF116" s="5"/>
       <c r="AI116" s="5" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="AJ116" s="5"/>
       <c r="AK116" s="5"/>
@@ -6935,14 +6923,14 @@
       <c r="M117" s="5"/>
       <c r="N117" s="5"/>
       <c r="Q117" s="13">
-        <v>45621.696527777778</v>
+        <v>45621.031307870369</v>
       </c>
       <c r="R117" s="13"/>
       <c r="S117" s="13"/>
       <c r="T117" s="13"/>
       <c r="U117" s="13"/>
       <c r="X117" s="5" t="s">
-        <v>105</v>
+        <v>252</v>
       </c>
       <c r="Y117" s="5"/>
       <c r="Z117" s="5"/>
@@ -6953,7 +6941,7 @@
       <c r="AE117" s="5"/>
       <c r="AF117" s="5"/>
       <c r="AI117" s="5" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AJ117" s="5"/>
       <c r="AK117" s="5"/>
@@ -6964,11 +6952,11 @@
     </row>
     <row r="118" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C118" s="5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D118" s="5"/>
       <c r="F118" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H118" s="5" t="s">
         <v>17</v>
@@ -6980,14 +6968,14 @@
       <c r="M118" s="5"/>
       <c r="N118" s="5"/>
       <c r="Q118" s="13">
-        <v>45621.614259259259</v>
+        <v>45620.037175925929</v>
       </c>
       <c r="R118" s="13"/>
       <c r="S118" s="13"/>
       <c r="T118" s="13"/>
       <c r="U118" s="13"/>
       <c r="X118" s="5" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="Y118" s="5"/>
       <c r="Z118" s="5"/>
@@ -6998,7 +6986,7 @@
       <c r="AE118" s="5"/>
       <c r="AF118" s="5"/>
       <c r="AI118" s="5" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="AJ118" s="5"/>
       <c r="AK118" s="5"/>
@@ -7009,11 +6997,11 @@
     </row>
     <row r="119" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C119" s="5" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D119" s="5"/>
       <c r="F119" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H119" s="5" t="s">
         <v>17</v>
@@ -7025,14 +7013,14 @@
       <c r="M119" s="5"/>
       <c r="N119" s="5"/>
       <c r="Q119" s="13">
-        <v>45621.031307870369</v>
+        <v>45619.025671296295</v>
       </c>
       <c r="R119" s="13"/>
       <c r="S119" s="13"/>
       <c r="T119" s="13"/>
       <c r="U119" s="13"/>
       <c r="X119" s="5" t="s">
-        <v>256</v>
+        <v>65</v>
       </c>
       <c r="Y119" s="5"/>
       <c r="Z119" s="5"/>
@@ -7043,7 +7031,7 @@
       <c r="AE119" s="5"/>
       <c r="AF119" s="5"/>
       <c r="AI119" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AJ119" s="5"/>
       <c r="AK119" s="5"/>
@@ -7054,11 +7042,11 @@
     </row>
     <row r="120" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C120" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D120" s="5"/>
       <c r="F120" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H120" s="5" t="s">
         <v>17</v>
@@ -7070,7 +7058,7 @@
       <c r="M120" s="5"/>
       <c r="N120" s="5"/>
       <c r="Q120" s="13">
-        <v>45620.037175925929</v>
+        <v>45618.688298611109</v>
       </c>
       <c r="R120" s="13"/>
       <c r="S120" s="13"/>
@@ -7088,7 +7076,7 @@
       <c r="AE120" s="5"/>
       <c r="AF120" s="5"/>
       <c r="AI120" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AJ120" s="5"/>
       <c r="AK120" s="5"/>
@@ -7115,7 +7103,7 @@
       <c r="M121" s="5"/>
       <c r="N121" s="5"/>
       <c r="Q121" s="13">
-        <v>45619.025671296295</v>
+        <v>45618.684398148151</v>
       </c>
       <c r="R121" s="13"/>
       <c r="S121" s="13"/>
@@ -7133,7 +7121,7 @@
       <c r="AE121" s="5"/>
       <c r="AF121" s="5"/>
       <c r="AI121" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AJ121" s="5"/>
       <c r="AK121" s="5"/>
@@ -7160,14 +7148,14 @@
       <c r="M122" s="5"/>
       <c r="N122" s="5"/>
       <c r="Q122" s="13">
-        <v>45618.688298611109</v>
+        <v>45617.85528935185</v>
       </c>
       <c r="R122" s="13"/>
       <c r="S122" s="13"/>
       <c r="T122" s="13"/>
       <c r="U122" s="13"/>
       <c r="X122" s="5" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="Y122" s="5"/>
       <c r="Z122" s="5"/>
@@ -7178,7 +7166,7 @@
       <c r="AE122" s="5"/>
       <c r="AF122" s="5"/>
       <c r="AI122" s="5" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="AJ122" s="5"/>
       <c r="AK122" s="5"/>
@@ -7189,11 +7177,11 @@
     </row>
     <row r="123" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C123" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D123" s="5"/>
       <c r="F123" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H123" s="5" t="s">
         <v>17</v>
@@ -7205,14 +7193,14 @@
       <c r="M123" s="5"/>
       <c r="N123" s="5"/>
       <c r="Q123" s="13">
-        <v>45618.684398148151</v>
+        <v>45617.769571759258</v>
       </c>
       <c r="R123" s="13"/>
       <c r="S123" s="13"/>
       <c r="T123" s="13"/>
       <c r="U123" s="13"/>
       <c r="X123" s="5" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="Y123" s="5"/>
       <c r="Z123" s="5"/>
@@ -7223,7 +7211,7 @@
       <c r="AE123" s="5"/>
       <c r="AF123" s="5"/>
       <c r="AI123" s="5" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="AJ123" s="5"/>
       <c r="AK123" s="5"/>
@@ -7234,11 +7222,11 @@
     </row>
     <row r="124" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C124" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D124" s="5"/>
       <c r="F124" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H124" s="5" t="s">
         <v>17</v>
@@ -7250,7 +7238,7 @@
       <c r="M124" s="5"/>
       <c r="N124" s="5"/>
       <c r="Q124" s="13">
-        <v>45617.85528935185</v>
+        <v>45617.548414351855</v>
       </c>
       <c r="R124" s="13"/>
       <c r="S124" s="13"/>
@@ -7268,7 +7256,7 @@
       <c r="AE124" s="5"/>
       <c r="AF124" s="5"/>
       <c r="AI124" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AJ124" s="5"/>
       <c r="AK124" s="5"/>
@@ -7295,7 +7283,7 @@
       <c r="M125" s="5"/>
       <c r="N125" s="5"/>
       <c r="Q125" s="13">
-        <v>45617.769571759258</v>
+        <v>45617.472546296296</v>
       </c>
       <c r="R125" s="13"/>
       <c r="S125" s="13"/>
@@ -7313,7 +7301,7 @@
       <c r="AE125" s="5"/>
       <c r="AF125" s="5"/>
       <c r="AI125" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AJ125" s="5"/>
       <c r="AK125" s="5"/>
@@ -7340,7 +7328,7 @@
       <c r="M126" s="5"/>
       <c r="N126" s="5"/>
       <c r="Q126" s="13">
-        <v>45617.548414351855</v>
+        <v>45616.821863425925</v>
       </c>
       <c r="R126" s="13"/>
       <c r="S126" s="13"/>
@@ -7358,7 +7346,7 @@
       <c r="AE126" s="5"/>
       <c r="AF126" s="5"/>
       <c r="AI126" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AJ126" s="5"/>
       <c r="AK126" s="5"/>
@@ -7385,14 +7373,14 @@
       <c r="M127" s="5"/>
       <c r="N127" s="5"/>
       <c r="Q127" s="13">
-        <v>45617.472546296296</v>
+        <v>45616.538865740738</v>
       </c>
       <c r="R127" s="13"/>
       <c r="S127" s="13"/>
       <c r="T127" s="13"/>
       <c r="U127" s="13"/>
       <c r="X127" s="5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Y127" s="5"/>
       <c r="Z127" s="5"/>
@@ -7403,7 +7391,7 @@
       <c r="AE127" s="5"/>
       <c r="AF127" s="5"/>
       <c r="AI127" s="5" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="AJ127" s="5"/>
       <c r="AK127" s="5"/>
@@ -7414,11 +7402,11 @@
     </row>
     <row r="128" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C128" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D128" s="5"/>
       <c r="F128" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H128" s="5" t="s">
         <v>17</v>
@@ -7430,7 +7418,7 @@
       <c r="M128" s="5"/>
       <c r="N128" s="5"/>
       <c r="Q128" s="13">
-        <v>45616.821863425925</v>
+        <v>45615.876504629632</v>
       </c>
       <c r="R128" s="13"/>
       <c r="S128" s="13"/>
@@ -7448,7 +7436,7 @@
       <c r="AE128" s="5"/>
       <c r="AF128" s="5"/>
       <c r="AI128" s="5" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="AJ128" s="5"/>
       <c r="AK128" s="5"/>
@@ -7459,11 +7447,11 @@
     </row>
     <row r="129" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C129" s="5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D129" s="5"/>
       <c r="F129" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H129" s="5" t="s">
         <v>17</v>
@@ -7475,14 +7463,14 @@
       <c r="M129" s="5"/>
       <c r="N129" s="5"/>
       <c r="Q129" s="13">
-        <v>45616.538865740738</v>
+        <v>45615.779189814813</v>
       </c>
       <c r="R129" s="13"/>
       <c r="S129" s="13"/>
       <c r="T129" s="13"/>
       <c r="U129" s="13"/>
       <c r="X129" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="Y129" s="5"/>
       <c r="Z129" s="5"/>
@@ -7493,7 +7481,7 @@
       <c r="AE129" s="5"/>
       <c r="AF129" s="5"/>
       <c r="AI129" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AJ129" s="5"/>
       <c r="AK129" s="5"/>
@@ -7504,11 +7492,11 @@
     </row>
     <row r="130" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C130" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D130" s="5"/>
       <c r="F130" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H130" s="5" t="s">
         <v>17</v>
@@ -7520,14 +7508,14 @@
       <c r="M130" s="5"/>
       <c r="N130" s="5"/>
       <c r="Q130" s="13">
-        <v>45615.876504629632</v>
+        <v>45615.703819444447</v>
       </c>
       <c r="R130" s="13"/>
       <c r="S130" s="13"/>
       <c r="T130" s="13"/>
       <c r="U130" s="13"/>
       <c r="X130" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="Y130" s="5"/>
       <c r="Z130" s="5"/>
@@ -7538,7 +7526,7 @@
       <c r="AE130" s="5"/>
       <c r="AF130" s="5"/>
       <c r="AI130" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AJ130" s="5"/>
       <c r="AK130" s="5"/>
@@ -7549,11 +7537,11 @@
     </row>
     <row r="131" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C131" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D131" s="5"/>
       <c r="F131" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H131" s="5" t="s">
         <v>17</v>
@@ -7565,14 +7553,14 @@
       <c r="M131" s="5"/>
       <c r="N131" s="5"/>
       <c r="Q131" s="13">
-        <v>45615.779189814813</v>
+        <v>45615.595057870371</v>
       </c>
       <c r="R131" s="13"/>
       <c r="S131" s="13"/>
       <c r="T131" s="13"/>
       <c r="U131" s="13"/>
       <c r="X131" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="Y131" s="5"/>
       <c r="Z131" s="5"/>
@@ -7583,7 +7571,7 @@
       <c r="AE131" s="5"/>
       <c r="AF131" s="5"/>
       <c r="AI131" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AJ131" s="5"/>
       <c r="AK131" s="5"/>
@@ -7594,11 +7582,11 @@
     </row>
     <row r="132" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C132" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D132" s="5"/>
       <c r="F132" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H132" s="5" t="s">
         <v>17</v>
@@ -7610,7 +7598,7 @@
       <c r="M132" s="5"/>
       <c r="N132" s="5"/>
       <c r="Q132" s="13">
-        <v>45615.703819444447</v>
+        <v>45615.591817129629</v>
       </c>
       <c r="R132" s="13"/>
       <c r="S132" s="13"/>
@@ -7628,7 +7616,7 @@
       <c r="AE132" s="5"/>
       <c r="AF132" s="5"/>
       <c r="AI132" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AJ132" s="5"/>
       <c r="AK132" s="5"/>
@@ -7655,7 +7643,7 @@
       <c r="M133" s="5"/>
       <c r="N133" s="5"/>
       <c r="Q133" s="13">
-        <v>45615.595057870371</v>
+        <v>45615.588379629633</v>
       </c>
       <c r="R133" s="13"/>
       <c r="S133" s="13"/>
@@ -7673,7 +7661,7 @@
       <c r="AE133" s="5"/>
       <c r="AF133" s="5"/>
       <c r="AI133" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AJ133" s="5"/>
       <c r="AK133" s="5"/>
@@ -7700,7 +7688,7 @@
       <c r="M134" s="5"/>
       <c r="N134" s="5"/>
       <c r="Q134" s="13">
-        <v>45615.591817129629</v>
+        <v>45615.585162037038</v>
       </c>
       <c r="R134" s="13"/>
       <c r="S134" s="13"/>
@@ -7718,7 +7706,7 @@
       <c r="AE134" s="5"/>
       <c r="AF134" s="5"/>
       <c r="AI134" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AJ134" s="5"/>
       <c r="AK134" s="5"/>
@@ -7745,7 +7733,7 @@
       <c r="M135" s="5"/>
       <c r="N135" s="5"/>
       <c r="Q135" s="13">
-        <v>45615.588379629633</v>
+        <v>45615.575694444444</v>
       </c>
       <c r="R135" s="13"/>
       <c r="S135" s="13"/>
@@ -7763,7 +7751,7 @@
       <c r="AE135" s="5"/>
       <c r="AF135" s="5"/>
       <c r="AI135" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AJ135" s="5"/>
       <c r="AK135" s="5"/>
@@ -7790,7 +7778,7 @@
       <c r="M136" s="5"/>
       <c r="N136" s="5"/>
       <c r="Q136" s="13">
-        <v>45615.585162037038</v>
+        <v>45615.544618055559</v>
       </c>
       <c r="R136" s="13"/>
       <c r="S136" s="13"/>
@@ -7808,7 +7796,7 @@
       <c r="AE136" s="5"/>
       <c r="AF136" s="5"/>
       <c r="AI136" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AJ136" s="5"/>
       <c r="AK136" s="5"/>
@@ -7835,7 +7823,7 @@
       <c r="M137" s="5"/>
       <c r="N137" s="5"/>
       <c r="Q137" s="13">
-        <v>45615.575694444444</v>
+        <v>45615.453425925924</v>
       </c>
       <c r="R137" s="13"/>
       <c r="S137" s="13"/>
@@ -7853,7 +7841,7 @@
       <c r="AE137" s="5"/>
       <c r="AF137" s="5"/>
       <c r="AI137" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AJ137" s="5"/>
       <c r="AK137" s="5"/>
@@ -7880,7 +7868,7 @@
       <c r="M138" s="5"/>
       <c r="N138" s="5"/>
       <c r="Q138" s="13">
-        <v>45615.544618055559</v>
+        <v>45614.488437499997</v>
       </c>
       <c r="R138" s="13"/>
       <c r="S138" s="13"/>
@@ -7898,7 +7886,7 @@
       <c r="AE138" s="5"/>
       <c r="AF138" s="5"/>
       <c r="AI138" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AJ138" s="5"/>
       <c r="AK138" s="5"/>
@@ -7925,14 +7913,14 @@
       <c r="M139" s="5"/>
       <c r="N139" s="5"/>
       <c r="Q139" s="13">
-        <v>45615.453425925924</v>
+        <v>45614.454583333332</v>
       </c>
       <c r="R139" s="13"/>
       <c r="S139" s="13"/>
       <c r="T139" s="13"/>
       <c r="U139" s="13"/>
       <c r="X139" s="5" t="s">
-        <v>33</v>
+        <v>303</v>
       </c>
       <c r="Y139" s="5"/>
       <c r="Z139" s="5"/>
@@ -7943,7 +7931,7 @@
       <c r="AE139" s="5"/>
       <c r="AF139" s="5"/>
       <c r="AI139" s="5" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="AJ139" s="5"/>
       <c r="AK139" s="5"/>
@@ -7954,11 +7942,11 @@
     </row>
     <row r="140" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C140" s="5" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D140" s="5"/>
       <c r="F140" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H140" s="5" t="s">
         <v>17</v>
@@ -7970,14 +7958,14 @@
       <c r="M140" s="5"/>
       <c r="N140" s="5"/>
       <c r="Q140" s="13">
-        <v>45614.488437499997</v>
+        <v>45611.466562499998</v>
       </c>
       <c r="R140" s="13"/>
       <c r="S140" s="13"/>
       <c r="T140" s="13"/>
       <c r="U140" s="13"/>
       <c r="X140" s="5" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="Y140" s="5"/>
       <c r="Z140" s="5"/>
@@ -7988,7 +7976,7 @@
       <c r="AE140" s="5"/>
       <c r="AF140" s="5"/>
       <c r="AI140" s="5" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="AJ140" s="5"/>
       <c r="AK140" s="5"/>
@@ -7999,11 +7987,11 @@
     </row>
     <row r="141" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C141" s="5" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D141" s="5"/>
       <c r="F141" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H141" s="5" t="s">
         <v>17</v>
@@ -8015,14 +8003,14 @@
       <c r="M141" s="5"/>
       <c r="N141" s="5"/>
       <c r="Q141" s="13">
-        <v>45614.454583333332</v>
+        <v>45610.791724537034</v>
       </c>
       <c r="R141" s="13"/>
       <c r="S141" s="13"/>
       <c r="T141" s="13"/>
       <c r="U141" s="13"/>
       <c r="X141" s="5" t="s">
-        <v>307</v>
+        <v>33</v>
       </c>
       <c r="Y141" s="5"/>
       <c r="Z141" s="5"/>
@@ -8033,7 +8021,7 @@
       <c r="AE141" s="5"/>
       <c r="AF141" s="5"/>
       <c r="AI141" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AJ141" s="5"/>
       <c r="AK141" s="5"/>
@@ -8044,11 +8032,11 @@
     </row>
     <row r="142" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C142" s="5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D142" s="5"/>
       <c r="F142" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H142" s="5" t="s">
         <v>17</v>
@@ -8060,14 +8048,14 @@
       <c r="M142" s="5"/>
       <c r="N142" s="5"/>
       <c r="Q142" s="13">
-        <v>45611.466562499998</v>
+        <v>45610.631874999999</v>
       </c>
       <c r="R142" s="13"/>
       <c r="S142" s="13"/>
       <c r="T142" s="13"/>
       <c r="U142" s="13"/>
       <c r="X142" s="5" t="s">
-        <v>99</v>
+        <v>303</v>
       </c>
       <c r="Y142" s="5"/>
       <c r="Z142" s="5"/>
@@ -8078,7 +8066,7 @@
       <c r="AE142" s="5"/>
       <c r="AF142" s="5"/>
       <c r="AI142" s="5" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AJ142" s="5"/>
       <c r="AK142" s="5"/>
@@ -8089,11 +8077,11 @@
     </row>
     <row r="143" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C143" s="5" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D143" s="5"/>
       <c r="F143" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H143" s="5" t="s">
         <v>17</v>
@@ -8105,14 +8093,14 @@
       <c r="M143" s="5"/>
       <c r="N143" s="5"/>
       <c r="Q143" s="13">
-        <v>45610.791724537034</v>
+        <v>45610.62222222222</v>
       </c>
       <c r="R143" s="13"/>
       <c r="S143" s="13"/>
       <c r="T143" s="13"/>
       <c r="U143" s="13"/>
       <c r="X143" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Y143" s="5"/>
       <c r="Z143" s="5"/>
@@ -8123,7 +8111,7 @@
       <c r="AE143" s="5"/>
       <c r="AF143" s="5"/>
       <c r="AI143" s="5" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AJ143" s="5"/>
       <c r="AK143" s="5"/>
@@ -8134,11 +8122,11 @@
     </row>
     <row r="144" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C144" s="5" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D144" s="5"/>
       <c r="F144" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H144" s="5" t="s">
         <v>17</v>
@@ -8150,14 +8138,14 @@
       <c r="M144" s="5"/>
       <c r="N144" s="5"/>
       <c r="Q144" s="13">
-        <v>45610.631874999999</v>
+        <v>45609.747534722221</v>
       </c>
       <c r="R144" s="13"/>
       <c r="S144" s="13"/>
       <c r="T144" s="13"/>
       <c r="U144" s="13"/>
       <c r="X144" s="5" t="s">
-        <v>307</v>
+        <v>252</v>
       </c>
       <c r="Y144" s="5"/>
       <c r="Z144" s="5"/>
@@ -8168,7 +8156,7 @@
       <c r="AE144" s="5"/>
       <c r="AF144" s="5"/>
       <c r="AI144" s="5" t="s">
-        <v>317</v>
+        <v>253</v>
       </c>
       <c r="AJ144" s="5"/>
       <c r="AK144" s="5"/>
@@ -8179,11 +8167,11 @@
     </row>
     <row r="145" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C145" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D145" s="5"/>
       <c r="F145" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H145" s="5" t="s">
         <v>17</v>
@@ -8195,7 +8183,7 @@
       <c r="M145" s="5"/>
       <c r="N145" s="5"/>
       <c r="Q145" s="13">
-        <v>45610.62222222222</v>
+        <v>45609.315729166665</v>
       </c>
       <c r="R145" s="13"/>
       <c r="S145" s="13"/>
@@ -8213,7 +8201,7 @@
       <c r="AE145" s="5"/>
       <c r="AF145" s="5"/>
       <c r="AI145" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AJ145" s="5"/>
       <c r="AK145" s="5"/>
@@ -8224,11 +8212,11 @@
     </row>
     <row r="146" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C146" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D146" s="5"/>
       <c r="F146" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H146" s="5" t="s">
         <v>17</v>
@@ -8240,14 +8228,14 @@
       <c r="M146" s="5"/>
       <c r="N146" s="5"/>
       <c r="Q146" s="13">
-        <v>45609.747534722221</v>
+        <v>45608.756388888891</v>
       </c>
       <c r="R146" s="13"/>
       <c r="S146" s="13"/>
       <c r="T146" s="13"/>
       <c r="U146" s="13"/>
       <c r="X146" s="5" t="s">
-        <v>256</v>
+        <v>324</v>
       </c>
       <c r="Y146" s="5"/>
       <c r="Z146" s="5"/>
@@ -8258,7 +8246,7 @@
       <c r="AE146" s="5"/>
       <c r="AF146" s="5"/>
       <c r="AI146" s="5" t="s">
-        <v>257</v>
+        <v>325</v>
       </c>
       <c r="AJ146" s="5"/>
       <c r="AK146" s="5"/>
@@ -8269,11 +8257,11 @@
     </row>
     <row r="147" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C147" s="5" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D147" s="5"/>
       <c r="F147" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H147" s="5" t="s">
         <v>17</v>
@@ -8285,14 +8273,14 @@
       <c r="M147" s="5"/>
       <c r="N147" s="5"/>
       <c r="Q147" s="13">
-        <v>45609.315729166665</v>
+        <v>45608.376828703702</v>
       </c>
       <c r="R147" s="13"/>
       <c r="S147" s="13"/>
       <c r="T147" s="13"/>
       <c r="U147" s="13"/>
       <c r="X147" s="5" t="s">
-        <v>29</v>
+        <v>328</v>
       </c>
       <c r="Y147" s="5"/>
       <c r="Z147" s="5"/>
@@ -8303,7 +8291,7 @@
       <c r="AE147" s="5"/>
       <c r="AF147" s="5"/>
       <c r="AI147" s="5" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AJ147" s="5"/>
       <c r="AK147" s="5"/>
@@ -8314,11 +8302,11 @@
     </row>
     <row r="148" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C148" s="5" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D148" s="5"/>
       <c r="F148" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="H148" s="5" t="s">
         <v>17</v>
@@ -8330,14 +8318,14 @@
       <c r="M148" s="5"/>
       <c r="N148" s="5"/>
       <c r="Q148" s="13">
-        <v>45608.756388888891</v>
+        <v>45607.520740740743</v>
       </c>
       <c r="R148" s="13"/>
       <c r="S148" s="13"/>
       <c r="T148" s="13"/>
       <c r="U148" s="13"/>
       <c r="X148" s="5" t="s">
-        <v>328</v>
+        <v>142</v>
       </c>
       <c r="Y148" s="5"/>
       <c r="Z148" s="5"/>
@@ -8348,7 +8336,7 @@
       <c r="AE148" s="5"/>
       <c r="AF148" s="5"/>
       <c r="AI148" s="5" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AJ148" s="5"/>
       <c r="AK148" s="5"/>
@@ -8359,11 +8347,11 @@
     </row>
     <row r="149" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C149" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D149" s="5"/>
       <c r="F149" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H149" s="5" t="s">
         <v>17</v>
@@ -8375,14 +8363,14 @@
       <c r="M149" s="5"/>
       <c r="N149" s="5"/>
       <c r="Q149" s="13">
-        <v>45608.376828703702</v>
+        <v>45605.860312500001</v>
       </c>
       <c r="R149" s="13"/>
       <c r="S149" s="13"/>
       <c r="T149" s="13"/>
       <c r="U149" s="13"/>
       <c r="X149" s="5" t="s">
-        <v>332</v>
+        <v>18</v>
       </c>
       <c r="Y149" s="5"/>
       <c r="Z149" s="5"/>
@@ -8393,7 +8381,7 @@
       <c r="AE149" s="5"/>
       <c r="AF149" s="5"/>
       <c r="AI149" s="5" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AJ149" s="5"/>
       <c r="AK149" s="5"/>
@@ -8404,11 +8392,11 @@
     </row>
     <row r="150" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C150" s="5" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D150" s="5"/>
       <c r="F150" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H150" s="5" t="s">
         <v>17</v>
@@ -8420,14 +8408,14 @@
       <c r="M150" s="5"/>
       <c r="N150" s="5"/>
       <c r="Q150" s="13">
-        <v>45607.520740740743</v>
+        <v>45605.855879629627</v>
       </c>
       <c r="R150" s="13"/>
       <c r="S150" s="13"/>
       <c r="T150" s="13"/>
       <c r="U150" s="13"/>
       <c r="X150" s="5" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="Y150" s="5"/>
       <c r="Z150" s="5"/>
@@ -8438,7 +8426,7 @@
       <c r="AE150" s="5"/>
       <c r="AF150" s="5"/>
       <c r="AI150" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AJ150" s="5"/>
       <c r="AK150" s="5"/>
@@ -8449,11 +8437,11 @@
     </row>
     <row r="151" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C151" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D151" s="5"/>
       <c r="F151" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H151" s="5" t="s">
         <v>17</v>
@@ -8465,14 +8453,14 @@
       <c r="M151" s="5"/>
       <c r="N151" s="5"/>
       <c r="Q151" s="13">
-        <v>45605.860312500001</v>
+        <v>45604.952557870369</v>
       </c>
       <c r="R151" s="13"/>
       <c r="S151" s="13"/>
       <c r="T151" s="13"/>
       <c r="U151" s="13"/>
       <c r="X151" s="5" t="s">
-        <v>18</v>
+        <v>328</v>
       </c>
       <c r="Y151" s="5"/>
       <c r="Z151" s="5"/>
@@ -8483,7 +8471,7 @@
       <c r="AE151" s="5"/>
       <c r="AF151" s="5"/>
       <c r="AI151" s="5" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="AJ151" s="5"/>
       <c r="AK151" s="5"/>
@@ -8510,14 +8498,14 @@
       <c r="M152" s="5"/>
       <c r="N152" s="5"/>
       <c r="Q152" s="13">
-        <v>45605.855879629627</v>
+        <v>45602.50576388889</v>
       </c>
       <c r="R152" s="13"/>
       <c r="S152" s="13"/>
       <c r="T152" s="13"/>
       <c r="U152" s="13"/>
       <c r="X152" s="5" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="Y152" s="5"/>
       <c r="Z152" s="5"/>
@@ -8528,7 +8516,7 @@
       <c r="AE152" s="5"/>
       <c r="AF152" s="5"/>
       <c r="AI152" s="5" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AJ152" s="5"/>
       <c r="AK152" s="5"/>
@@ -8539,11 +8527,11 @@
     </row>
     <row r="153" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C153" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D153" s="5"/>
       <c r="F153" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H153" s="5" t="s">
         <v>17</v>
@@ -8555,14 +8543,14 @@
       <c r="M153" s="5"/>
       <c r="N153" s="5"/>
       <c r="Q153" s="13">
-        <v>45604.952557870369</v>
+        <v>45599.537291666667</v>
       </c>
       <c r="R153" s="13"/>
       <c r="S153" s="13"/>
       <c r="T153" s="13"/>
       <c r="U153" s="13"/>
       <c r="X153" s="5" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="Y153" s="5"/>
       <c r="Z153" s="5"/>
@@ -8573,7 +8561,7 @@
       <c r="AE153" s="5"/>
       <c r="AF153" s="5"/>
       <c r="AI153" s="5" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="AJ153" s="5"/>
       <c r="AK153" s="5"/>
@@ -8584,11 +8572,11 @@
     </row>
     <row r="154" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C154" s="5" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D154" s="5"/>
       <c r="F154" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="H154" s="5" t="s">
         <v>17</v>
@@ -8600,14 +8588,14 @@
       <c r="M154" s="5"/>
       <c r="N154" s="5"/>
       <c r="Q154" s="13">
-        <v>45602.50576388889</v>
+        <v>45598.901377314818</v>
       </c>
       <c r="R154" s="13"/>
       <c r="S154" s="13"/>
       <c r="T154" s="13"/>
       <c r="U154" s="13"/>
       <c r="X154" s="5" t="s">
-        <v>142</v>
+        <v>349</v>
       </c>
       <c r="Y154" s="5"/>
       <c r="Z154" s="5"/>
@@ -8618,7 +8606,7 @@
       <c r="AE154" s="5"/>
       <c r="AF154" s="5"/>
       <c r="AI154" s="5" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="AJ154" s="5"/>
       <c r="AK154" s="5"/>
@@ -8629,11 +8617,11 @@
     </row>
     <row r="155" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C155" s="5" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D155" s="5"/>
       <c r="F155" s="1" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="H155" s="5" t="s">
         <v>17</v>
@@ -8645,14 +8633,14 @@
       <c r="M155" s="5"/>
       <c r="N155" s="5"/>
       <c r="Q155" s="13">
-        <v>45599.537291666667</v>
+        <v>45597.454756944448</v>
       </c>
       <c r="R155" s="13"/>
       <c r="S155" s="13"/>
       <c r="T155" s="13"/>
       <c r="U155" s="13"/>
       <c r="X155" s="5" t="s">
-        <v>349</v>
+        <v>210</v>
       </c>
       <c r="Y155" s="5"/>
       <c r="Z155" s="5"/>
@@ -8663,7 +8651,7 @@
       <c r="AE155" s="5"/>
       <c r="AF155" s="5"/>
       <c r="AI155" s="5" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AJ155" s="5"/>
       <c r="AK155" s="5"/>
@@ -8674,11 +8662,11 @@
     </row>
     <row r="156" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C156" s="5" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D156" s="5"/>
       <c r="F156" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H156" s="5" t="s">
         <v>17</v>
@@ -8690,14 +8678,14 @@
       <c r="M156" s="5"/>
       <c r="N156" s="5"/>
       <c r="Q156" s="13">
-        <v>45598.901377314818</v>
+        <v>45595.769618055558</v>
       </c>
       <c r="R156" s="13"/>
       <c r="S156" s="13"/>
       <c r="T156" s="13"/>
       <c r="U156" s="13"/>
       <c r="X156" s="5" t="s">
-        <v>353</v>
+        <v>29</v>
       </c>
       <c r="Y156" s="5"/>
       <c r="Z156" s="5"/>
@@ -8708,7 +8696,7 @@
       <c r="AE156" s="5"/>
       <c r="AF156" s="5"/>
       <c r="AI156" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AJ156" s="5"/>
       <c r="AK156" s="5"/>
@@ -8719,11 +8707,11 @@
     </row>
     <row r="157" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C157" s="5" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D157" s="5"/>
       <c r="F157" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H157" s="5" t="s">
         <v>17</v>
@@ -8735,14 +8723,14 @@
       <c r="M157" s="5"/>
       <c r="N157" s="5"/>
       <c r="Q157" s="13">
-        <v>45597.454756944448</v>
+        <v>45595.721030092594</v>
       </c>
       <c r="R157" s="13"/>
       <c r="S157" s="13"/>
       <c r="T157" s="13"/>
       <c r="U157" s="13"/>
       <c r="X157" s="5" t="s">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="Y157" s="5"/>
       <c r="Z157" s="5"/>
@@ -8753,7 +8741,7 @@
       <c r="AE157" s="5"/>
       <c r="AF157" s="5"/>
       <c r="AI157" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AJ157" s="5"/>
       <c r="AK157" s="5"/>
@@ -8764,11 +8752,11 @@
     </row>
     <row r="158" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C158" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D158" s="5"/>
       <c r="F158" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H158" s="5" t="s">
         <v>17</v>
@@ -8780,7 +8768,7 @@
       <c r="M158" s="5"/>
       <c r="N158" s="5"/>
       <c r="Q158" s="13">
-        <v>45595.769618055558</v>
+        <v>45595.525393518517</v>
       </c>
       <c r="R158" s="13"/>
       <c r="S158" s="13"/>
@@ -8798,7 +8786,7 @@
       <c r="AE158" s="5"/>
       <c r="AF158" s="5"/>
       <c r="AI158" s="5" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AJ158" s="5"/>
       <c r="AK158" s="5"/>
@@ -8825,7 +8813,7 @@
       <c r="M159" s="5"/>
       <c r="N159" s="5"/>
       <c r="Q159" s="13">
-        <v>45595.721030092594</v>
+        <v>45593.598402777781</v>
       </c>
       <c r="R159" s="13"/>
       <c r="S159" s="13"/>
@@ -8843,7 +8831,7 @@
       <c r="AE159" s="5"/>
       <c r="AF159" s="5"/>
       <c r="AI159" s="5" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AJ159" s="5"/>
       <c r="AK159" s="5"/>
@@ -8854,11 +8842,11 @@
     </row>
     <row r="160" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C160" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D160" s="5"/>
       <c r="F160" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H160" s="5" t="s">
         <v>17</v>
@@ -8870,7 +8858,7 @@
       <c r="M160" s="5"/>
       <c r="N160" s="5"/>
       <c r="Q160" s="13">
-        <v>45595.525393518517</v>
+        <v>45588.858819444446</v>
       </c>
       <c r="R160" s="13"/>
       <c r="S160" s="13"/>
@@ -8888,7 +8876,7 @@
       <c r="AE160" s="5"/>
       <c r="AF160" s="5"/>
       <c r="AI160" s="5" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="AJ160" s="5"/>
       <c r="AK160" s="5"/>
@@ -8899,11 +8887,11 @@
     </row>
     <row r="161" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C161" s="5" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D161" s="5"/>
       <c r="F161" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H161" s="5" t="s">
         <v>17</v>
@@ -8915,14 +8903,14 @@
       <c r="M161" s="5"/>
       <c r="N161" s="5"/>
       <c r="Q161" s="13">
-        <v>45593.598402777781</v>
+        <v>45588.637592592589</v>
       </c>
       <c r="R161" s="13"/>
       <c r="S161" s="13"/>
       <c r="T161" s="13"/>
       <c r="U161" s="13"/>
       <c r="X161" s="5" t="s">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="Y161" s="5"/>
       <c r="Z161" s="5"/>
@@ -8933,7 +8921,7 @@
       <c r="AE161" s="5"/>
       <c r="AF161" s="5"/>
       <c r="AI161" s="5" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AJ161" s="5"/>
       <c r="AK161" s="5"/>
@@ -8944,11 +8932,11 @@
     </row>
     <row r="162" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C162" s="5" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D162" s="5"/>
       <c r="F162" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H162" s="5" t="s">
         <v>17</v>
@@ -8960,14 +8948,14 @@
       <c r="M162" s="5"/>
       <c r="N162" s="5"/>
       <c r="Q162" s="13">
-        <v>45588.858819444446</v>
+        <v>45587.712835648148</v>
       </c>
       <c r="R162" s="13"/>
       <c r="S162" s="13"/>
       <c r="T162" s="13"/>
       <c r="U162" s="13"/>
       <c r="X162" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="Y162" s="5"/>
       <c r="Z162" s="5"/>
@@ -8978,7 +8966,7 @@
       <c r="AE162" s="5"/>
       <c r="AF162" s="5"/>
       <c r="AI162" s="5" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AJ162" s="5"/>
       <c r="AK162" s="5"/>
@@ -8989,11 +8977,11 @@
     </row>
     <row r="163" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C163" s="5" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D163" s="5"/>
       <c r="F163" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H163" s="5" t="s">
         <v>17</v>
@@ -9005,14 +8993,14 @@
       <c r="M163" s="5"/>
       <c r="N163" s="5"/>
       <c r="Q163" s="13">
-        <v>45588.637592592589</v>
+        <v>45586.788402777776</v>
       </c>
       <c r="R163" s="13"/>
       <c r="S163" s="13"/>
       <c r="T163" s="13"/>
       <c r="U163" s="13"/>
       <c r="X163" s="5" t="s">
-        <v>203</v>
+        <v>18</v>
       </c>
       <c r="Y163" s="5"/>
       <c r="Z163" s="5"/>
@@ -9023,7 +9011,7 @@
       <c r="AE163" s="5"/>
       <c r="AF163" s="5"/>
       <c r="AI163" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AJ163" s="5"/>
       <c r="AK163" s="5"/>
@@ -9034,11 +9022,11 @@
     </row>
     <row r="164" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C164" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D164" s="5"/>
       <c r="F164" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H164" s="5" t="s">
         <v>17</v>
@@ -9050,7 +9038,7 @@
       <c r="M164" s="5"/>
       <c r="N164" s="5"/>
       <c r="Q164" s="13">
-        <v>45587.712835648148</v>
+        <v>45585.872881944444</v>
       </c>
       <c r="R164" s="13"/>
       <c r="S164" s="13"/>
@@ -9068,7 +9056,7 @@
       <c r="AE164" s="5"/>
       <c r="AF164" s="5"/>
       <c r="AI164" s="5" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AJ164" s="5"/>
       <c r="AK164" s="5"/>
@@ -9095,14 +9083,14 @@
       <c r="M165" s="5"/>
       <c r="N165" s="5"/>
       <c r="Q165" s="13">
-        <v>45586.788402777776</v>
+        <v>45581.889247685183</v>
       </c>
       <c r="R165" s="13"/>
       <c r="S165" s="13"/>
       <c r="T165" s="13"/>
       <c r="U165" s="13"/>
       <c r="X165" s="5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Y165" s="5"/>
       <c r="Z165" s="5"/>
@@ -9113,7 +9101,7 @@
       <c r="AE165" s="5"/>
       <c r="AF165" s="5"/>
       <c r="AI165" s="5" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="AJ165" s="5"/>
       <c r="AK165" s="5"/>
@@ -9124,11 +9112,11 @@
     </row>
     <row r="166" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C166" s="5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D166" s="5"/>
       <c r="F166" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H166" s="5" t="s">
         <v>17</v>
@@ -9140,7 +9128,7 @@
       <c r="M166" s="5"/>
       <c r="N166" s="5"/>
       <c r="Q166" s="13">
-        <v>45585.872881944444</v>
+        <v>45581.092395833337</v>
       </c>
       <c r="R166" s="13"/>
       <c r="S166" s="13"/>
@@ -9158,7 +9146,7 @@
       <c r="AE166" s="5"/>
       <c r="AF166" s="5"/>
       <c r="AI166" s="5" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="AJ166" s="5"/>
       <c r="AK166" s="5"/>
@@ -9169,11 +9157,11 @@
     </row>
     <row r="167" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C167" s="5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D167" s="5"/>
       <c r="F167" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H167" s="5" t="s">
         <v>17</v>
@@ -9185,7 +9173,7 @@
       <c r="M167" s="5"/>
       <c r="N167" s="5"/>
       <c r="Q167" s="13">
-        <v>45581.889247685183</v>
+        <v>45579.611192129632</v>
       </c>
       <c r="R167" s="13"/>
       <c r="S167" s="13"/>
@@ -9203,7 +9191,7 @@
       <c r="AE167" s="5"/>
       <c r="AF167" s="5"/>
       <c r="AI167" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AJ167" s="5"/>
       <c r="AK167" s="5"/>
@@ -9214,11 +9202,11 @@
     </row>
     <row r="168" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C168" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D168" s="5"/>
       <c r="F168" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H168" s="5" t="s">
         <v>17</v>
@@ -9230,7 +9218,7 @@
       <c r="M168" s="5"/>
       <c r="N168" s="5"/>
       <c r="Q168" s="13">
-        <v>45581.092395833337</v>
+        <v>45574.693819444445</v>
       </c>
       <c r="R168" s="13"/>
       <c r="S168" s="13"/>
@@ -9248,7 +9236,7 @@
       <c r="AE168" s="5"/>
       <c r="AF168" s="5"/>
       <c r="AI168" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AJ168" s="5"/>
       <c r="AK168" s="5"/>
@@ -9259,11 +9247,11 @@
     </row>
     <row r="169" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C169" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D169" s="5"/>
       <c r="F169" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H169" s="5" t="s">
         <v>17</v>
@@ -9275,14 +9263,14 @@
       <c r="M169" s="5"/>
       <c r="N169" s="5"/>
       <c r="Q169" s="13">
-        <v>45579.611192129632</v>
+        <v>45574.526875000003</v>
       </c>
       <c r="R169" s="13"/>
       <c r="S169" s="13"/>
       <c r="T169" s="13"/>
       <c r="U169" s="13"/>
       <c r="X169" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="Y169" s="5"/>
       <c r="Z169" s="5"/>
@@ -9293,7 +9281,7 @@
       <c r="AE169" s="5"/>
       <c r="AF169" s="5"/>
       <c r="AI169" s="5" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="AJ169" s="5"/>
       <c r="AK169" s="5"/>
@@ -9304,11 +9292,11 @@
     </row>
     <row r="170" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C170" s="5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D170" s="5"/>
       <c r="F170" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H170" s="5" t="s">
         <v>17</v>
@@ -9320,14 +9308,14 @@
       <c r="M170" s="5"/>
       <c r="N170" s="5"/>
       <c r="Q170" s="13">
-        <v>45574.693819444445</v>
+        <v>45572.609502314815</v>
       </c>
       <c r="R170" s="13"/>
       <c r="S170" s="13"/>
       <c r="T170" s="13"/>
       <c r="U170" s="13"/>
       <c r="X170" s="5" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="Y170" s="5"/>
       <c r="Z170" s="5"/>
@@ -9338,7 +9326,7 @@
       <c r="AE170" s="5"/>
       <c r="AF170" s="5"/>
       <c r="AI170" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AJ170" s="5"/>
       <c r="AK170" s="5"/>
@@ -9349,11 +9337,11 @@
     </row>
     <row r="171" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C171" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D171" s="5"/>
       <c r="F171" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H171" s="5" t="s">
         <v>17</v>
@@ -9365,14 +9353,14 @@
       <c r="M171" s="5"/>
       <c r="N171" s="5"/>
       <c r="Q171" s="13">
-        <v>45574.526875000003</v>
+        <v>45570.921979166669</v>
       </c>
       <c r="R171" s="13"/>
       <c r="S171" s="13"/>
       <c r="T171" s="13"/>
       <c r="U171" s="13"/>
       <c r="X171" s="5" t="s">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="Y171" s="5"/>
       <c r="Z171" s="5"/>
@@ -9383,7 +9371,7 @@
       <c r="AE171" s="5"/>
       <c r="AF171" s="5"/>
       <c r="AI171" s="5" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AJ171" s="5"/>
       <c r="AK171" s="5"/>
@@ -9394,11 +9382,11 @@
     </row>
     <row r="172" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C172" s="5" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D172" s="5"/>
       <c r="F172" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H172" s="5" t="s">
         <v>17</v>
@@ -9410,14 +9398,14 @@
       <c r="M172" s="5"/>
       <c r="N172" s="5"/>
       <c r="Q172" s="13">
-        <v>45572.609502314815</v>
+        <v>45570.555509259262</v>
       </c>
       <c r="R172" s="13"/>
       <c r="S172" s="13"/>
       <c r="T172" s="13"/>
       <c r="U172" s="13"/>
       <c r="X172" s="5" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="Y172" s="5"/>
       <c r="Z172" s="5"/>
@@ -9428,7 +9416,7 @@
       <c r="AE172" s="5"/>
       <c r="AF172" s="5"/>
       <c r="AI172" s="5" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="AJ172" s="5"/>
       <c r="AK172" s="5"/>
@@ -9439,11 +9427,11 @@
     </row>
     <row r="173" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C173" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D173" s="5"/>
       <c r="F173" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H173" s="5" t="s">
         <v>17</v>
@@ -9455,14 +9443,14 @@
       <c r="M173" s="5"/>
       <c r="N173" s="5"/>
       <c r="Q173" s="13">
-        <v>45570.921979166669</v>
+        <v>45563.553587962961</v>
       </c>
       <c r="R173" s="13"/>
       <c r="S173" s="13"/>
       <c r="T173" s="13"/>
       <c r="U173" s="13"/>
       <c r="X173" s="5" t="s">
-        <v>203</v>
+        <v>400</v>
       </c>
       <c r="Y173" s="5"/>
       <c r="Z173" s="5"/>
@@ -9473,7 +9461,7 @@
       <c r="AE173" s="5"/>
       <c r="AF173" s="5"/>
       <c r="AI173" s="5" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AJ173" s="5"/>
       <c r="AK173" s="5"/>
@@ -9484,11 +9472,11 @@
     </row>
     <row r="174" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C174" s="5" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D174" s="5"/>
       <c r="F174" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H174" s="5" t="s">
         <v>17</v>
@@ -9500,14 +9488,14 @@
       <c r="M174" s="5"/>
       <c r="N174" s="5"/>
       <c r="Q174" s="13">
-        <v>45570.555509259262</v>
+        <v>45555.588726851849</v>
       </c>
       <c r="R174" s="13"/>
       <c r="S174" s="13"/>
       <c r="T174" s="13"/>
       <c r="U174" s="13"/>
       <c r="X174" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="Y174" s="5"/>
       <c r="Z174" s="5"/>
@@ -9518,7 +9506,7 @@
       <c r="AE174" s="5"/>
       <c r="AF174" s="5"/>
       <c r="AI174" s="5" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="AJ174" s="5"/>
       <c r="AK174" s="5"/>
@@ -9529,11 +9517,11 @@
     </row>
     <row r="175" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C175" s="5" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D175" s="5"/>
       <c r="F175" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="H175" s="5" t="s">
         <v>17</v>
@@ -9545,14 +9533,14 @@
       <c r="M175" s="5"/>
       <c r="N175" s="5"/>
       <c r="Q175" s="13">
-        <v>45563.553587962961</v>
+        <v>45552.60628472222</v>
       </c>
       <c r="R175" s="13"/>
       <c r="S175" s="13"/>
       <c r="T175" s="13"/>
       <c r="U175" s="13"/>
       <c r="X175" s="5" t="s">
-        <v>404</v>
+        <v>18</v>
       </c>
       <c r="Y175" s="5"/>
       <c r="Z175" s="5"/>
@@ -9563,7 +9551,7 @@
       <c r="AE175" s="5"/>
       <c r="AF175" s="5"/>
       <c r="AI175" s="5" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AJ175" s="5"/>
       <c r="AK175" s="5"/>
@@ -9574,11 +9562,11 @@
     </row>
     <row r="176" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C176" s="5" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D176" s="5"/>
       <c r="F176" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H176" s="5" t="s">
         <v>17</v>
@@ -9590,14 +9578,14 @@
       <c r="M176" s="5"/>
       <c r="N176" s="5"/>
       <c r="Q176" s="13">
-        <v>45555.588726851849</v>
+        <v>45546.87363425926</v>
       </c>
       <c r="R176" s="13"/>
       <c r="S176" s="13"/>
       <c r="T176" s="13"/>
       <c r="U176" s="13"/>
       <c r="X176" s="5" t="s">
-        <v>18</v>
+        <v>410</v>
       </c>
       <c r="Y176" s="5"/>
       <c r="Z176" s="5"/>
@@ -9608,7 +9596,7 @@
       <c r="AE176" s="5"/>
       <c r="AF176" s="5"/>
       <c r="AI176" s="5" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="AJ176" s="5"/>
       <c r="AK176" s="5"/>
@@ -9619,11 +9607,11 @@
     </row>
     <row r="177" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C177" s="5" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D177" s="5"/>
       <c r="F177" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H177" s="5" t="s">
         <v>17</v>
@@ -9635,7 +9623,7 @@
       <c r="M177" s="5"/>
       <c r="N177" s="5"/>
       <c r="Q177" s="13">
-        <v>45552.60628472222</v>
+        <v>45541.764745370368</v>
       </c>
       <c r="R177" s="13"/>
       <c r="S177" s="13"/>
@@ -9653,7 +9641,7 @@
       <c r="AE177" s="5"/>
       <c r="AF177" s="5"/>
       <c r="AI177" s="5" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="AJ177" s="5"/>
       <c r="AK177" s="5"/>
@@ -9664,11 +9652,11 @@
     </row>
     <row r="178" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C178" s="5" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D178" s="5"/>
       <c r="F178" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="H178" s="5" t="s">
         <v>17</v>
@@ -9680,14 +9668,14 @@
       <c r="M178" s="5"/>
       <c r="N178" s="5"/>
       <c r="Q178" s="13">
-        <v>45546.87363425926</v>
+        <v>45540.713310185187</v>
       </c>
       <c r="R178" s="13"/>
       <c r="S178" s="13"/>
       <c r="T178" s="13"/>
       <c r="U178" s="13"/>
       <c r="X178" s="5" t="s">
-        <v>414</v>
+        <v>18</v>
       </c>
       <c r="Y178" s="5"/>
       <c r="Z178" s="5"/>
@@ -9698,7 +9686,7 @@
       <c r="AE178" s="5"/>
       <c r="AF178" s="5"/>
       <c r="AI178" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AJ178" s="5"/>
       <c r="AK178" s="5"/>
@@ -9709,11 +9697,11 @@
     </row>
     <row r="179" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C179" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D179" s="5"/>
       <c r="F179" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H179" s="5" t="s">
         <v>17</v>
@@ -9725,14 +9713,14 @@
       <c r="M179" s="5"/>
       <c r="N179" s="5"/>
       <c r="Q179" s="13">
-        <v>45541.764745370368</v>
+        <v>45519.60292824074</v>
       </c>
       <c r="R179" s="13"/>
       <c r="S179" s="13"/>
       <c r="T179" s="13"/>
       <c r="U179" s="13"/>
       <c r="X179" s="5" t="s">
-        <v>18</v>
+        <v>419</v>
       </c>
       <c r="Y179" s="5"/>
       <c r="Z179" s="5"/>
@@ -9743,7 +9731,7 @@
       <c r="AE179" s="5"/>
       <c r="AF179" s="5"/>
       <c r="AI179" s="5" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AJ179" s="5"/>
       <c r="AK179" s="5"/>
@@ -9754,11 +9742,11 @@
     </row>
     <row r="180" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C180" s="5" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D180" s="5"/>
       <c r="F180" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H180" s="5" t="s">
         <v>17</v>
@@ -9770,7 +9758,7 @@
       <c r="M180" s="5"/>
       <c r="N180" s="5"/>
       <c r="Q180" s="13">
-        <v>45540.713310185187</v>
+        <v>45513.682962962965</v>
       </c>
       <c r="R180" s="13"/>
       <c r="S180" s="13"/>
@@ -9788,7 +9776,7 @@
       <c r="AE180" s="5"/>
       <c r="AF180" s="5"/>
       <c r="AI180" s="5" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="AJ180" s="5"/>
       <c r="AK180" s="5"/>
@@ -9799,11 +9787,11 @@
     </row>
     <row r="181" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C181" s="5" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D181" s="5"/>
       <c r="F181" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="H181" s="5" t="s">
         <v>17</v>
@@ -9815,14 +9803,14 @@
       <c r="M181" s="5"/>
       <c r="N181" s="5"/>
       <c r="Q181" s="13">
-        <v>45519.60292824074</v>
+        <v>45513.06931712963</v>
       </c>
       <c r="R181" s="13"/>
       <c r="S181" s="13"/>
       <c r="T181" s="13"/>
       <c r="U181" s="13"/>
       <c r="X181" s="5" t="s">
-        <v>423</v>
+        <v>18</v>
       </c>
       <c r="Y181" s="5"/>
       <c r="Z181" s="5"/>
@@ -9833,7 +9821,7 @@
       <c r="AE181" s="5"/>
       <c r="AF181" s="5"/>
       <c r="AI181" s="5" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AJ181" s="5"/>
       <c r="AK181" s="5"/>
@@ -9844,11 +9832,11 @@
     </row>
     <row r="182" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C182" s="5" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D182" s="5"/>
       <c r="F182" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H182" s="5" t="s">
         <v>17</v>
@@ -9860,14 +9848,14 @@
       <c r="M182" s="5"/>
       <c r="N182" s="5"/>
       <c r="Q182" s="13">
-        <v>45513.682962962965</v>
+        <v>45512.818796296298</v>
       </c>
       <c r="R182" s="13"/>
       <c r="S182" s="13"/>
       <c r="T182" s="13"/>
       <c r="U182" s="13"/>
       <c r="X182" s="5" t="s">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="Y182" s="5"/>
       <c r="Z182" s="5"/>
@@ -9878,7 +9866,7 @@
       <c r="AE182" s="5"/>
       <c r="AF182" s="5"/>
       <c r="AI182" s="5" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AJ182" s="5"/>
       <c r="AK182" s="5"/>
@@ -9889,11 +9877,11 @@
     </row>
     <row r="183" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C183" s="5" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D183" s="5"/>
       <c r="F183" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H183" s="5" t="s">
         <v>17</v>
@@ -9905,14 +9893,14 @@
       <c r="M183" s="5"/>
       <c r="N183" s="5"/>
       <c r="Q183" s="13">
-        <v>45513.06931712963</v>
+        <v>45506.044224537036</v>
       </c>
       <c r="R183" s="13"/>
       <c r="S183" s="13"/>
       <c r="T183" s="13"/>
       <c r="U183" s="13"/>
       <c r="X183" s="5" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="Y183" s="5"/>
       <c r="Z183" s="5"/>
@@ -9923,7 +9911,7 @@
       <c r="AE183" s="5"/>
       <c r="AF183" s="5"/>
       <c r="AI183" s="5" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AJ183" s="5"/>
       <c r="AK183" s="5"/>
@@ -9934,11 +9922,11 @@
     </row>
     <row r="184" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C184" s="5" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D184" s="5"/>
       <c r="F184" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H184" s="5" t="s">
         <v>17</v>
@@ -9950,14 +9938,14 @@
       <c r="M184" s="5"/>
       <c r="N184" s="5"/>
       <c r="Q184" s="13">
-        <v>45512.818796296298</v>
+        <v>45495.490486111114</v>
       </c>
       <c r="R184" s="13"/>
       <c r="S184" s="13"/>
       <c r="T184" s="13"/>
       <c r="U184" s="13"/>
       <c r="X184" s="5" t="s">
-        <v>203</v>
+        <v>18</v>
       </c>
       <c r="Y184" s="5"/>
       <c r="Z184" s="5"/>
@@ -9968,7 +9956,7 @@
       <c r="AE184" s="5"/>
       <c r="AF184" s="5"/>
       <c r="AI184" s="5" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AJ184" s="5"/>
       <c r="AK184" s="5"/>
@@ -9979,11 +9967,11 @@
     </row>
     <row r="185" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C185" s="5" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D185" s="5"/>
       <c r="F185" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H185" s="5" t="s">
         <v>17</v>
@@ -9995,14 +9983,14 @@
       <c r="M185" s="5"/>
       <c r="N185" s="5"/>
       <c r="Q185" s="13">
-        <v>45506.044224537036</v>
+        <v>45491.943981481483</v>
       </c>
       <c r="R185" s="13"/>
       <c r="S185" s="13"/>
       <c r="T185" s="13"/>
       <c r="U185" s="13"/>
       <c r="X185" s="5" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="Y185" s="5"/>
       <c r="Z185" s="5"/>
@@ -10013,7 +10001,7 @@
       <c r="AE185" s="5"/>
       <c r="AF185" s="5"/>
       <c r="AI185" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AJ185" s="5"/>
       <c r="AK185" s="5"/>
@@ -10024,11 +10012,11 @@
     </row>
     <row r="186" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C186" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D186" s="5"/>
       <c r="F186" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H186" s="5" t="s">
         <v>17</v>
@@ -10040,14 +10028,14 @@
       <c r="M186" s="5"/>
       <c r="N186" s="5"/>
       <c r="Q186" s="13">
-        <v>45495.490486111114</v>
+        <v>45427.549143518518</v>
       </c>
       <c r="R186" s="13"/>
       <c r="S186" s="13"/>
       <c r="T186" s="13"/>
       <c r="U186" s="13"/>
       <c r="X186" s="5" t="s">
-        <v>18</v>
+        <v>440</v>
       </c>
       <c r="Y186" s="5"/>
       <c r="Z186" s="5"/>
@@ -10058,7 +10046,7 @@
       <c r="AE186" s="5"/>
       <c r="AF186" s="5"/>
       <c r="AI186" s="5" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AJ186" s="5"/>
       <c r="AK186" s="5"/>
@@ -10069,11 +10057,11 @@
     </row>
     <row r="187" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C187" s="5" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D187" s="5"/>
       <c r="F187" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H187" s="5" t="s">
         <v>17</v>
@@ -10085,14 +10073,14 @@
       <c r="M187" s="5"/>
       <c r="N187" s="5"/>
       <c r="Q187" s="13">
-        <v>45491.943981481483</v>
+        <v>45427.540208333332</v>
       </c>
       <c r="R187" s="13"/>
       <c r="S187" s="13"/>
       <c r="T187" s="13"/>
       <c r="U187" s="13"/>
       <c r="X187" s="5" t="s">
-        <v>18</v>
+        <v>440</v>
       </c>
       <c r="Y187" s="5"/>
       <c r="Z187" s="5"/>
@@ -10103,7 +10091,7 @@
       <c r="AE187" s="5"/>
       <c r="AF187" s="5"/>
       <c r="AI187" s="5" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AJ187" s="5"/>
       <c r="AK187" s="5"/>
@@ -10114,11 +10102,11 @@
     </row>
     <row r="188" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C188" s="5" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D188" s="5"/>
       <c r="F188" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="H188" s="5" t="s">
         <v>17</v>
@@ -10130,14 +10118,14 @@
       <c r="M188" s="5"/>
       <c r="N188" s="5"/>
       <c r="Q188" s="13">
-        <v>45427.549143518518</v>
+        <v>45408.758298611108</v>
       </c>
       <c r="R188" s="13"/>
       <c r="S188" s="13"/>
       <c r="T188" s="13"/>
       <c r="U188" s="13"/>
       <c r="X188" s="5" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="Y188" s="5"/>
       <c r="Z188" s="5"/>
@@ -10148,7 +10136,7 @@
       <c r="AE188" s="5"/>
       <c r="AF188" s="5"/>
       <c r="AI188" s="5" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AJ188" s="5"/>
       <c r="AK188" s="5"/>
@@ -10159,11 +10147,11 @@
     </row>
     <row r="189" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C189" s="5" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D189" s="5"/>
       <c r="F189" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H189" s="5" t="s">
         <v>17</v>
@@ -10175,14 +10163,14 @@
       <c r="M189" s="5"/>
       <c r="N189" s="5"/>
       <c r="Q189" s="13">
-        <v>45427.540208333332</v>
+        <v>45408.739212962966</v>
       </c>
       <c r="R189" s="13"/>
       <c r="S189" s="13"/>
       <c r="T189" s="13"/>
       <c r="U189" s="13"/>
       <c r="X189" s="5" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="Y189" s="5"/>
       <c r="Z189" s="5"/>
@@ -10193,7 +10181,7 @@
       <c r="AE189" s="5"/>
       <c r="AF189" s="5"/>
       <c r="AI189" s="5" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AJ189" s="5"/>
       <c r="AK189" s="5"/>
@@ -10204,11 +10192,11 @@
     </row>
     <row r="190" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C190" s="5" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D190" s="5"/>
       <c r="F190" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="H190" s="5" t="s">
         <v>17</v>
@@ -10220,14 +10208,14 @@
       <c r="M190" s="5"/>
       <c r="N190" s="5"/>
       <c r="Q190" s="13">
-        <v>45408.758298611108</v>
+        <v>45187.64508101852</v>
       </c>
       <c r="R190" s="13"/>
       <c r="S190" s="13"/>
       <c r="T190" s="13"/>
       <c r="U190" s="13"/>
       <c r="X190" s="5" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Y190" s="5"/>
       <c r="Z190" s="5"/>
@@ -10238,7 +10226,7 @@
       <c r="AE190" s="5"/>
       <c r="AF190" s="5"/>
       <c r="AI190" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AJ190" s="5"/>
       <c r="AK190" s="5"/>
@@ -10249,11 +10237,11 @@
     </row>
     <row r="191" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C191" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D191" s="5"/>
       <c r="F191" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H191" s="5" t="s">
         <v>17</v>
@@ -10265,14 +10253,14 @@
       <c r="M191" s="5"/>
       <c r="N191" s="5"/>
       <c r="Q191" s="13">
-        <v>45408.739212962966</v>
+        <v>45016.436064814814</v>
       </c>
       <c r="R191" s="13"/>
       <c r="S191" s="13"/>
       <c r="T191" s="13"/>
       <c r="U191" s="13"/>
       <c r="X191" s="5" t="s">
-        <v>450</v>
+        <v>324</v>
       </c>
       <c r="Y191" s="5"/>
       <c r="Z191" s="5"/>
@@ -10283,7 +10271,7 @@
       <c r="AE191" s="5"/>
       <c r="AF191" s="5"/>
       <c r="AI191" s="5" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="AJ191" s="5"/>
       <c r="AK191" s="5"/>
@@ -10294,11 +10282,11 @@
     </row>
     <row r="192" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C192" s="5" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D192" s="5"/>
       <c r="F192" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="H192" s="5" t="s">
         <v>17</v>
@@ -10310,14 +10298,14 @@
       <c r="M192" s="5"/>
       <c r="N192" s="5"/>
       <c r="Q192" s="13">
-        <v>45187.64508101852</v>
+        <v>44978.472650462965</v>
       </c>
       <c r="R192" s="13"/>
       <c r="S192" s="13"/>
       <c r="T192" s="13"/>
       <c r="U192" s="13"/>
       <c r="X192" s="5" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="Y192" s="5"/>
       <c r="Z192" s="5"/>
@@ -10328,7 +10316,7 @@
       <c r="AE192" s="5"/>
       <c r="AF192" s="5"/>
       <c r="AI192" s="5" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="AJ192" s="5"/>
       <c r="AK192" s="5"/>
@@ -10339,11 +10327,11 @@
     </row>
     <row r="193" spans="2:41" x14ac:dyDescent="0.2">
       <c r="C193" s="5" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D193" s="5"/>
       <c r="F193" s="1" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="H193" s="5" t="s">
         <v>17</v>
@@ -10355,14 +10343,14 @@
       <c r="M193" s="5"/>
       <c r="N193" s="5"/>
       <c r="Q193" s="13">
-        <v>45016.436064814814</v>
+        <v>43852.416597222225</v>
       </c>
       <c r="R193" s="13"/>
       <c r="S193" s="13"/>
       <c r="T193" s="13"/>
       <c r="U193" s="13"/>
       <c r="X193" s="5" t="s">
-        <v>328</v>
+        <v>463</v>
       </c>
       <c r="Y193" s="5"/>
       <c r="Z193" s="5"/>
@@ -10373,7 +10361,7 @@
       <c r="AE193" s="5"/>
       <c r="AF193" s="5"/>
       <c r="AI193" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="AJ193" s="5"/>
       <c r="AK193" s="5"/>
@@ -10384,11 +10372,11 @@
     </row>
     <row r="194" spans="2:41" x14ac:dyDescent="0.2">
       <c r="C194" s="5" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D194" s="5"/>
       <c r="F194" s="1" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="H194" s="5" t="s">
         <v>17</v>
@@ -10400,7 +10388,7 @@
       <c r="M194" s="5"/>
       <c r="N194" s="5"/>
       <c r="Q194" s="13">
-        <v>44978.472650462965</v>
+        <v>43852.408703703702</v>
       </c>
       <c r="R194" s="13"/>
       <c r="S194" s="13"/>
@@ -10429,11 +10417,11 @@
     </row>
     <row r="195" spans="2:41" x14ac:dyDescent="0.2">
       <c r="C195" s="5" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D195" s="5"/>
       <c r="F195" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H195" s="5" t="s">
         <v>17</v>
@@ -10445,14 +10433,14 @@
       <c r="M195" s="5"/>
       <c r="N195" s="5"/>
       <c r="Q195" s="13">
-        <v>43852.416597222225</v>
+        <v>43808.406458333331</v>
       </c>
       <c r="R195" s="13"/>
       <c r="S195" s="13"/>
       <c r="T195" s="13"/>
       <c r="U195" s="13"/>
       <c r="X195" s="5" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="Y195" s="5"/>
       <c r="Z195" s="5"/>
@@ -10463,7 +10451,7 @@
       <c r="AE195" s="5"/>
       <c r="AF195" s="5"/>
       <c r="AI195" s="5" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AJ195" s="5"/>
       <c r="AK195" s="5"/>
@@ -10474,11 +10462,11 @@
     </row>
     <row r="196" spans="2:41" x14ac:dyDescent="0.2">
       <c r="C196" s="5" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D196" s="5"/>
       <c r="F196" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H196" s="5" t="s">
         <v>17</v>
@@ -10490,14 +10478,14 @@
       <c r="M196" s="5"/>
       <c r="N196" s="5"/>
       <c r="Q196" s="13">
-        <v>43852.408703703702</v>
+        <v>43804.498483796298</v>
       </c>
       <c r="R196" s="13"/>
       <c r="S196" s="13"/>
       <c r="T196" s="13"/>
       <c r="U196" s="13"/>
       <c r="X196" s="5" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="Y196" s="5"/>
       <c r="Z196" s="5"/>
@@ -10508,7 +10496,7 @@
       <c r="AE196" s="5"/>
       <c r="AF196" s="5"/>
       <c r="AI196" s="5" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="AJ196" s="5"/>
       <c r="AK196" s="5"/>
@@ -10517,190 +10505,88 @@
       </c>
       <c r="AO196" s="5"/>
     </row>
-    <row r="197" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="C197" s="5" t="s">
+    <row r="197" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="D198" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="E198" s="7"/>
+      <c r="F198" s="7"/>
+      <c r="I198" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="D197" s="5"/>
-      <c r="F197" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="H197" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I197" s="5"/>
-      <c r="J197" s="5"/>
-      <c r="K197" s="5"/>
-      <c r="L197" s="5"/>
-      <c r="M197" s="5"/>
-      <c r="N197" s="5"/>
-      <c r="Q197" s="13">
-        <v>43808.406458333331</v>
-      </c>
-      <c r="R197" s="13"/>
-      <c r="S197" s="13"/>
-      <c r="T197" s="13"/>
-      <c r="U197" s="13"/>
-      <c r="X197" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="Y197" s="5"/>
-      <c r="Z197" s="5"/>
-      <c r="AA197" s="5"/>
-      <c r="AB197" s="5"/>
-      <c r="AC197" s="5"/>
-      <c r="AD197" s="5"/>
-      <c r="AE197" s="5"/>
-      <c r="AF197" s="5"/>
-      <c r="AI197" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="AJ197" s="5"/>
-      <c r="AK197" s="5"/>
-      <c r="AN197" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO197" s="5"/>
-    </row>
-    <row r="198" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="C198" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="D198" s="5"/>
-      <c r="F198" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="H198" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I198" s="5"/>
       <c r="J198" s="5"/>
       <c r="K198" s="5"/>
       <c r="L198" s="5"/>
       <c r="M198" s="5"/>
       <c r="N198" s="5"/>
-      <c r="Q198" s="13">
-        <v>43804.498483796298</v>
-      </c>
-      <c r="R198" s="13"/>
-      <c r="S198" s="13"/>
-      <c r="T198" s="13"/>
-      <c r="U198" s="13"/>
-      <c r="X198" s="5" t="s">
+      <c r="O198" s="5"/>
+      <c r="P198" s="5"/>
+      <c r="Q198" s="5"/>
+      <c r="R198" s="5"/>
+    </row>
+    <row r="199" spans="2:41" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" spans="2:41" ht="409.6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" spans="2:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B202" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202" s="14"/>
+      <c r="D202" s="14"/>
+      <c r="E202" s="14"/>
+      <c r="F202" s="14"/>
+      <c r="G202" s="14"/>
+      <c r="H202" s="14"/>
+      <c r="I202" s="14"/>
+      <c r="J202" s="14"/>
+      <c r="K202" s="14"/>
+      <c r="L202" s="14"/>
+      <c r="N202" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="O202" s="15"/>
+      <c r="P202" s="15"/>
+      <c r="Q202" s="15"/>
+      <c r="R202" s="15"/>
+      <c r="S202" s="15"/>
+      <c r="T202" s="15"/>
+      <c r="U202" s="15"/>
+      <c r="V202" s="15"/>
+      <c r="W202" s="15"/>
+      <c r="X202" s="15"/>
+      <c r="Y202" s="16">
+        <v>45635</v>
+      </c>
+      <c r="Z202" s="16"/>
+      <c r="AA202" s="16"/>
+      <c r="AB202" s="16"/>
+      <c r="AC202" s="16"/>
+      <c r="AD202" s="17">
+        <v>0.77896990740740746</v>
+      </c>
+      <c r="AE202" s="17"/>
+      <c r="AF202" s="17"/>
+      <c r="AH202" s="18" t="s">
         <v>477</v>
       </c>
-      <c r="Y198" s="5"/>
-      <c r="Z198" s="5"/>
-      <c r="AA198" s="5"/>
-      <c r="AB198" s="5"/>
-      <c r="AC198" s="5"/>
-      <c r="AD198" s="5"/>
-      <c r="AE198" s="5"/>
-      <c r="AF198" s="5"/>
-      <c r="AI198" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="AJ198" s="5"/>
-      <c r="AK198" s="5"/>
-      <c r="AN198" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO198" s="5"/>
-    </row>
-    <row r="199" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="D200" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="E200" s="7"/>
-      <c r="F200" s="7"/>
-      <c r="I200" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="J200" s="5"/>
-      <c r="K200" s="5"/>
-      <c r="L200" s="5"/>
-      <c r="M200" s="5"/>
-      <c r="N200" s="5"/>
-      <c r="O200" s="5"/>
-      <c r="P200" s="5"/>
-      <c r="Q200" s="5"/>
-      <c r="R200" s="5"/>
-    </row>
-    <row r="201" spans="2:41" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" spans="2:41" ht="409.6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" spans="2:41" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" spans="2:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B204" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C204" s="14"/>
-      <c r="D204" s="14"/>
-      <c r="E204" s="14"/>
-      <c r="F204" s="14"/>
-      <c r="G204" s="14"/>
-      <c r="H204" s="14"/>
-      <c r="I204" s="14"/>
-      <c r="J204" s="14"/>
-      <c r="K204" s="14"/>
-      <c r="L204" s="14"/>
-      <c r="N204" s="15" t="s">
-        <v>480</v>
-      </c>
-      <c r="O204" s="15"/>
-      <c r="P204" s="15"/>
-      <c r="Q204" s="15"/>
-      <c r="R204" s="15"/>
-      <c r="S204" s="15"/>
-      <c r="T204" s="15"/>
-      <c r="U204" s="15"/>
-      <c r="V204" s="15"/>
-      <c r="W204" s="15"/>
-      <c r="X204" s="15"/>
-      <c r="Y204" s="16">
-        <v>45632</v>
-      </c>
-      <c r="Z204" s="16"/>
-      <c r="AA204" s="16"/>
-      <c r="AB204" s="16"/>
-      <c r="AC204" s="16"/>
-      <c r="AD204" s="17">
-        <v>0.55060185185185184</v>
-      </c>
-      <c r="AE204" s="17"/>
-      <c r="AF204" s="17"/>
-      <c r="AH204" s="18" t="s">
-        <v>481</v>
-      </c>
-      <c r="AI204" s="18"/>
-      <c r="AJ204" s="18"/>
-      <c r="AK204" s="18"/>
-      <c r="AL204" s="18"/>
-      <c r="AM204" s="18"/>
-      <c r="AN204" s="18"/>
-    </row>
-    <row r="205" spans="2:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="AI202" s="18"/>
+      <c r="AJ202" s="18"/>
+      <c r="AK202" s="18"/>
+      <c r="AL202" s="18"/>
+      <c r="AM202" s="18"/>
+      <c r="AN202" s="18"/>
+    </row>
+    <row r="203" spans="2:41" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="1115">
-    <mergeCell ref="AH204:AN204"/>
-    <mergeCell ref="D200:F200"/>
-    <mergeCell ref="I200:R200"/>
-    <mergeCell ref="B204:L204"/>
-    <mergeCell ref="N204:X204"/>
-    <mergeCell ref="Y204:AC204"/>
-    <mergeCell ref="AD204:AF204"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="H198:N198"/>
-    <mergeCell ref="Q198:U198"/>
-    <mergeCell ref="X198:AF198"/>
-    <mergeCell ref="AI198:AK198"/>
-    <mergeCell ref="AN198:AO198"/>
-    <mergeCell ref="C197:D197"/>
-    <mergeCell ref="H197:N197"/>
-    <mergeCell ref="Q197:U197"/>
-    <mergeCell ref="X197:AF197"/>
-    <mergeCell ref="AI197:AK197"/>
-    <mergeCell ref="AN197:AO197"/>
+  <mergeCells count="1103">
+    <mergeCell ref="AH202:AN202"/>
+    <mergeCell ref="D198:F198"/>
+    <mergeCell ref="I198:R198"/>
+    <mergeCell ref="B202:L202"/>
+    <mergeCell ref="N202:X202"/>
+    <mergeCell ref="Y202:AC202"/>
+    <mergeCell ref="AD202:AF202"/>
     <mergeCell ref="C196:D196"/>
     <mergeCell ref="H196:N196"/>
     <mergeCell ref="Q196:U196"/>
